--- a/app/skinGui/iniGenerators/leftLeg_Lower_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/leftLeg_Lower_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="4"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="4535A" sheetId="1" r:id="rId1"/>
@@ -16908,7 +16908,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18176,7 +18176,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18266,7 +18266,7 @@
       </c>
       <c r="D3" s="63">
         <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
-        <v>4.3974596215561519</v>
+        <v>9.3974596215561519</v>
       </c>
       <c r="E3" s="63">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
@@ -18327,7 +18327,7 @@
       </c>
       <c r="D4" s="63">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-14.077748992511886</v>
+        <v>-9.0777489925118857</v>
       </c>
       <c r="E4" s="63">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
@@ -18538,7 +18538,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="O9" s="41">
         <v>164</v>
@@ -18593,7 +18593,7 @@
       </c>
       <c r="D11" s="63">
         <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-23.315353299545848</v>
+        <v>-18.315353299545848</v>
       </c>
       <c r="E11" s="63">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
@@ -18643,7 +18643,7 @@
       </c>
       <c r="D12" s="63">
         <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-41.790561913613885</v>
+        <v>-36.790561913613885</v>
       </c>
       <c r="E12" s="63">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
@@ -19039,7 +19039,7 @@
       </c>
       <c r="D25" s="63">
         <f>((O25*SIN($N$3)+P25*COS($N$3)+$N$9)*$R$4)</f>
-        <v>13.635063928590171</v>
+        <v>18.635063928590171</v>
       </c>
       <c r="E25" s="63">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M25/3.1416*180)+$N$5)</f>
@@ -19098,7 +19098,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>370</v>
+        <v>-153</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -19560,7 +19560,7 @@
       </c>
       <c r="C14" s="63">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>570.60254037844379</v>
+        <v>47.602540378443791</v>
       </c>
       <c r="D14" s="63">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
@@ -19608,7 +19608,7 @@
       </c>
       <c r="C15" s="63">
         <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>586.60254037844379</v>
+        <v>63.602540378443791</v>
       </c>
       <c r="D15" s="63">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
@@ -19685,7 +19685,7 @@
       </c>
       <c r="C17" s="63">
         <f t="shared" ref="C17:C24" si="3">((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>586.60254037844379</v>
+        <v>63.602540378443734</v>
       </c>
       <c r="D17" s="63">
         <f t="shared" ref="D17:D24" si="4">((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
@@ -19733,7 +19733,7 @@
       </c>
       <c r="C18" s="63">
         <f t="shared" si="3"/>
-        <v>570.60254037844379</v>
+        <v>47.602540378443763</v>
       </c>
       <c r="D18" s="63">
         <f t="shared" si="4"/>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="C19" s="63">
         <f t="shared" si="3"/>
-        <v>554.60254037844379</v>
+        <v>31.602540378443791</v>
       </c>
       <c r="D19" s="63">
         <f t="shared" si="4"/>
@@ -19829,7 +19829,7 @@
       </c>
       <c r="C20" s="63">
         <f t="shared" si="3"/>
-        <v>554.60254037844379</v>
+        <v>31.602540378443763</v>
       </c>
       <c r="D20" s="63">
         <f t="shared" si="4"/>
@@ -19877,7 +19877,7 @@
       </c>
       <c r="C21" s="63">
         <f t="shared" si="3"/>
-        <v>538.60254037844379</v>
+        <v>15.602540378443791</v>
       </c>
       <c r="D21" s="63">
         <f t="shared" si="4"/>
@@ -19925,7 +19925,7 @@
       </c>
       <c r="C22" s="63">
         <f t="shared" si="3"/>
-        <v>522.60254037844379</v>
+        <v>-0.39745962155618031</v>
       </c>
       <c r="D22" s="63">
         <f t="shared" si="4"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="C23" s="63">
         <f t="shared" si="3"/>
-        <v>538.60254037844379</v>
+        <v>15.60254037844382</v>
       </c>
       <c r="D23" s="63">
         <f t="shared" si="4"/>
@@ -20021,7 +20021,7 @@
       </c>
       <c r="C24" s="63">
         <f t="shared" si="3"/>
-        <v>522.60254037844379</v>
+        <v>-0.39745962155618031</v>
       </c>
       <c r="D24" s="63">
         <f t="shared" si="4"/>
@@ -20110,7 +20110,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20226,11 +20226,11 @@
       </c>
       <c r="C4" s="63">
         <f t="shared" ref="C4:C13" si="1">((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>522.60254037844379</v>
+        <v>-0.39745962155615189</v>
       </c>
       <c r="D4" s="63">
         <f t="shared" ref="D4:D13" si="2">((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-212.84014468547787</v>
+        <v>-102.84014468547787</v>
       </c>
       <c r="E4" s="63">
         <f t="shared" ref="E4:E13" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
@@ -20284,11 +20284,11 @@
       </c>
       <c r="C5" s="63">
         <f t="shared" si="1"/>
-        <v>522.6025403784439</v>
+        <v>-0.39745962155612347</v>
       </c>
       <c r="D5" s="63">
         <f t="shared" si="2"/>
-        <v>-231.31535329954588</v>
+        <v>-121.31535329954588</v>
       </c>
       <c r="E5" s="63">
         <f t="shared" si="3"/>
@@ -20341,11 +20341,11 @@
       </c>
       <c r="C6" s="63">
         <f t="shared" si="1"/>
-        <v>538.60254037844379</v>
+        <v>15.602540378443848</v>
       </c>
       <c r="D6" s="63">
         <f t="shared" si="2"/>
-        <v>-240.55295760657989</v>
+        <v>-130.55295760657989</v>
       </c>
       <c r="E6" s="63">
         <f t="shared" si="3"/>
@@ -20396,11 +20396,11 @@
       </c>
       <c r="C7" s="63">
         <f t="shared" si="1"/>
-        <v>554.60254037844379</v>
+        <v>31.602540378443848</v>
       </c>
       <c r="D7" s="63">
         <f t="shared" si="2"/>
-        <v>-231.3153532995459</v>
+        <v>-121.31535329954589</v>
       </c>
       <c r="E7" s="63">
         <f t="shared" si="3"/>
@@ -20428,7 +20428,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>370</v>
+        <v>-153</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -20450,11 +20450,11 @@
       </c>
       <c r="C8" s="63">
         <f t="shared" si="1"/>
-        <v>570.60254037844379</v>
+        <v>47.60254037844382</v>
       </c>
       <c r="D8" s="63">
         <f t="shared" si="2"/>
-        <v>-240.55295760657992</v>
+        <v>-130.55295760657992</v>
       </c>
       <c r="E8" s="63">
         <f t="shared" si="3"/>
@@ -20504,11 +20504,11 @@
       </c>
       <c r="C9" s="63">
         <f t="shared" si="1"/>
-        <v>586.60254037844379</v>
+        <v>63.602540378443791</v>
       </c>
       <c r="D9" s="63">
         <f t="shared" si="2"/>
-        <v>-231.3153532995459</v>
+        <v>-121.31535329954592</v>
       </c>
       <c r="E9" s="63">
         <f t="shared" si="3"/>
@@ -20535,7 +20535,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>-167</v>
+        <v>-57</v>
       </c>
       <c r="O9" s="41">
         <v>164</v>
@@ -20555,11 +20555,11 @@
       </c>
       <c r="C10" s="63">
         <f t="shared" si="1"/>
-        <v>586.60254037844379</v>
+        <v>63.602540378443791</v>
       </c>
       <c r="D10" s="63">
         <f t="shared" si="2"/>
-        <v>-212.8401446854779</v>
+        <v>-102.8401446854779</v>
       </c>
       <c r="E10" s="63">
         <f t="shared" si="3"/>
@@ -20605,11 +20605,11 @@
       </c>
       <c r="C11" s="63">
         <f t="shared" si="1"/>
-        <v>538.60254037844379</v>
+        <v>15.602540378443848</v>
       </c>
       <c r="D11" s="63">
         <f t="shared" si="2"/>
-        <v>-203.60254037844385</v>
+        <v>-93.602540378443862</v>
       </c>
       <c r="E11" s="63">
         <f t="shared" si="3"/>
@@ -20655,11 +20655,11 @@
       </c>
       <c r="C12" s="63">
         <f t="shared" si="1"/>
-        <v>554.60254037844379</v>
+        <v>31.60254037844382</v>
       </c>
       <c r="D12" s="63">
         <f t="shared" si="2"/>
-        <v>-212.84014468547787</v>
+        <v>-102.84014468547788</v>
       </c>
       <c r="E12" s="63">
         <f t="shared" si="3"/>
@@ -20703,11 +20703,11 @@
       </c>
       <c r="C13" s="63">
         <f t="shared" si="1"/>
-        <v>570.60254037844379</v>
+        <v>47.602540378443791</v>
       </c>
       <c r="D13" s="63">
         <f t="shared" si="2"/>
-        <v>-203.60254037844388</v>
+        <v>-93.602540378443877</v>
       </c>
       <c r="E13" s="63">
         <f t="shared" si="3"/>
@@ -21110,8 +21110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21316,7 +21316,7 @@
       </c>
       <c r="D6" s="63">
         <f>((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-0.23760430703399038</v>
+        <v>9.7623956929660096</v>
       </c>
       <c r="E6" s="63">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
@@ -21371,7 +21371,7 @@
       </c>
       <c r="D7" s="63">
         <f t="shared" ref="D7:D10" si="4">((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-18.712812921101985</v>
+        <v>-8.7128129211019854</v>
       </c>
       <c r="E7" s="63">
         <f t="shared" ref="E7:E10" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
@@ -21425,7 +21425,7 @@
       </c>
       <c r="D8" s="63">
         <f t="shared" si="4"/>
-        <v>-27.950417228135962</v>
+        <v>-17.950417228135962</v>
       </c>
       <c r="E8" s="63">
         <f t="shared" si="5"/>
@@ -21487,7 +21487,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O9" s="41">
         <v>164</v>
@@ -23614,7 +23614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:G164"/>
     </sheetView>
   </sheetViews>
@@ -24354,7 +24354,7 @@
       </c>
       <c r="D26" s="60">
         <f>IF('4535A_1'!D3="", "", '4535A_1'!D3)</f>
-        <v>4.3974596215561519</v>
+        <v>9.3974596215561519</v>
       </c>
       <c r="E26" s="60">
         <f>IF('4535A_1'!E3="", "", '4535A_1'!E3)</f>
@@ -24384,7 +24384,7 @@
       </c>
       <c r="D27" s="60">
         <f>IF('4535A_1'!D4="", "", '4535A_1'!D4)</f>
-        <v>-14.077748992511886</v>
+        <v>-9.0777489925118857</v>
       </c>
       <c r="E27" s="60">
         <f>IF('4535A_1'!E4="", "", '4535A_1'!E4)</f>
@@ -24594,7 +24594,7 @@
       </c>
       <c r="D34" s="60">
         <f>IF('4535A_1'!D11="", "", '4535A_1'!D11)</f>
-        <v>-23.315353299545848</v>
+        <v>-18.315353299545848</v>
       </c>
       <c r="E34" s="60">
         <f>IF('4535A_1'!E11="", "", '4535A_1'!E11)</f>
@@ -24624,7 +24624,7 @@
       </c>
       <c r="D35" s="60">
         <f>IF('4535A_1'!D12="", "", '4535A_1'!D12)</f>
-        <v>-41.790561913613885</v>
+        <v>-36.790561913613885</v>
       </c>
       <c r="E35" s="60">
         <f>IF('4535A_1'!E12="", "", '4535A_1'!E12)</f>
@@ -25014,7 +25014,7 @@
       </c>
       <c r="D48" s="60">
         <f>IF('4535A_1'!D25="", "", '4535A_1'!D25)</f>
-        <v>13.635063928590171</v>
+        <v>18.635063928590171</v>
       </c>
       <c r="E48" s="60">
         <f>IF('4535A_1'!E25="", "", '4535A_1'!E25)</f>
@@ -25370,7 +25370,7 @@
       </c>
       <c r="C60" s="61">
         <f>IF('4535_1'!C14="", "", '4535_1'!C14)</f>
-        <v>570.60254037844379</v>
+        <v>47.602540378443791</v>
       </c>
       <c r="D60" s="61">
         <f>IF('4535_1'!D14="", "", '4535_1'!D14)</f>
@@ -25400,7 +25400,7 @@
       </c>
       <c r="C61" s="61">
         <f>IF('4535_1'!C15="", "", '4535_1'!C15)</f>
-        <v>586.60254037844379</v>
+        <v>63.602540378443791</v>
       </c>
       <c r="D61" s="61">
         <f>IF('4535_1'!D15="", "", '4535_1'!D15)</f>
@@ -25460,7 +25460,7 @@
       </c>
       <c r="C63" s="61">
         <f>IF('4535_1'!C17="", "", '4535_1'!C17)</f>
-        <v>586.60254037844379</v>
+        <v>63.602540378443734</v>
       </c>
       <c r="D63" s="61">
         <f>IF('4535_1'!D17="", "", '4535_1'!D17)</f>
@@ -25490,7 +25490,7 @@
       </c>
       <c r="C64" s="61">
         <f>IF('4535_1'!C18="", "", '4535_1'!C18)</f>
-        <v>570.60254037844379</v>
+        <v>47.602540378443763</v>
       </c>
       <c r="D64" s="61">
         <f>IF('4535_1'!D18="", "", '4535_1'!D18)</f>
@@ -25520,7 +25520,7 @@
       </c>
       <c r="C65" s="61">
         <f>IF('4535_1'!C19="", "", '4535_1'!C19)</f>
-        <v>554.60254037844379</v>
+        <v>31.602540378443791</v>
       </c>
       <c r="D65" s="61">
         <f>IF('4535_1'!D19="", "", '4535_1'!D19)</f>
@@ -25550,7 +25550,7 @@
       </c>
       <c r="C66" s="61">
         <f>IF('4535_1'!C20="", "", '4535_1'!C20)</f>
-        <v>554.60254037844379</v>
+        <v>31.602540378443763</v>
       </c>
       <c r="D66" s="61">
         <f>IF('4535_1'!D20="", "", '4535_1'!D20)</f>
@@ -25580,7 +25580,7 @@
       </c>
       <c r="C67" s="61">
         <f>IF('4535_1'!C21="", "", '4535_1'!C21)</f>
-        <v>538.60254037844379</v>
+        <v>15.602540378443791</v>
       </c>
       <c r="D67" s="61">
         <f>IF('4535_1'!D21="", "", '4535_1'!D21)</f>
@@ -25610,7 +25610,7 @@
       </c>
       <c r="C68" s="61">
         <f>IF('4535_1'!C22="", "", '4535_1'!C22)</f>
-        <v>522.60254037844379</v>
+        <v>-0.39745962155618031</v>
       </c>
       <c r="D68" s="61">
         <f>IF('4535_1'!D22="", "", '4535_1'!D22)</f>
@@ -25640,7 +25640,7 @@
       </c>
       <c r="C69" s="61">
         <f>IF('4535_1'!C23="", "", '4535_1'!C23)</f>
-        <v>538.60254037844379</v>
+        <v>15.60254037844382</v>
       </c>
       <c r="D69" s="61">
         <f>IF('4535_1'!D23="", "", '4535_1'!D23)</f>
@@ -25670,7 +25670,7 @@
       </c>
       <c r="C70" s="61">
         <f>IF('4535_1'!C24="", "", '4535_1'!C24)</f>
-        <v>522.60254037844379</v>
+        <v>-0.39745962155618031</v>
       </c>
       <c r="D70" s="61">
         <f>IF('4535_1'!D24="", "", '4535_1'!D24)</f>
@@ -25760,11 +25760,11 @@
       </c>
       <c r="C73" s="66">
         <f>IF('4535_2'!C4="", "", '4535_2'!C4)</f>
-        <v>522.60254037844379</v>
+        <v>-0.39745962155615189</v>
       </c>
       <c r="D73" s="66">
         <f>IF('4535_2'!D4="", "", '4535_2'!D4)</f>
-        <v>-212.84014468547787</v>
+        <v>-102.84014468547787</v>
       </c>
       <c r="E73" s="66">
         <f>IF('4535_2'!E4="", "", '4535_2'!E4)</f>
@@ -25790,11 +25790,11 @@
       </c>
       <c r="C74" s="66">
         <f>IF('4535_2'!C5="", "", '4535_2'!C5)</f>
-        <v>522.6025403784439</v>
+        <v>-0.39745962155612347</v>
       </c>
       <c r="D74" s="66">
         <f>IF('4535_2'!D5="", "", '4535_2'!D5)</f>
-        <v>-231.31535329954588</v>
+        <v>-121.31535329954588</v>
       </c>
       <c r="E74" s="66">
         <f>IF('4535_2'!E5="", "", '4535_2'!E5)</f>
@@ -25820,11 +25820,11 @@
       </c>
       <c r="C75" s="66">
         <f>IF('4535_2'!C6="", "", '4535_2'!C6)</f>
-        <v>538.60254037844379</v>
+        <v>15.602540378443848</v>
       </c>
       <c r="D75" s="66">
         <f>IF('4535_2'!D6="", "", '4535_2'!D6)</f>
-        <v>-240.55295760657989</v>
+        <v>-130.55295760657989</v>
       </c>
       <c r="E75" s="66">
         <f>IF('4535_2'!E6="", "", '4535_2'!E6)</f>
@@ -25850,11 +25850,11 @@
       </c>
       <c r="C76" s="66">
         <f>IF('4535_2'!C7="", "", '4535_2'!C7)</f>
-        <v>554.60254037844379</v>
+        <v>31.602540378443848</v>
       </c>
       <c r="D76" s="66">
         <f>IF('4535_2'!D7="", "", '4535_2'!D7)</f>
-        <v>-231.3153532995459</v>
+        <v>-121.31535329954589</v>
       </c>
       <c r="E76" s="66">
         <f>IF('4535_2'!E7="", "", '4535_2'!E7)</f>
@@ -25880,11 +25880,11 @@
       </c>
       <c r="C77" s="66">
         <f>IF('4535_2'!C8="", "", '4535_2'!C8)</f>
-        <v>570.60254037844379</v>
+        <v>47.60254037844382</v>
       </c>
       <c r="D77" s="66">
         <f>IF('4535_2'!D8="", "", '4535_2'!D8)</f>
-        <v>-240.55295760657992</v>
+        <v>-130.55295760657992</v>
       </c>
       <c r="E77" s="66">
         <f>IF('4535_2'!E8="", "", '4535_2'!E8)</f>
@@ -25910,11 +25910,11 @@
       </c>
       <c r="C78" s="66">
         <f>IF('4535_2'!C9="", "", '4535_2'!C9)</f>
-        <v>586.60254037844379</v>
+        <v>63.602540378443791</v>
       </c>
       <c r="D78" s="66">
         <f>IF('4535_2'!D9="", "", '4535_2'!D9)</f>
-        <v>-231.3153532995459</v>
+        <v>-121.31535329954592</v>
       </c>
       <c r="E78" s="66">
         <f>IF('4535_2'!E9="", "", '4535_2'!E9)</f>
@@ -25940,11 +25940,11 @@
       </c>
       <c r="C79" s="66">
         <f>IF('4535_2'!C10="", "", '4535_2'!C10)</f>
-        <v>586.60254037844379</v>
+        <v>63.602540378443791</v>
       </c>
       <c r="D79" s="66">
         <f>IF('4535_2'!D10="", "", '4535_2'!D10)</f>
-        <v>-212.8401446854779</v>
+        <v>-102.8401446854779</v>
       </c>
       <c r="E79" s="66">
         <f>IF('4535_2'!E10="", "", '4535_2'!E10)</f>
@@ -25970,11 +25970,11 @@
       </c>
       <c r="C80" s="66">
         <f>IF('4535_2'!C11="", "", '4535_2'!C11)</f>
-        <v>538.60254037844379</v>
+        <v>15.602540378443848</v>
       </c>
       <c r="D80" s="66">
         <f>IF('4535_2'!D11="", "", '4535_2'!D11)</f>
-        <v>-203.60254037844385</v>
+        <v>-93.602540378443862</v>
       </c>
       <c r="E80" s="66">
         <f>IF('4535_2'!E11="", "", '4535_2'!E11)</f>
@@ -26000,11 +26000,11 @@
       </c>
       <c r="C81" s="66">
         <f>IF('4535_2'!C12="", "", '4535_2'!C12)</f>
-        <v>554.60254037844379</v>
+        <v>31.60254037844382</v>
       </c>
       <c r="D81" s="66">
         <f>IF('4535_2'!D12="", "", '4535_2'!D12)</f>
-        <v>-212.84014468547787</v>
+        <v>-102.84014468547788</v>
       </c>
       <c r="E81" s="66">
         <f>IF('4535_2'!E12="", "", '4535_2'!E12)</f>
@@ -26030,11 +26030,11 @@
       </c>
       <c r="C82" s="66">
         <f>IF('4535_2'!C13="", "", '4535_2'!C13)</f>
-        <v>570.60254037844379</v>
+        <v>47.602540378443791</v>
       </c>
       <c r="D82" s="66">
         <f>IF('4535_2'!D13="", "", '4535_2'!D13)</f>
-        <v>-203.60254037844388</v>
+        <v>-93.602540378443877</v>
       </c>
       <c r="E82" s="66">
         <f>IF('4535_2'!E13="", "", '4535_2'!E13)</f>
@@ -26544,7 +26544,7 @@
       </c>
       <c r="D99" s="70">
         <f>IF('4535A_2'!D6="", "", '4535A_2'!D6)</f>
-        <v>-0.23760430703399038</v>
+        <v>9.7623956929660096</v>
       </c>
       <c r="E99" s="70">
         <f>IF('4535A_2'!E6="", "", '4535A_2'!E6)</f>
@@ -26574,7 +26574,7 @@
       </c>
       <c r="D100" s="70">
         <f>IF('4535A_2'!D7="", "", '4535A_2'!D7)</f>
-        <v>-18.712812921101985</v>
+        <v>-8.7128129211019854</v>
       </c>
       <c r="E100" s="70">
         <f>IF('4535A_2'!E7="", "", '4535A_2'!E7)</f>
@@ -26604,7 +26604,7 @@
       </c>
       <c r="D101" s="70">
         <f>IF('4535A_2'!D8="", "", '4535A_2'!D8)</f>
-        <v>-27.950417228135962</v>
+        <v>-17.950417228135962</v>
       </c>
       <c r="E101" s="70">
         <f>IF('4535A_2'!E8="", "", '4535A_2'!E8)</f>

--- a/app/skinGui/iniGenerators/leftLeg_Lower_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/leftLeg_Lower_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12588" yWindow="-12" windowWidth="12636" windowHeight="12000"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="4535A" sheetId="1" r:id="rId1"/>
@@ -858,8 +858,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11251132" y="2400853"/>
-          <a:ext cx="4457196" cy="4001869"/>
+          <a:off x="10908232" y="2425506"/>
+          <a:ext cx="4358584" cy="4042210"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4563288"/>
         </a:xfrm>
@@ -2961,8 +2961,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10521220" y="0"/>
-          <a:ext cx="4101896" cy="0"/>
+          <a:off x="10214179" y="0"/>
+          <a:ext cx="4018973" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -3985,8 +3985,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10494574" y="2293277"/>
-          <a:ext cx="4454944" cy="3651689"/>
+          <a:off x="10205462" y="2324653"/>
+          <a:ext cx="4354092" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -5144,8 +5144,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11301149" y="0"/>
-          <a:ext cx="4119826" cy="0"/>
+          <a:off x="11032208" y="0"/>
+          <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -6168,8 +6168,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11247611" y="2293277"/>
-          <a:ext cx="4489183" cy="3651689"/>
+          <a:off x="10989875" y="2324653"/>
+          <a:ext cx="4388331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -8271,8 +8271,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12246215" y="2293277"/>
-          <a:ext cx="4576056" cy="3642725"/>
+          <a:off x="12051232" y="2324653"/>
+          <a:ext cx="4544680" cy="3705478"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -10374,8 +10374,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11176540" y="0"/>
-          <a:ext cx="4118481" cy="0"/>
+          <a:off x="10921270" y="0"/>
+          <a:ext cx="4034661" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -11398,8 +11398,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11212648" y="2261452"/>
-          <a:ext cx="4603633" cy="3682618"/>
+          <a:off x="10957378" y="2255737"/>
+          <a:ext cx="4519813" cy="3705478"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -12422,8 +12422,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="7287203">
-          <a:off x="13447057" y="4392708"/>
-          <a:ext cx="2162736" cy="952500"/>
+          <a:off x="13453500" y="4313427"/>
+          <a:ext cx="2161055" cy="952500"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12538,8 +12538,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10942561" y="0"/>
-          <a:ext cx="4119826" cy="0"/>
+          <a:off x="10684826" y="0"/>
+          <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -13562,8 +13562,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10978669" y="2293277"/>
-          <a:ext cx="4604978" cy="3642725"/>
+          <a:off x="10720934" y="2324653"/>
+          <a:ext cx="4515331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -16911,32 +16911,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.5546875" customWidth="1"/>
-    <col min="9" max="9" width="2.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16991,7 +16991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -17072,7 +17072,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="33"/>
       <c r="C5" s="61"/>
@@ -17110,7 +17110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -17169,8 +17169,8 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <f>-217+128</f>
-        <v>-89</v>
+        <f>-217+128-64</f>
+        <v>-153</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -17280,7 +17280,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -17311,7 +17311,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -17340,7 +17340,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -17369,7 +17369,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>26</v>
       </c>
@@ -17379,7 +17379,7 @@
       </c>
       <c r="C14" s="61">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>111.60254037844379</v>
+        <v>47.602540378443791</v>
       </c>
       <c r="D14" s="61">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
@@ -17417,7 +17417,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>26</v>
       </c>
@@ -17427,7 +17427,7 @@
       </c>
       <c r="C15" s="61">
         <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>127.60254037844379</v>
+        <v>63.602540378443791</v>
       </c>
       <c r="D15" s="61">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
@@ -17465,7 +17465,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -17494,7 +17494,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>26</v>
       </c>
@@ -17504,7 +17504,7 @@
       </c>
       <c r="C17" s="61">
         <f t="shared" ref="C17:C24" si="3">((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>127.60254037844373</v>
+        <v>63.602540378443734</v>
       </c>
       <c r="D17" s="61">
         <f t="shared" ref="D17:D24" si="4">((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
@@ -17542,7 +17542,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>26</v>
       </c>
@@ -17552,7 +17552,7 @@
       </c>
       <c r="C18" s="61">
         <f t="shared" si="3"/>
-        <v>111.60254037844376</v>
+        <v>47.602540378443763</v>
       </c>
       <c r="D18" s="61">
         <f t="shared" si="4"/>
@@ -17590,7 +17590,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>26</v>
       </c>
@@ -17600,7 +17600,7 @@
       </c>
       <c r="C19" s="61">
         <f t="shared" si="3"/>
-        <v>95.602540378443791</v>
+        <v>31.602540378443791</v>
       </c>
       <c r="D19" s="61">
         <f t="shared" si="4"/>
@@ -17638,7 +17638,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>26</v>
       </c>
@@ -17648,7 +17648,7 @@
       </c>
       <c r="C20" s="61">
         <f t="shared" si="3"/>
-        <v>95.602540378443763</v>
+        <v>31.602540378443763</v>
       </c>
       <c r="D20" s="61">
         <f t="shared" si="4"/>
@@ -17686,7 +17686,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>26</v>
       </c>
@@ -17696,7 +17696,7 @@
       </c>
       <c r="C21" s="61">
         <f t="shared" si="3"/>
-        <v>79.602540378443791</v>
+        <v>15.602540378443791</v>
       </c>
       <c r="D21" s="61">
         <f t="shared" si="4"/>
@@ -17734,7 +17734,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>26</v>
       </c>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="C22" s="61">
         <f t="shared" si="3"/>
-        <v>63.60254037844382</v>
+        <v>-0.39745962155618031</v>
       </c>
       <c r="D22" s="61">
         <f t="shared" si="4"/>
@@ -17782,7 +17782,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>26</v>
       </c>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="C23" s="61">
         <f t="shared" si="3"/>
-        <v>79.60254037844382</v>
+        <v>15.60254037844382</v>
       </c>
       <c r="D23" s="61">
         <f t="shared" si="4"/>
@@ -17830,7 +17830,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>26</v>
       </c>
@@ -17840,7 +17840,7 @@
       </c>
       <c r="C24" s="61">
         <f t="shared" si="3"/>
-        <v>63.60254037844382</v>
+        <v>-0.39745962155618031</v>
       </c>
       <c r="D24" s="61">
         <f t="shared" si="4"/>
@@ -17912,17 +17912,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J28" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -17930,7 +17930,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -17939,7 +17939,7 @@
       <c r="L32" s="8"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G33" s="7"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -17949,7 +17949,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -17959,7 +17959,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -17969,7 +17969,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -17979,7 +17979,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G37" s="7"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -17989,7 +17989,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G38" s="7"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -17999,7 +17999,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G39" s="7"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -18009,7 +18009,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G40" s="7"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -18019,7 +18019,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -18029,7 +18029,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -18039,7 +18039,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -18049,7 +18049,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -18059,7 +18059,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -18069,7 +18069,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -18079,7 +18079,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -18089,7 +18089,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -18099,7 +18099,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G49" s="7"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -18109,7 +18109,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G50" s="7"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -18119,7 +18119,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G51" s="7"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -18129,7 +18129,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G52" s="7"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -18139,7 +18139,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G53" s="7"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -18149,7 +18149,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G54" s="7"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -18159,7 +18159,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -18181,29 +18181,29 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18257,7 +18257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>26</v>
       </c>
@@ -18376,7 +18376,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="33"/>
       <c r="C5" s="23"/>
@@ -18414,7 +18414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
@@ -18553,7 +18553,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -18584,7 +18584,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>26</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>26</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -18711,7 +18711,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -18740,7 +18740,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -18769,7 +18769,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="33"/>
       <c r="C16" s="23"/>
@@ -18798,7 +18798,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -18827,7 +18827,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -18856,7 +18856,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -18885,7 +18885,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -18914,7 +18914,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -18943,7 +18943,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -18972,7 +18972,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -19001,7 +19001,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -19078,17 +19078,17 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J29" s="73" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N30" s="56"/>
     </row>
   </sheetData>
@@ -19103,26 +19103,26 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19176,7 +19176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -19200,7 +19200,7 @@
       </c>
       <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
-        <v>-1.0471975511965976</v>
+        <v>2.0943951023931953</v>
       </c>
       <c r="O3" s="15">
         <v>100</v>
@@ -19257,7 +19257,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="33"/>
       <c r="C5" s="61"/>
@@ -19280,7 +19280,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="O5" s="41">
         <v>132</v>
@@ -19295,7 +19295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-153</v>
+        <v>217</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -19423,8 +19423,8 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <f>-46-10</f>
-        <v>-56</v>
+        <f>-46-8</f>
+        <v>-54</v>
       </c>
       <c r="O9" s="41">
         <v>164</v>
@@ -19434,7 +19434,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -19465,7 +19465,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -19497,7 +19497,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -19526,7 +19526,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -19555,7 +19555,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>26</v>
       </c>
@@ -19565,15 +19565,15 @@
       </c>
       <c r="C14" s="61">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>47.602540378443791</v>
+        <v>16.397459621556237</v>
       </c>
       <c r="D14" s="61">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-74.127331764375867</v>
+        <v>-35.872668235624062</v>
       </c>
       <c r="E14" s="61">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F14" s="60">
         <v>5</v>
@@ -19603,7 +19603,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>26</v>
       </c>
@@ -19613,15 +19613,15 @@
       </c>
       <c r="C15" s="61">
         <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>63.602540378443791</v>
+        <v>0.39745962155623715</v>
       </c>
       <c r="D15" s="61">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-64.889727457341863</v>
+        <v>-45.110272542658066</v>
       </c>
       <c r="E15" s="61">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F15" s="60">
         <v>5</v>
@@ -19651,7 +19651,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -19680,7 +19680,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>26</v>
       </c>
@@ -19690,15 +19690,15 @@
       </c>
       <c r="C17" s="61">
         <f t="shared" ref="C17:C24" si="3">((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>63.602540378443734</v>
+        <v>0.39745962155626557</v>
       </c>
       <c r="D17" s="61">
         <f t="shared" ref="D17:D24" si="4">((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-46.414518843273839</v>
+        <v>-63.585481156726075</v>
       </c>
       <c r="E17" s="61">
         <f t="shared" ref="E17:E24" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M17/3.1416*180)+$N$5)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F17" s="60">
         <v>5</v>
@@ -19728,7 +19728,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>26</v>
       </c>
@@ -19738,15 +19738,15 @@
       </c>
       <c r="C18" s="61">
         <f t="shared" si="3"/>
-        <v>47.602540378443763</v>
+        <v>16.397459621556237</v>
       </c>
       <c r="D18" s="61">
         <f t="shared" si="4"/>
-        <v>-37.176914536239835</v>
+        <v>-72.823085463760108</v>
       </c>
       <c r="E18" s="61">
         <f t="shared" si="5"/>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F18" s="60">
         <v>5</v>
@@ -19776,7 +19776,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>26</v>
       </c>
@@ -19786,15 +19786,15 @@
       </c>
       <c r="C19" s="61">
         <f t="shared" si="3"/>
-        <v>31.602540378443791</v>
+        <v>32.397459621556209</v>
       </c>
       <c r="D19" s="61">
         <f t="shared" si="4"/>
-        <v>-64.889727457341849</v>
+        <v>-45.110272542658095</v>
       </c>
       <c r="E19" s="61">
         <f t="shared" si="5"/>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F19" s="60">
         <v>5</v>
@@ -19824,7 +19824,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>26</v>
       </c>
@@ -19834,15 +19834,15 @@
       </c>
       <c r="C20" s="61">
         <f t="shared" si="3"/>
-        <v>31.602540378443763</v>
+        <v>32.397459621556237</v>
       </c>
       <c r="D20" s="61">
         <f t="shared" si="4"/>
-        <v>-46.414518843273839</v>
+        <v>-63.585481156726104</v>
       </c>
       <c r="E20" s="61">
         <f t="shared" si="5"/>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F20" s="60">
         <v>5</v>
@@ -19872,7 +19872,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>26</v>
       </c>
@@ -19882,15 +19882,15 @@
       </c>
       <c r="C21" s="61">
         <f t="shared" si="3"/>
-        <v>15.602540378443791</v>
+        <v>48.397459621556209</v>
       </c>
       <c r="D21" s="61">
         <f t="shared" si="4"/>
-        <v>-37.176914536239813</v>
+        <v>-72.823085463760137</v>
       </c>
       <c r="E21" s="61">
         <f t="shared" si="5"/>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F21" s="60">
         <v>5</v>
@@ -19920,7 +19920,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>26</v>
       </c>
@@ -19930,15 +19930,15 @@
       </c>
       <c r="C22" s="61">
         <f t="shared" si="3"/>
-        <v>-0.39745962155618031</v>
+        <v>64.397459621556209</v>
       </c>
       <c r="D22" s="61">
         <f t="shared" si="4"/>
-        <v>-46.414518843273818</v>
+        <v>-63.585481156726132</v>
       </c>
       <c r="E22" s="61">
         <f t="shared" si="5"/>
-        <v>119.99957908268468</v>
+        <v>299.9995790826847</v>
       </c>
       <c r="F22" s="60">
         <v>5</v>
@@ -19968,7 +19968,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>26</v>
       </c>
@@ -19978,15 +19978,15 @@
       </c>
       <c r="C23" s="61">
         <f t="shared" si="3"/>
-        <v>15.60254037844382</v>
+        <v>48.397459621556209</v>
       </c>
       <c r="D23" s="61">
         <f t="shared" si="4"/>
-        <v>-74.127331764375853</v>
+        <v>-35.87266823562409</v>
       </c>
       <c r="E23" s="61">
         <f t="shared" si="5"/>
-        <v>119.99957908268468</v>
+        <v>299.9995790826847</v>
       </c>
       <c r="F23" s="60">
         <v>5</v>
@@ -20016,7 +20016,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>26</v>
       </c>
@@ -20026,15 +20026,15 @@
       </c>
       <c r="C24" s="61">
         <f t="shared" si="3"/>
-        <v>-0.39745962155618031</v>
+        <v>64.39745962155618</v>
       </c>
       <c r="D24" s="61">
         <f t="shared" si="4"/>
-        <v>-64.889727457341834</v>
+        <v>-45.110272542658123</v>
       </c>
       <c r="E24" s="61">
         <f t="shared" si="5"/>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F24" s="60">
         <v>5</v>
@@ -20093,12 +20093,12 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J29" s="73" t="s">
         <v>32</v>
       </c>
@@ -20115,17 +20115,17 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20179,7 +20179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
-        <v>-1.0471975511965976</v>
+        <v>2.0943951023931953</v>
       </c>
       <c r="O3" s="15">
         <v>100</v>
@@ -20231,15 +20231,15 @@
       </c>
       <c r="C4" s="61">
         <f t="shared" ref="C4:C13" si="1">((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-0.39745962155615189</v>
+        <v>64.397459621556152</v>
       </c>
       <c r="D4" s="61">
         <f t="shared" ref="D4:D13" si="2">((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-102.84014468547787</v>
+        <v>-120.15985531452209</v>
       </c>
       <c r="E4" s="61">
         <f t="shared" ref="E4:E13" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F4" s="60">
         <v>5</v>
@@ -20279,7 +20279,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>26</v>
       </c>
@@ -20289,15 +20289,15 @@
       </c>
       <c r="C5" s="61">
         <f t="shared" si="1"/>
-        <v>-0.39745962155612347</v>
+        <v>64.397459621556152</v>
       </c>
       <c r="D5" s="61">
         <f t="shared" si="2"/>
-        <v>-121.31535329954588</v>
+        <v>-101.68464670045407</v>
       </c>
       <c r="E5" s="61">
         <f t="shared" si="3"/>
-        <v>-179.99971938845687</v>
+        <v>2.80611543146847E-4</v>
       </c>
       <c r="F5" s="60">
         <v>5</v>
@@ -20321,7 +20321,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="O5" s="41">
         <v>132</v>
@@ -20336,7 +20336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>26</v>
       </c>
@@ -20346,15 +20346,15 @@
       </c>
       <c r="C6" s="61">
         <f t="shared" si="1"/>
-        <v>15.602540378443848</v>
+        <v>48.397459621556152</v>
       </c>
       <c r="D6" s="61">
         <f t="shared" si="2"/>
-        <v>-130.55295760657989</v>
+        <v>-92.447042393420048</v>
       </c>
       <c r="E6" s="61">
         <f t="shared" si="3"/>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F6" s="60">
         <v>5</v>
@@ -20401,15 +20401,15 @@
       </c>
       <c r="C7" s="61">
         <f t="shared" si="1"/>
-        <v>31.602540378443848</v>
+        <v>32.397459621556209</v>
       </c>
       <c r="D7" s="61">
         <f t="shared" si="2"/>
-        <v>-121.31535329954589</v>
+        <v>-101.68464670045404</v>
       </c>
       <c r="E7" s="61">
         <f t="shared" si="3"/>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F7" s="60">
         <v>5</v>
@@ -20433,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-153</v>
+        <v>217</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -20455,15 +20455,15 @@
       </c>
       <c r="C8" s="61">
         <f t="shared" si="1"/>
-        <v>47.60254037844382</v>
+        <v>16.397459621556209</v>
       </c>
       <c r="D8" s="61">
         <f t="shared" si="2"/>
-        <v>-130.55295760657992</v>
+        <v>-92.447042393420006</v>
       </c>
       <c r="E8" s="61">
         <f t="shared" si="3"/>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F8" s="60">
         <v>5</v>
@@ -20509,15 +20509,15 @@
       </c>
       <c r="C9" s="61">
         <f t="shared" si="1"/>
-        <v>63.602540378443791</v>
+        <v>0.39745962155620873</v>
       </c>
       <c r="D9" s="61">
         <f t="shared" si="2"/>
-        <v>-121.31535329954592</v>
+        <v>-101.68464670045401</v>
       </c>
       <c r="E9" s="61">
         <f t="shared" si="3"/>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F9" s="60">
         <v>5</v>
@@ -20540,7 +20540,8 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>-57</v>
+        <f>-54-54-58</f>
+        <v>-166</v>
       </c>
       <c r="O9" s="41">
         <v>164</v>
@@ -20550,7 +20551,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
         <v>26</v>
       </c>
@@ -20560,15 +20561,15 @@
       </c>
       <c r="C10" s="61">
         <f t="shared" si="1"/>
-        <v>63.602540378443791</v>
+        <v>0.39745962155623715</v>
       </c>
       <c r="D10" s="61">
         <f t="shared" si="2"/>
-        <v>-102.8401446854779</v>
+        <v>-120.15985531452202</v>
       </c>
       <c r="E10" s="61">
         <f t="shared" si="3"/>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F10" s="60">
         <v>5</v>
@@ -20600,7 +20601,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>26</v>
       </c>
@@ -20610,15 +20611,15 @@
       </c>
       <c r="C11" s="61">
         <f t="shared" si="1"/>
-        <v>15.602540378443848</v>
+        <v>48.397459621556209</v>
       </c>
       <c r="D11" s="61">
         <f t="shared" si="2"/>
-        <v>-93.602540378443862</v>
+        <v>-129.3974596215561</v>
       </c>
       <c r="E11" s="61">
         <f t="shared" si="3"/>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F11" s="60">
         <v>5</v>
@@ -20650,7 +20651,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>26</v>
       </c>
@@ -20660,15 +20661,15 @@
       </c>
       <c r="C12" s="61">
         <f t="shared" si="1"/>
-        <v>31.60254037844382</v>
+        <v>32.397459621556209</v>
       </c>
       <c r="D12" s="61">
         <f t="shared" si="2"/>
-        <v>-102.84014468547788</v>
+        <v>-120.15985531452206</v>
       </c>
       <c r="E12" s="61">
         <f t="shared" si="3"/>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F12" s="60">
         <v>5</v>
@@ -20698,7 +20699,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>26</v>
       </c>
@@ -20708,15 +20709,15 @@
       </c>
       <c r="C13" s="61">
         <f t="shared" si="1"/>
-        <v>47.602540378443791</v>
+        <v>16.397459621556209</v>
       </c>
       <c r="D13" s="61">
         <f t="shared" si="2"/>
-        <v>-93.602540378443877</v>
+        <v>-129.39745962155607</v>
       </c>
       <c r="E13" s="61">
         <f t="shared" si="3"/>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F13" s="60">
         <v>5</v>
@@ -20746,7 +20747,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="33"/>
       <c r="C14" s="61"/>
@@ -20775,7 +20776,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="33"/>
       <c r="C15" s="61"/>
@@ -20804,7 +20805,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -20833,7 +20834,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="33"/>
       <c r="C17" s="61"/>
@@ -20862,7 +20863,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="33"/>
       <c r="C18" s="61"/>
@@ -20891,7 +20892,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="33"/>
       <c r="C19" s="61"/>
@@ -20920,7 +20921,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="33"/>
       <c r="C20" s="61"/>
@@ -20949,7 +20950,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="33"/>
       <c r="C21" s="61"/>
@@ -20978,7 +20979,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="33"/>
       <c r="C22" s="61"/>
@@ -21007,7 +21008,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="33"/>
       <c r="C23" s="61"/>
@@ -21036,7 +21037,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="33"/>
       <c r="C24" s="61"/>
@@ -21094,12 +21095,12 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J29" s="73" t="s">
         <v>33</v>
       </c>
@@ -21115,26 +21116,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21188,7 +21189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -21269,7 +21270,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -21307,31 +21308,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="61">
-        <f>((ROUND($L9/10,0))-1)*4+MOD($L9,10)+((J9-1)*16)</f>
-        <v>22</v>
+        <f t="shared" ref="B6:B8" si="0">((ROUND($L6/10,0))-1)*4+MOD($L6,10)+((J6-1)*16)</f>
+        <v>19</v>
       </c>
       <c r="C6" s="61">
-        <f>((+O9*COS($N$3)-P9*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>79.999999999999972</v>
+        <f t="shared" ref="C6:C8" si="1">((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>96</v>
       </c>
       <c r="D6" s="61">
-        <f>((O9*SIN($N$3)+P9*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-36.425625842203971</v>
+        <f t="shared" ref="D6:D8" si="2">((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
+        <v>9.7623956929660096</v>
       </c>
       <c r="E6" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M9/3.1416*180)+$N$5)</f>
-        <v>180</v>
+        <f t="shared" ref="E6:E8" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
+        <v>120.00014030577157</v>
       </c>
       <c r="F6" s="60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6" s="63">
-        <f t="shared" ref="G6:G9" si="0">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G6:G8" si="4">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
@@ -21362,31 +21363,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="61">
-        <f t="shared" ref="B7:B8" si="1">((ROUND($L7/10,0))-1)*4+MOD($L7,10)+((J7-1)*16)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C7" s="61">
-        <f t="shared" ref="C7:C8" si="2">((+O7*COS($N$3)-P7*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" si="1"/>
         <v>95.999999999999972</v>
       </c>
       <c r="D7" s="61">
-        <f t="shared" ref="D7:D8" si="3">((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" si="2"/>
         <v>-8.7128129211019854</v>
       </c>
       <c r="E7" s="61">
-        <f t="shared" ref="E7:E9" si="4">IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="F7" s="60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7" s="1"/>
@@ -21421,26 +21422,26 @@
         <v>26</v>
       </c>
       <c r="B8" s="61">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="61">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C8" s="61">
+        <v>79.999999999999972</v>
+      </c>
+      <c r="D8" s="61">
         <f t="shared" si="2"/>
-        <v>79.999999999999972</v>
-      </c>
-      <c r="D8" s="61">
+        <v>-17.950417228135962</v>
+      </c>
+      <c r="E8" s="61">
         <f t="shared" si="3"/>
-        <v>-17.950417228135962</v>
-      </c>
-      <c r="E8" s="61">
+        <v>120.00014030577157</v>
+      </c>
+      <c r="F8" s="60">
+        <v>5</v>
+      </c>
+      <c r="G8" s="63">
         <f t="shared" si="4"/>
-        <v>120.00014030577157</v>
-      </c>
-      <c r="F8" s="60">
-        <v>7</v>
-      </c>
-      <c r="G8" s="63">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
@@ -21470,7 +21471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62"/>
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
@@ -21502,7 +21503,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="62"/>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -21533,7 +21534,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -21564,7 +21565,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -21593,7 +21594,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -21622,7 +21623,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="33"/>
       <c r="C14" s="61"/>
@@ -21651,7 +21652,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="33"/>
       <c r="C15" s="61"/>
@@ -21680,7 +21681,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -21709,7 +21710,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="33"/>
       <c r="C17" s="61"/>
@@ -21738,7 +21739,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="33"/>
       <c r="C18" s="61"/>
@@ -21767,7 +21768,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="33"/>
       <c r="C19" s="61"/>
@@ -21796,7 +21797,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="33"/>
       <c r="C20" s="61"/>
@@ -21825,7 +21826,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="33"/>
       <c r="C21" s="61"/>
@@ -21854,7 +21855,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="33"/>
       <c r="C22" s="61"/>
@@ -21883,7 +21884,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="33"/>
       <c r="C23" s="61"/>
@@ -21912,7 +21913,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="33"/>
       <c r="C24" s="61"/>
@@ -21970,12 +21971,12 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J31" s="73" t="s">
         <v>31</v>
       </c>
@@ -21992,25 +21993,25 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22064,7 +22065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -22145,7 +22146,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -22183,7 +22184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -22321,7 +22322,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -22352,7 +22353,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -22383,7 +22384,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -22412,7 +22413,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -22441,7 +22442,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -22470,7 +22471,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -22499,7 +22500,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
@@ -22528,7 +22529,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -22557,7 +22558,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -22586,7 +22587,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -22615,7 +22616,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -22644,7 +22645,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -22673,7 +22674,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -22702,7 +22703,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -22731,7 +22732,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -22789,7 +22790,7 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
@@ -22809,22 +22810,22 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22878,7 +22879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -22959,7 +22960,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -22997,7 +22998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -23135,7 +23136,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -23166,7 +23167,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -23197,7 +23198,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -23226,7 +23227,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -23255,7 +23256,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -23284,7 +23285,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="33"/>
       <c r="C15" s="61"/>
@@ -23313,7 +23314,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -23342,7 +23343,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="33"/>
       <c r="C17" s="61"/>
@@ -23371,7 +23372,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="33"/>
       <c r="C18" s="61"/>
@@ -23400,7 +23401,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -23429,7 +23430,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -23458,7 +23459,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -23487,7 +23488,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -23516,7 +23517,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -23545,7 +23546,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -23603,7 +23604,7 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
@@ -23619,15 +23620,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G164" sqref="A3:G164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="65"/>
-    <col min="5" max="5" width="11.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="65"/>
+    <col min="5" max="5" width="11.28515625" style="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -23654,7 +23655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="str">
         <f>IF('4535A'!A3=0, "", '4535A'!A3)</f>
         <v/>
@@ -23684,7 +23685,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="str">
         <f>IF('4535A'!A4=0, "", '4535A'!A4)</f>
         <v/>
@@ -23714,7 +23715,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="str">
         <f>IF('4535A'!A5=0, "", '4535A'!A5)</f>
         <v/>
@@ -23744,7 +23745,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="str">
         <f>IF('4535A'!A6=0, "", '4535A'!A6)</f>
         <v/>
@@ -23774,7 +23775,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="str">
         <f>IF('4535A'!A7=0, "", '4535A'!A7)</f>
         <v/>
@@ -23804,7 +23805,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="str">
         <f>IF('4535A'!A8=0, "", '4535A'!A8)</f>
         <v/>
@@ -23834,7 +23835,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="str">
         <f>IF('4535A'!A9=0, "", '4535A'!A9)</f>
         <v/>
@@ -23864,7 +23865,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="str">
         <f>IF('4535A'!A10=0, "", '4535A'!A10)</f>
         <v/>
@@ -23894,7 +23895,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="str">
         <f>IF('4535A'!A11=0, "", '4535A'!A11)</f>
         <v/>
@@ -23924,7 +23925,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="str">
         <f>IF('4535A'!A12=0, "", '4535A'!A12)</f>
         <v/>
@@ -23954,7 +23955,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="str">
         <f>IF('4535A'!A13=0, "", '4535A'!A13)</f>
         <v/>
@@ -23984,7 +23985,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="str">
         <f>IF('4535A'!A14=0, "", '4535A'!A14)</f>
         <v>triangle_10pad</v>
@@ -23995,7 +23996,7 @@
       </c>
       <c r="C14" s="75">
         <f>IF('4535A'!C14="", "", '4535A'!C14)</f>
-        <v>111.60254037844379</v>
+        <v>47.602540378443791</v>
       </c>
       <c r="D14" s="75">
         <f>IF('4535A'!D14="", "", '4535A'!D14)</f>
@@ -24014,7 +24015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="str">
         <f>IF('4535A'!A15=0, "", '4535A'!A15)</f>
         <v>triangle_10pad</v>
@@ -24025,7 +24026,7 @@
       </c>
       <c r="C15" s="75">
         <f>IF('4535A'!C15="", "", '4535A'!C15)</f>
-        <v>127.60254037844379</v>
+        <v>63.602540378443791</v>
       </c>
       <c r="D15" s="75">
         <f>IF('4535A'!D15="", "", '4535A'!D15)</f>
@@ -24044,7 +24045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="str">
         <f>IF('4535A'!A16=0, "", '4535A'!A16)</f>
         <v/>
@@ -24074,7 +24075,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="str">
         <f>IF('4535A'!A17=0, "", '4535A'!A17)</f>
         <v>triangle_10pad</v>
@@ -24085,7 +24086,7 @@
       </c>
       <c r="C17" s="75">
         <f>IF('4535A'!C17="", "", '4535A'!C17)</f>
-        <v>127.60254037844373</v>
+        <v>63.602540378443734</v>
       </c>
       <c r="D17" s="75">
         <f>IF('4535A'!D17="", "", '4535A'!D17)</f>
@@ -24104,7 +24105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="str">
         <f>IF('4535A'!A18=0, "", '4535A'!A18)</f>
         <v>triangle_10pad</v>
@@ -24115,7 +24116,7 @@
       </c>
       <c r="C18" s="75">
         <f>IF('4535A'!C18="", "", '4535A'!C18)</f>
-        <v>111.60254037844376</v>
+        <v>47.602540378443763</v>
       </c>
       <c r="D18" s="75">
         <f>IF('4535A'!D18="", "", '4535A'!D18)</f>
@@ -24134,7 +24135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="str">
         <f>IF('4535A'!A19=0, "", '4535A'!A19)</f>
         <v>triangle_10pad</v>
@@ -24145,7 +24146,7 @@
       </c>
       <c r="C19" s="75">
         <f>IF('4535A'!C19="", "", '4535A'!C19)</f>
-        <v>95.602540378443791</v>
+        <v>31.602540378443791</v>
       </c>
       <c r="D19" s="75">
         <f>IF('4535A'!D19="", "", '4535A'!D19)</f>
@@ -24164,7 +24165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="str">
         <f>IF('4535A'!A20=0, "", '4535A'!A20)</f>
         <v>triangle_10pad</v>
@@ -24175,7 +24176,7 @@
       </c>
       <c r="C20" s="75">
         <f>IF('4535A'!C20="", "", '4535A'!C20)</f>
-        <v>95.602540378443763</v>
+        <v>31.602540378443763</v>
       </c>
       <c r="D20" s="75">
         <f>IF('4535A'!D20="", "", '4535A'!D20)</f>
@@ -24194,7 +24195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="str">
         <f>IF('4535A'!A21=0, "", '4535A'!A21)</f>
         <v>triangle_10pad</v>
@@ -24205,7 +24206,7 @@
       </c>
       <c r="C21" s="75">
         <f>IF('4535A'!C21="", "", '4535A'!C21)</f>
-        <v>79.602540378443791</v>
+        <v>15.602540378443791</v>
       </c>
       <c r="D21" s="75">
         <f>IF('4535A'!D21="", "", '4535A'!D21)</f>
@@ -24224,7 +24225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="str">
         <f>IF('4535A'!A22=0, "", '4535A'!A22)</f>
         <v>triangle_10pad</v>
@@ -24235,7 +24236,7 @@
       </c>
       <c r="C22" s="75">
         <f>IF('4535A'!C22="", "", '4535A'!C22)</f>
-        <v>63.60254037844382</v>
+        <v>-0.39745962155618031</v>
       </c>
       <c r="D22" s="75">
         <f>IF('4535A'!D22="", "", '4535A'!D22)</f>
@@ -24254,7 +24255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="str">
         <f>IF('4535A'!A23=0, "", '4535A'!A23)</f>
         <v>triangle_10pad</v>
@@ -24265,7 +24266,7 @@
       </c>
       <c r="C23" s="75">
         <f>IF('4535A'!C23="", "", '4535A'!C23)</f>
-        <v>79.60254037844382</v>
+        <v>15.60254037844382</v>
       </c>
       <c r="D23" s="75">
         <f>IF('4535A'!D23="", "", '4535A'!D23)</f>
@@ -24284,7 +24285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="str">
         <f>IF('4535A'!A24=0, "", '4535A'!A24)</f>
         <v>triangle_10pad</v>
@@ -24295,7 +24296,7 @@
       </c>
       <c r="C24" s="75">
         <f>IF('4535A'!C24="", "", '4535A'!C24)</f>
-        <v>63.60254037844382</v>
+        <v>-0.39745962155618031</v>
       </c>
       <c r="D24" s="75">
         <f>IF('4535A'!D24="", "", '4535A'!D24)</f>
@@ -24314,7 +24315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="str">
         <f>IF('4535A'!A25=0, "", '4535A'!A25)</f>
         <v/>
@@ -24344,7 +24345,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="str">
         <f>IF('4535A_1'!A3="", "", '4535A_1'!A3)</f>
         <v>triangle_10pad</v>
@@ -24374,7 +24375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="str">
         <f>IF('4535A_1'!A4="", "", '4535A_1'!A4)</f>
         <v>triangle_10pad</v>
@@ -24404,7 +24405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="str">
         <f>IF('4535A_1'!A5="", "", '4535A_1'!A5)</f>
         <v/>
@@ -24434,7 +24435,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="str">
         <f>IF('4535A_1'!A6="", "", '4535A_1'!A6)</f>
         <v/>
@@ -24464,7 +24465,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="str">
         <f>IF('4535A_1'!A7="", "", '4535A_1'!A7)</f>
         <v/>
@@ -24494,7 +24495,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="str">
         <f>IF('4535A_1'!A8="", "", '4535A_1'!A8)</f>
         <v/>
@@ -24524,7 +24525,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="str">
         <f>IF('4535A_1'!A9="", "", '4535A_1'!A9)</f>
         <v/>
@@ -24554,7 +24555,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="str">
         <f>IF('4535A_1'!A10="", "", '4535A_1'!A10)</f>
         <v/>
@@ -24584,7 +24585,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="str">
         <f>IF('4535A_1'!A11="", "", '4535A_1'!A11)</f>
         <v>triangle_10pad</v>
@@ -24614,7 +24615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="str">
         <f>IF('4535A_1'!A12="", "", '4535A_1'!A12)</f>
         <v>triangle_10pad</v>
@@ -24644,7 +24645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="str">
         <f>IF('4535A_1'!A13="", "", '4535A_1'!A13)</f>
         <v/>
@@ -24674,7 +24675,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="str">
         <f>IF('4535A_1'!A14="", "", '4535A_1'!A14)</f>
         <v/>
@@ -24704,7 +24705,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="str">
         <f>IF('4535A_1'!A15="", "", '4535A_1'!A15)</f>
         <v/>
@@ -24734,7 +24735,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="str">
         <f>IF('4535A_1'!A16="", "", '4535A_1'!A16)</f>
         <v/>
@@ -24764,7 +24765,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="str">
         <f>IF('4535A_1'!A17="", "", '4535A_1'!A17)</f>
         <v/>
@@ -24794,7 +24795,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="str">
         <f>IF('4535A_1'!A18="", "", '4535A_1'!A18)</f>
         <v/>
@@ -24824,7 +24825,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="str">
         <f>IF('4535A_1'!A19="", "", '4535A_1'!A19)</f>
         <v/>
@@ -24854,7 +24855,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="str">
         <f>IF('4535A_1'!A20="", "", '4535A_1'!A20)</f>
         <v/>
@@ -24884,7 +24885,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="58" t="str">
         <f>IF('4535A_1'!A21="", "", '4535A_1'!A21)</f>
         <v/>
@@ -24914,7 +24915,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="58" t="str">
         <f>IF('4535A_1'!A22="", "", '4535A_1'!A22)</f>
         <v/>
@@ -24944,7 +24945,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="str">
         <f>IF('4535A_1'!A23="", "", '4535A_1'!A23)</f>
         <v/>
@@ -24974,7 +24975,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="str">
         <f>IF('4535A_1'!A24="", "", '4535A_1'!A24)</f>
         <v/>
@@ -25004,7 +25005,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="str">
         <f>IF('4535A_1'!A25="", "", '4535A_1'!A25)</f>
         <v>triangle_10pad</v>
@@ -25034,7 +25035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="57" t="str">
         <f>IF('4535_1'!A3="", "", '4535_1'!A3)</f>
         <v/>
@@ -25064,7 +25065,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="57" t="str">
         <f>IF('4535_1'!A4="", "", '4535_1'!A4)</f>
         <v/>
@@ -25094,7 +25095,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="str">
         <f>IF('4535_1'!A5="", "", '4535_1'!A5)</f>
         <v/>
@@ -25124,7 +25125,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="str">
         <f>IF('4535_1'!A6="", "", '4535_1'!A6)</f>
         <v/>
@@ -25154,7 +25155,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="str">
         <f>IF('4535_1'!A7="", "", '4535_1'!A7)</f>
         <v/>
@@ -25184,7 +25185,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="str">
         <f>IF('4535_1'!A8="", "", '4535_1'!A8)</f>
         <v/>
@@ -25214,7 +25215,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="str">
         <f>IF('4535_1'!A9="", "", '4535_1'!A9)</f>
         <v/>
@@ -25244,7 +25245,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="str">
         <f>IF('4535_1'!A10="", "", '4535_1'!A10)</f>
         <v/>
@@ -25274,7 +25275,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="str">
         <f>IF('4535_1'!A11="", "", '4535_1'!A11)</f>
         <v/>
@@ -25304,7 +25305,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="str">
         <f>IF('4535_1'!A12="", "", '4535_1'!A12)</f>
         <v/>
@@ -25334,7 +25335,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="str">
         <f>IF('4535_1'!A13="", "", '4535_1'!A13)</f>
         <v/>
@@ -25364,7 +25365,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="str">
         <f>IF('4535_1'!A14="", "", '4535_1'!A14)</f>
         <v>triangle_10pad</v>
@@ -25375,15 +25376,15 @@
       </c>
       <c r="C60" s="77">
         <f>IF('4535_1'!C14="", "", '4535_1'!C14)</f>
-        <v>47.602540378443791</v>
+        <v>16.397459621556237</v>
       </c>
       <c r="D60" s="77">
         <f>IF('4535_1'!D14="", "", '4535_1'!D14)</f>
-        <v>-74.127331764375867</v>
+        <v>-35.872668235624062</v>
       </c>
       <c r="E60" s="77">
         <f>IF('4535_1'!E14="", "", '4535_1'!E14)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F60" s="77">
         <f>IF('4535_1'!F14="", "", '4535_1'!F14)</f>
@@ -25394,7 +25395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="str">
         <f>IF('4535_1'!A15="", "", '4535_1'!A15)</f>
         <v>triangle_10pad</v>
@@ -25405,15 +25406,15 @@
       </c>
       <c r="C61" s="77">
         <f>IF('4535_1'!C15="", "", '4535_1'!C15)</f>
-        <v>63.602540378443791</v>
+        <v>0.39745962155623715</v>
       </c>
       <c r="D61" s="77">
         <f>IF('4535_1'!D15="", "", '4535_1'!D15)</f>
-        <v>-64.889727457341863</v>
+        <v>-45.110272542658066</v>
       </c>
       <c r="E61" s="77">
         <f>IF('4535_1'!E15="", "", '4535_1'!E15)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F61" s="77">
         <f>IF('4535_1'!F15="", "", '4535_1'!F15)</f>
@@ -25424,7 +25425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="str">
         <f>IF('4535_1'!A16="", "", '4535_1'!A16)</f>
         <v/>
@@ -25454,7 +25455,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="57" t="str">
         <f>IF('4535_1'!A17="", "", '4535_1'!A17)</f>
         <v>triangle_10pad</v>
@@ -25465,15 +25466,15 @@
       </c>
       <c r="C63" s="77">
         <f>IF('4535_1'!C17="", "", '4535_1'!C17)</f>
-        <v>63.602540378443734</v>
+        <v>0.39745962155626557</v>
       </c>
       <c r="D63" s="77">
         <f>IF('4535_1'!D17="", "", '4535_1'!D17)</f>
-        <v>-46.414518843273839</v>
+        <v>-63.585481156726075</v>
       </c>
       <c r="E63" s="77">
         <f>IF('4535_1'!E17="", "", '4535_1'!E17)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F63" s="77">
         <f>IF('4535_1'!F17="", "", '4535_1'!F17)</f>
@@ -25484,7 +25485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="str">
         <f>IF('4535_1'!A18="", "", '4535_1'!A18)</f>
         <v>triangle_10pad</v>
@@ -25495,15 +25496,15 @@
       </c>
       <c r="C64" s="77">
         <f>IF('4535_1'!C18="", "", '4535_1'!C18)</f>
-        <v>47.602540378443763</v>
+        <v>16.397459621556237</v>
       </c>
       <c r="D64" s="77">
         <f>IF('4535_1'!D18="", "", '4535_1'!D18)</f>
-        <v>-37.176914536239835</v>
+        <v>-72.823085463760108</v>
       </c>
       <c r="E64" s="77">
         <f>IF('4535_1'!E18="", "", '4535_1'!E18)</f>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F64" s="77">
         <f>IF('4535_1'!F18="", "", '4535_1'!F18)</f>
@@ -25514,7 +25515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="57" t="str">
         <f>IF('4535_1'!A19="", "", '4535_1'!A19)</f>
         <v>triangle_10pad</v>
@@ -25525,15 +25526,15 @@
       </c>
       <c r="C65" s="77">
         <f>IF('4535_1'!C19="", "", '4535_1'!C19)</f>
-        <v>31.602540378443791</v>
+        <v>32.397459621556209</v>
       </c>
       <c r="D65" s="77">
         <f>IF('4535_1'!D19="", "", '4535_1'!D19)</f>
-        <v>-64.889727457341849</v>
+        <v>-45.110272542658095</v>
       </c>
       <c r="E65" s="77">
         <f>IF('4535_1'!E19="", "", '4535_1'!E19)</f>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F65" s="77">
         <f>IF('4535_1'!F19="", "", '4535_1'!F19)</f>
@@ -25544,7 +25545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="str">
         <f>IF('4535_1'!A20="", "", '4535_1'!A20)</f>
         <v>triangle_10pad</v>
@@ -25555,15 +25556,15 @@
       </c>
       <c r="C66" s="77">
         <f>IF('4535_1'!C20="", "", '4535_1'!C20)</f>
-        <v>31.602540378443763</v>
+        <v>32.397459621556237</v>
       </c>
       <c r="D66" s="77">
         <f>IF('4535_1'!D20="", "", '4535_1'!D20)</f>
-        <v>-46.414518843273839</v>
+        <v>-63.585481156726104</v>
       </c>
       <c r="E66" s="77">
         <f>IF('4535_1'!E20="", "", '4535_1'!E20)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F66" s="77">
         <f>IF('4535_1'!F20="", "", '4535_1'!F20)</f>
@@ -25574,7 +25575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="str">
         <f>IF('4535_1'!A21="", "", '4535_1'!A21)</f>
         <v>triangle_10pad</v>
@@ -25585,15 +25586,15 @@
       </c>
       <c r="C67" s="77">
         <f>IF('4535_1'!C21="", "", '4535_1'!C21)</f>
-        <v>15.602540378443791</v>
+        <v>48.397459621556209</v>
       </c>
       <c r="D67" s="77">
         <f>IF('4535_1'!D21="", "", '4535_1'!D21)</f>
-        <v>-37.176914536239813</v>
+        <v>-72.823085463760137</v>
       </c>
       <c r="E67" s="77">
         <f>IF('4535_1'!E21="", "", '4535_1'!E21)</f>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F67" s="77">
         <f>IF('4535_1'!F21="", "", '4535_1'!F21)</f>
@@ -25604,7 +25605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="str">
         <f>IF('4535_1'!A22="", "", '4535_1'!A22)</f>
         <v>triangle_10pad</v>
@@ -25615,15 +25616,15 @@
       </c>
       <c r="C68" s="77">
         <f>IF('4535_1'!C22="", "", '4535_1'!C22)</f>
-        <v>-0.39745962155618031</v>
+        <v>64.397459621556209</v>
       </c>
       <c r="D68" s="77">
         <f>IF('4535_1'!D22="", "", '4535_1'!D22)</f>
-        <v>-46.414518843273818</v>
+        <v>-63.585481156726132</v>
       </c>
       <c r="E68" s="77">
         <f>IF('4535_1'!E22="", "", '4535_1'!E22)</f>
-        <v>119.99957908268468</v>
+        <v>299.9995790826847</v>
       </c>
       <c r="F68" s="77">
         <f>IF('4535_1'!F22="", "", '4535_1'!F22)</f>
@@ -25634,7 +25635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="str">
         <f>IF('4535_1'!A23="", "", '4535_1'!A23)</f>
         <v>triangle_10pad</v>
@@ -25645,15 +25646,15 @@
       </c>
       <c r="C69" s="77">
         <f>IF('4535_1'!C23="", "", '4535_1'!C23)</f>
-        <v>15.60254037844382</v>
+        <v>48.397459621556209</v>
       </c>
       <c r="D69" s="77">
         <f>IF('4535_1'!D23="", "", '4535_1'!D23)</f>
-        <v>-74.127331764375853</v>
+        <v>-35.87266823562409</v>
       </c>
       <c r="E69" s="77">
         <f>IF('4535_1'!E23="", "", '4535_1'!E23)</f>
-        <v>119.99957908268468</v>
+        <v>299.9995790826847</v>
       </c>
       <c r="F69" s="77">
         <f>IF('4535_1'!F23="", "", '4535_1'!F23)</f>
@@ -25664,7 +25665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="str">
         <f>IF('4535_1'!A24="", "", '4535_1'!A24)</f>
         <v>triangle_10pad</v>
@@ -25675,15 +25676,15 @@
       </c>
       <c r="C70" s="77">
         <f>IF('4535_1'!C24="", "", '4535_1'!C24)</f>
-        <v>-0.39745962155618031</v>
+        <v>64.39745962155618</v>
       </c>
       <c r="D70" s="77">
         <f>IF('4535_1'!D24="", "", '4535_1'!D24)</f>
-        <v>-64.889727457341834</v>
+        <v>-45.110272542658123</v>
       </c>
       <c r="E70" s="77">
         <f>IF('4535_1'!E24="", "", '4535_1'!E24)</f>
-        <v>59.999719388456853</v>
+        <v>239.99971938845687</v>
       </c>
       <c r="F70" s="77">
         <f>IF('4535_1'!F24="", "", '4535_1'!F24)</f>
@@ -25694,7 +25695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="57" t="str">
         <f>IF('4535_1'!A25="", "", '4535_1'!A25)</f>
         <v/>
@@ -25724,7 +25725,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="59" t="str">
         <f>IF('4535_2'!A3="", "", '4535_2'!A3)</f>
         <v/>
@@ -25754,7 +25755,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="64" t="str">
         <f>IF('4535_2'!A4="", "", '4535_2'!A4)</f>
         <v>triangle_10pad</v>
@@ -25765,15 +25766,15 @@
       </c>
       <c r="C73" s="78">
         <f>IF('4535_2'!C4="", "", '4535_2'!C4)</f>
-        <v>-0.39745962155615189</v>
+        <v>64.397459621556152</v>
       </c>
       <c r="D73" s="78">
         <f>IF('4535_2'!D4="", "", '4535_2'!D4)</f>
-        <v>-102.84014468547787</v>
+        <v>-120.15985531452209</v>
       </c>
       <c r="E73" s="78">
         <f>IF('4535_2'!E4="", "", '4535_2'!E4)</f>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F73" s="78">
         <f>IF('4535_2'!F4="", "", '4535_2'!F4)</f>
@@ -25784,7 +25785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="64" t="str">
         <f>IF('4535_2'!A5="", "", '4535_2'!A5)</f>
         <v>triangle_10pad</v>
@@ -25795,15 +25796,15 @@
       </c>
       <c r="C74" s="78">
         <f>IF('4535_2'!C5="", "", '4535_2'!C5)</f>
-        <v>-0.39745962155612347</v>
+        <v>64.397459621556152</v>
       </c>
       <c r="D74" s="78">
         <f>IF('4535_2'!D5="", "", '4535_2'!D5)</f>
-        <v>-121.31535329954588</v>
+        <v>-101.68464670045407</v>
       </c>
       <c r="E74" s="78">
         <f>IF('4535_2'!E5="", "", '4535_2'!E5)</f>
-        <v>-179.99971938845687</v>
+        <v>2.80611543146847E-4</v>
       </c>
       <c r="F74" s="78">
         <f>IF('4535_2'!F5="", "", '4535_2'!F5)</f>
@@ -25814,7 +25815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="64" t="str">
         <f>IF('4535_2'!A6="", "", '4535_2'!A6)</f>
         <v>triangle_10pad</v>
@@ -25825,15 +25826,15 @@
       </c>
       <c r="C75" s="78">
         <f>IF('4535_2'!C6="", "", '4535_2'!C6)</f>
-        <v>15.602540378443848</v>
+        <v>48.397459621556152</v>
       </c>
       <c r="D75" s="78">
         <f>IF('4535_2'!D6="", "", '4535_2'!D6)</f>
-        <v>-130.55295760657989</v>
+        <v>-92.447042393420048</v>
       </c>
       <c r="E75" s="78">
         <f>IF('4535_2'!E6="", "", '4535_2'!E6)</f>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F75" s="78">
         <f>IF('4535_2'!F6="", "", '4535_2'!F6)</f>
@@ -25844,7 +25845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="64" t="str">
         <f>IF('4535_2'!A7="", "", '4535_2'!A7)</f>
         <v>triangle_10pad</v>
@@ -25855,15 +25856,15 @@
       </c>
       <c r="C76" s="78">
         <f>IF('4535_2'!C7="", "", '4535_2'!C7)</f>
-        <v>31.602540378443848</v>
+        <v>32.397459621556209</v>
       </c>
       <c r="D76" s="78">
         <f>IF('4535_2'!D7="", "", '4535_2'!D7)</f>
-        <v>-121.31535329954589</v>
+        <v>-101.68464670045404</v>
       </c>
       <c r="E76" s="78">
         <f>IF('4535_2'!E7="", "", '4535_2'!E7)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F76" s="78">
         <f>IF('4535_2'!F7="", "", '4535_2'!F7)</f>
@@ -25874,7 +25875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="64" t="str">
         <f>IF('4535_2'!A8="", "", '4535_2'!A8)</f>
         <v>triangle_10pad</v>
@@ -25885,15 +25886,15 @@
       </c>
       <c r="C77" s="78">
         <f>IF('4535_2'!C8="", "", '4535_2'!C8)</f>
-        <v>47.60254037844382</v>
+        <v>16.397459621556209</v>
       </c>
       <c r="D77" s="78">
         <f>IF('4535_2'!D8="", "", '4535_2'!D8)</f>
-        <v>-130.55295760657992</v>
+        <v>-92.447042393420006</v>
       </c>
       <c r="E77" s="78">
         <f>IF('4535_2'!E8="", "", '4535_2'!E8)</f>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F77" s="78">
         <f>IF('4535_2'!F8="", "", '4535_2'!F8)</f>
@@ -25904,7 +25905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="64" t="str">
         <f>IF('4535_2'!A9="", "", '4535_2'!A9)</f>
         <v>triangle_10pad</v>
@@ -25915,15 +25916,15 @@
       </c>
       <c r="C78" s="78">
         <f>IF('4535_2'!C9="", "", '4535_2'!C9)</f>
-        <v>63.602540378443791</v>
+        <v>0.39745962155620873</v>
       </c>
       <c r="D78" s="78">
         <f>IF('4535_2'!D9="", "", '4535_2'!D9)</f>
-        <v>-121.31535329954592</v>
+        <v>-101.68464670045401</v>
       </c>
       <c r="E78" s="78">
         <f>IF('4535_2'!E9="", "", '4535_2'!E9)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F78" s="78">
         <f>IF('4535_2'!F9="", "", '4535_2'!F9)</f>
@@ -25934,7 +25935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="64" t="str">
         <f>IF('4535_2'!A10="", "", '4535_2'!A10)</f>
         <v>triangle_10pad</v>
@@ -25945,15 +25946,15 @@
       </c>
       <c r="C79" s="78">
         <f>IF('4535_2'!C10="", "", '4535_2'!C10)</f>
-        <v>63.602540378443791</v>
+        <v>0.39745962155623715</v>
       </c>
       <c r="D79" s="78">
         <f>IF('4535_2'!D10="", "", '4535_2'!D10)</f>
-        <v>-102.8401446854779</v>
+        <v>-120.15985531452202</v>
       </c>
       <c r="E79" s="78">
         <f>IF('4535_2'!E10="", "", '4535_2'!E10)</f>
-        <v>-1.403057715734235E-4</v>
+        <v>179.99985969422843</v>
       </c>
       <c r="F79" s="78">
         <f>IF('4535_2'!F10="", "", '4535_2'!F10)</f>
@@ -25964,7 +25965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="64" t="str">
         <f>IF('4535_2'!A11="", "", '4535_2'!A11)</f>
         <v>triangle_10pad</v>
@@ -25975,15 +25976,15 @@
       </c>
       <c r="C80" s="78">
         <f>IF('4535_2'!C11="", "", '4535_2'!C11)</f>
-        <v>15.602540378443848</v>
+        <v>48.397459621556209</v>
       </c>
       <c r="D80" s="78">
         <f>IF('4535_2'!D11="", "", '4535_2'!D11)</f>
-        <v>-93.602540378443862</v>
+        <v>-129.3974596215561</v>
       </c>
       <c r="E80" s="78">
         <f>IF('4535_2'!E11="", "", '4535_2'!E11)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F80" s="78">
         <f>IF('4535_2'!F11="", "", '4535_2'!F11)</f>
@@ -25994,7 +25995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="64" t="str">
         <f>IF('4535_2'!A12="", "", '4535_2'!A12)</f>
         <v>triangle_10pad</v>
@@ -26005,15 +26006,15 @@
       </c>
       <c r="C81" s="78">
         <f>IF('4535_2'!C12="", "", '4535_2'!C12)</f>
-        <v>31.60254037844382</v>
+        <v>32.397459621556209</v>
       </c>
       <c r="D81" s="78">
         <f>IF('4535_2'!D12="", "", '4535_2'!D12)</f>
-        <v>-102.84014468547788</v>
+        <v>-120.15985531452206</v>
       </c>
       <c r="E81" s="78">
         <f>IF('4535_2'!E12="", "", '4535_2'!E12)</f>
-        <v>-119.99985969422843</v>
+        <v>60.000140305771573</v>
       </c>
       <c r="F81" s="78">
         <f>IF('4535_2'!F12="", "", '4535_2'!F12)</f>
@@ -26024,7 +26025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="64" t="str">
         <f>IF('4535_2'!A13="", "", '4535_2'!A13)</f>
         <v>triangle_10pad</v>
@@ -26035,15 +26036,15 @@
       </c>
       <c r="C82" s="78">
         <f>IF('4535_2'!C13="", "", '4535_2'!C13)</f>
-        <v>47.602540378443791</v>
+        <v>16.397459621556209</v>
       </c>
       <c r="D82" s="78">
         <f>IF('4535_2'!D13="", "", '4535_2'!D13)</f>
-        <v>-93.602540378443877</v>
+        <v>-129.39745962155607</v>
       </c>
       <c r="E82" s="78">
         <f>IF('4535_2'!E13="", "", '4535_2'!E13)</f>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="F82" s="78">
         <f>IF('4535_2'!F13="", "", '4535_2'!F13)</f>
@@ -26054,7 +26055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="64" t="str">
         <f>IF('4535_2'!A14="", "", '4535_2'!A14)</f>
         <v/>
@@ -26084,7 +26085,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="64" t="str">
         <f>IF('4535_2'!A15="", "", '4535_2'!A15)</f>
         <v/>
@@ -26114,7 +26115,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="64" t="str">
         <f>IF('4535_2'!A16="", "", '4535_2'!A16)</f>
         <v/>
@@ -26144,7 +26145,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="str">
         <f>IF('4535_2'!A17="", "", '4535_2'!A17)</f>
         <v/>
@@ -26174,7 +26175,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="64" t="str">
         <f>IF('4535_2'!A18="", "", '4535_2'!A18)</f>
         <v/>
@@ -26204,7 +26205,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="64" t="str">
         <f>IF('4535_2'!A19="", "", '4535_2'!A19)</f>
         <v/>
@@ -26234,7 +26235,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="64" t="str">
         <f>IF('4535_2'!A20="", "", '4535_2'!A20)</f>
         <v/>
@@ -26264,7 +26265,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="64" t="str">
         <f>IF('4535_2'!A21="", "", '4535_2'!A21)</f>
         <v/>
@@ -26294,7 +26295,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="64" t="str">
         <f>IF('4535_2'!A22="", "", '4535_2'!A22)</f>
         <v/>
@@ -26324,7 +26325,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="64" t="str">
         <f>IF('4535_2'!A23="", "", '4535_2'!A23)</f>
         <v/>
@@ -26354,7 +26355,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="64" t="str">
         <f>IF('4535_2'!A24="", "", '4535_2'!A24)</f>
         <v/>
@@ -26384,7 +26385,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="64" t="str">
         <f>IF('4535_2'!A25="", "", '4535_2'!A25)</f>
         <v/>
@@ -26414,7 +26415,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="64" t="str">
         <f>IF('4535_2'!A26="", "", '4535_2'!A26)</f>
         <v/>
@@ -26444,7 +26445,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="68" t="str">
         <f>IF('4535A_2'!A3="", "", '4535A_2'!A3)</f>
         <v/>
@@ -26474,7 +26475,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="68" t="str">
         <f>IF('4535A_2'!A4="", "", '4535A_2'!A4)</f>
         <v/>
@@ -26504,7 +26505,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="68" t="str">
         <f>IF('4535A_2'!A5="", "", '4535A_2'!A5)</f>
         <v/>
@@ -26534,37 +26535,37 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="68" t="e">
-        <f>IF('4535A_2'!#REF!="", "", '4535A_2'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B99" s="79" t="e">
-        <f>IF('4535A_2'!#REF!="", "", '4535A_2'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C99" s="79" t="e">
-        <f>IF('4535A_2'!#REF!="", "", '4535A_2'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D99" s="79" t="e">
-        <f>IF('4535A_2'!#REF!="", "", '4535A_2'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E99" s="79" t="e">
-        <f>IF('4535A_2'!#REF!="", "", '4535A_2'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F99" s="79" t="e">
-        <f>IF('4535A_2'!#REF!="", "", '4535A_2'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G99" s="79" t="e">
-        <f>IF('4535A_2'!#REF!="", "", '4535A_2'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="68" t="str">
+        <f>IF('4535A_2'!A6="", "", '4535A_2'!A6)</f>
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B99" s="79">
+        <f>IF('4535A_2'!B6="", "", '4535A_2'!B6)</f>
+        <v>19</v>
+      </c>
+      <c r="C99" s="79">
+        <f>IF('4535A_2'!C6="", "", '4535A_2'!C6)</f>
+        <v>96</v>
+      </c>
+      <c r="D99" s="79">
+        <f>IF('4535A_2'!D6="", "", '4535A_2'!D6)</f>
+        <v>9.7623956929660096</v>
+      </c>
+      <c r="E99" s="79">
+        <f>IF('4535A_2'!E6="", "", '4535A_2'!E6)</f>
+        <v>120.00014030577157</v>
+      </c>
+      <c r="F99" s="79">
+        <f>IF('4535A_2'!F6="", "", '4535A_2'!F6)</f>
+        <v>5</v>
+      </c>
+      <c r="G99" s="79">
+        <f>IF('4535A_2'!G6="", "", '4535A_2'!G6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="68" t="str">
         <f>IF('4535A_2'!A7="", "", '4535A_2'!A7)</f>
         <v>triangle_10pad</v>
@@ -26587,14 +26588,14 @@
       </c>
       <c r="F100" s="79">
         <f>IF('4535A_2'!F7="", "", '4535A_2'!F7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G100" s="79">
         <f>IF('4535A_2'!G7="", "", '4535A_2'!G7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="68" t="str">
         <f>IF('4535A_2'!A8="", "", '4535A_2'!A8)</f>
         <v>triangle_10pad</v>
@@ -26617,44 +26618,44 @@
       </c>
       <c r="F101" s="79">
         <f>IF('4535A_2'!F8="", "", '4535A_2'!F8)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G101" s="79">
         <f>IF('4535A_2'!G8="", "", '4535A_2'!G8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="68" t="str">
         <f>IF('4535A_2'!A6="", "", '4535A_2'!A6)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B102" s="79">
         <f>IF('4535A_2'!B6="", "", '4535A_2'!B6)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C102" s="79">
         <f>IF('4535A_2'!C6="", "", '4535A_2'!C6)</f>
-        <v>79.999999999999972</v>
+        <v>96</v>
       </c>
       <c r="D102" s="79">
         <f>IF('4535A_2'!D6="", "", '4535A_2'!D6)</f>
-        <v>-36.425625842203971</v>
+        <v>9.7623956929660096</v>
       </c>
       <c r="E102" s="79">
         <f>IF('4535A_2'!E6="", "", '4535A_2'!E6)</f>
-        <v>180</v>
+        <v>120.00014030577157</v>
       </c>
       <c r="F102" s="79">
         <f>IF('4535A_2'!F6="", "", '4535A_2'!F6)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G102" s="79">
         <f>IF('4535A_2'!G6="", "", '4535A_2'!G6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="68" t="str">
         <f>IF('4535A_2'!A10="", "", '4535A_2'!A10)</f>
         <v/>
@@ -26684,7 +26685,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="68" t="str">
         <f>IF('4535A_2'!A11="", "", '4535A_2'!A11)</f>
         <v/>
@@ -26714,7 +26715,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="68" t="str">
         <f>IF('4535A_2'!A12="", "", '4535A_2'!A12)</f>
         <v/>
@@ -26744,7 +26745,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="68" t="str">
         <f>IF('4535A_2'!A13="", "", '4535A_2'!A13)</f>
         <v/>
@@ -26774,7 +26775,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="68" t="str">
         <f>IF('4535A_2'!A14="", "", '4535A_2'!A14)</f>
         <v/>
@@ -26804,7 +26805,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="68" t="str">
         <f>IF('4535A_2'!A15="", "", '4535A_2'!A15)</f>
         <v/>
@@ -26834,7 +26835,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="68" t="str">
         <f>IF('4535A_2'!A16="", "", '4535A_2'!A16)</f>
         <v/>
@@ -26864,7 +26865,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="68" t="str">
         <f>IF('4535A_2'!A17="", "", '4535A_2'!A17)</f>
         <v/>
@@ -26894,7 +26895,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="68" t="str">
         <f>IF('4535A_2'!A18="", "", '4535A_2'!A18)</f>
         <v/>
@@ -26924,7 +26925,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="68" t="str">
         <f>IF('4535A_2'!A19="", "", '4535A_2'!A19)</f>
         <v/>
@@ -26954,7 +26955,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="68" t="str">
         <f>IF('4535A_2'!A20="", "", '4535A_2'!A20)</f>
         <v/>
@@ -26984,7 +26985,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="68" t="str">
         <f>IF('4535A_2'!A21="", "", '4535A_2'!A21)</f>
         <v/>
@@ -27014,7 +27015,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="68" t="str">
         <f>IF('4535A_2'!A22="", "", '4535A_2'!A22)</f>
         <v/>
@@ -27044,7 +27045,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="68" t="str">
         <f>IF('4535A_2'!A23="", "", '4535A_2'!A23)</f>
         <v/>
@@ -27074,7 +27075,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="68" t="str">
         <f>IF('4535A_2'!A24="", "", '4535A_2'!A24)</f>
         <v/>
@@ -27104,7 +27105,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="68" t="str">
         <f>IF('4535A_2'!A25="", "", '4535A_2'!A25)</f>
         <v/>
@@ -27134,7 +27135,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="72" t="str">
         <f>IF('6451A'!A3="", "", '6451A'!A3)</f>
         <v/>
@@ -27164,7 +27165,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="72" t="str">
         <f>IF('6451A'!A4="", "", '6451A'!A4)</f>
         <v/>
@@ -27194,7 +27195,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="72" t="str">
         <f>IF('6451A'!A5="", "", '6451A'!A5)</f>
         <v/>
@@ -27224,7 +27225,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="72" t="str">
         <f>IF('6451A'!A6="", "", '6451A'!A6)</f>
         <v/>
@@ -27254,7 +27255,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="72" t="str">
         <f>IF('6451A'!A7="", "", '6451A'!A7)</f>
         <v/>
@@ -27284,7 +27285,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="72" t="str">
         <f>IF('6451A'!A8="", "", '6451A'!A8)</f>
         <v/>
@@ -27314,7 +27315,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="72" t="str">
         <f>IF('6451A'!A9="", "", '6451A'!A9)</f>
         <v/>
@@ -27344,7 +27345,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="72" t="str">
         <f>IF('6451A'!A10="", "", '6451A'!A10)</f>
         <v/>
@@ -27374,7 +27375,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="72" t="str">
         <f>IF('6451A'!A11="", "", '6451A'!A11)</f>
         <v/>
@@ -27404,7 +27405,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="72" t="str">
         <f>IF('6451A'!A12="", "", '6451A'!A12)</f>
         <v/>
@@ -27434,7 +27435,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="72" t="str">
         <f>IF('6451A'!A13="", "", '6451A'!A13)</f>
         <v/>
@@ -27464,7 +27465,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="72" t="str">
         <f>IF('6451A'!A14="", "", '6451A'!A14)</f>
         <v/>
@@ -27494,7 +27495,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="72" t="str">
         <f>IF('6451A'!A15="", "", '6451A'!A15)</f>
         <v/>
@@ -27524,7 +27525,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="72" t="str">
         <f>IF('6451A'!A16="", "", '6451A'!A16)</f>
         <v/>
@@ -27554,7 +27555,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="72" t="str">
         <f>IF('6451A'!A17="", "", '6451A'!A17)</f>
         <v/>
@@ -27584,7 +27585,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="72" t="str">
         <f>IF('6451A'!A18="", "", '6451A'!A18)</f>
         <v/>
@@ -27614,7 +27615,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="72" t="str">
         <f>IF('6451A'!A19="", "", '6451A'!A19)</f>
         <v/>
@@ -27644,7 +27645,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="72" t="str">
         <f>IF('6451A'!A20="", "", '6451A'!A20)</f>
         <v/>
@@ -27674,7 +27675,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="72" t="str">
         <f>IF('6451A'!A21="", "", '6451A'!A21)</f>
         <v/>
@@ -27704,7 +27705,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="72" t="str">
         <f>IF('6451A'!A22="", "", '6451A'!A22)</f>
         <v/>
@@ -27734,7 +27735,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="72" t="str">
         <f>IF('6451A'!A23="", "", '6451A'!A23)</f>
         <v/>
@@ -27764,7 +27765,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="72" t="str">
         <f>IF('6451A'!A24="", "", '6451A'!A24)</f>
         <v/>
@@ -27794,7 +27795,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="72" t="str">
         <f>IF('6451A'!A25="", "", '6451A'!A25)</f>
         <v/>
@@ -27824,7 +27825,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="71" t="str">
         <f>IF('4616A'!A3="", "", '4616A'!A3)</f>
         <v/>
@@ -27854,7 +27855,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="71" t="str">
         <f>IF('4616A'!A4="", "", '4616A'!A4)</f>
         <v/>
@@ -27884,7 +27885,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="71" t="str">
         <f>IF('4616A'!A5="", "", '4616A'!A5)</f>
         <v/>
@@ -27914,7 +27915,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="71" t="str">
         <f>IF('4616A'!A6="", "", '4616A'!A6)</f>
         <v/>
@@ -27944,7 +27945,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="71" t="str">
         <f>IF('4616A'!A7="", "", '4616A'!A7)</f>
         <v/>
@@ -27974,7 +27975,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="71" t="str">
         <f>IF('4616A'!A8="", "", '4616A'!A8)</f>
         <v/>
@@ -28004,7 +28005,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="71" t="str">
         <f>IF('4616A'!A9="", "", '4616A'!A9)</f>
         <v/>
@@ -28034,7 +28035,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="71" t="str">
         <f>IF('4616A'!A10="", "", '4616A'!A10)</f>
         <v/>
@@ -28064,7 +28065,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="71" t="str">
         <f>IF('4616A'!A11="", "", '4616A'!A11)</f>
         <v/>
@@ -28094,7 +28095,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="71" t="str">
         <f>IF('4616A'!A12="", "", '4616A'!A12)</f>
         <v/>
@@ -28124,7 +28125,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="71" t="str">
         <f>IF('4616A'!A13="", "", '4616A'!A13)</f>
         <v/>
@@ -28154,7 +28155,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="71" t="str">
         <f>IF('4616A'!A14="", "", '4616A'!A14)</f>
         <v/>
@@ -28184,7 +28185,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="71" t="str">
         <f>IF('4616A'!A15="", "", '4616A'!A15)</f>
         <v/>
@@ -28214,7 +28215,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="71" t="str">
         <f>IF('4616A'!A16="", "", '4616A'!A16)</f>
         <v/>
@@ -28244,7 +28245,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="71" t="str">
         <f>IF('4616A'!A17="", "", '4616A'!A17)</f>
         <v/>
@@ -28274,7 +28275,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="71" t="str">
         <f>IF('4616A'!A18="", "", '4616A'!A18)</f>
         <v/>
@@ -28304,7 +28305,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="71" t="str">
         <f>IF('4616A'!A19="", "", '4616A'!A19)</f>
         <v/>
@@ -28334,7 +28335,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="71" t="str">
         <f>IF('4616A'!A20="", "", '4616A'!A20)</f>
         <v/>
@@ -28364,7 +28365,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="71" t="str">
         <f>IF('4616A'!A21="", "", '4616A'!A21)</f>
         <v/>
@@ -28394,7 +28395,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="71" t="str">
         <f>IF('4616A'!A22="", "", '4616A'!A22)</f>
         <v/>
@@ -28424,7 +28425,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="71" t="str">
         <f>IF('4616A'!A23="", "", '4616A'!A23)</f>
         <v/>
@@ -28454,7 +28455,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="71" t="str">
         <f>IF('4616A'!A24="", "", '4616A'!A24)</f>
         <v/>
@@ -28484,7 +28485,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="71" t="str">
         <f>IF('4616A'!A25="", "", '4616A'!A25)</f>
         <v/>
@@ -28514,7 +28515,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="69" t="str">
         <f>IF('4616A'!A26="", "", '4616A'!A26)</f>
         <v/>

--- a/app/skinGui/iniGenerators/leftLeg_Lower_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/leftLeg_Lower_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10155" windowHeight="10110" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4535A" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="34">
   <si>
     <t>[SENSORS]</t>
   </si>
@@ -858,7 +858,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10908232" y="2425506"/>
+          <a:off x="10941850" y="2425506"/>
           <a:ext cx="4358584" cy="4042210"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4563288"/>
@@ -2961,7 +2961,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10214179" y="0"/>
+          <a:off x="10303826" y="0"/>
           <a:ext cx="4018973" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
@@ -3985,8 +3985,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10205462" y="2324653"/>
-          <a:ext cx="4354092" cy="3716684"/>
+          <a:off x="10295110" y="2324653"/>
+          <a:ext cx="4354091" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -4992,45 +4992,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>5603</xdr:colOff>
+      <xdr:colOff>809065</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>162485</xdr:rowOff>
+      <xdr:rowOff>105336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>173691</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>61633</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1730188</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Freeform 56"/>
+        <xdr:cNvPr id="29" name="Freeform 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="14370968" flipH="1">
-          <a:off x="11586882" y="3653118"/>
-          <a:ext cx="1624854" cy="2801470"/>
+        <a:xfrm rot="17946097">
+          <a:off x="11150974" y="4835339"/>
+          <a:ext cx="2223248" cy="921123"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 56030 w 1658471"/>
-            <a:gd name="connsiteY0" fmla="*/ 11206 h 3036794"/>
-            <a:gd name="connsiteX1" fmla="*/ 1098177 w 1658471"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 3036794"/>
-            <a:gd name="connsiteX2" fmla="*/ 1658471 w 1658471"/>
-            <a:gd name="connsiteY2" fmla="*/ 1019735 h 3036794"/>
-            <a:gd name="connsiteX3" fmla="*/ 537883 w 1658471"/>
-            <a:gd name="connsiteY3" fmla="*/ 3036794 h 3036794"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 1658471"/>
-            <a:gd name="connsiteY4" fmla="*/ 2017059 h 3036794"/>
-            <a:gd name="connsiteX5" fmla="*/ 549088 w 1658471"/>
-            <a:gd name="connsiteY5" fmla="*/ 986118 h 3036794"/>
-            <a:gd name="connsiteX6" fmla="*/ 78441 w 1658471"/>
-            <a:gd name="connsiteY6" fmla="*/ 89647 h 3036794"/>
-            <a:gd name="connsiteX7" fmla="*/ 78441 w 1658471"/>
-            <a:gd name="connsiteY7" fmla="*/ 89647 h 3036794"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2162736"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
+            <a:gd name="connsiteX1" fmla="*/ 2162736 w 2162736"/>
+            <a:gd name="connsiteY1" fmla="*/ 22411 h 952500"/>
+            <a:gd name="connsiteX2" fmla="*/ 1647265 w 2162736"/>
+            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
+            <a:gd name="connsiteX3" fmla="*/ 549088 w 2162736"/>
+            <a:gd name="connsiteY3" fmla="*/ 941294 h 952500"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2162736"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 952500"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -5049,60 +5043,47 @@
             <a:cxn ang="0">
               <a:pos x="connsiteX4" y="connsiteY4"/>
             </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="1658471" h="3036794">
+            <a:path w="2162736" h="952500">
               <a:moveTo>
-                <a:pt x="56030" y="11206"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1098177" y="0"/>
+                <a:pt x="2162736" y="22411"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1658471" y="1019735"/>
+                <a:pt x="1647265" y="952500"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="537883" y="3036794"/>
+                <a:pt x="549088" y="941294"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="2017059"/>
+                <a:pt x="0" y="0"/>
               </a:lnTo>
-              <a:lnTo>
-                <a:pt x="549088" y="986118"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="78441" y="89647"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="78441" y="89647"/>
-              </a:lnTo>
+              <a:close/>
             </a:path>
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="57150"/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent2">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -8271,8 +8252,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12051232" y="2324653"/>
-          <a:ext cx="4544680" cy="3705478"/>
+          <a:off x="12246215" y="2293277"/>
+          <a:ext cx="4576056" cy="3651689"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -10374,8 +10355,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10921270" y="0"/>
-          <a:ext cx="4034661" cy="0"/>
+          <a:off x="10920149" y="0"/>
+          <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -11398,8 +11379,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10957378" y="2255737"/>
-          <a:ext cx="4519813" cy="3705478"/>
+          <a:off x="10956257" y="2324653"/>
+          <a:ext cx="4515331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -12405,39 +12386,45 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>2342028</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>89649</xdr:rowOff>
+      <xdr:colOff>2039471</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>145679</xdr:rowOff>
+      <xdr:colOff>425825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Freeform 56"/>
+        <xdr:cNvPr id="58" name="Freeform 57"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="7287203">
-          <a:off x="13453500" y="4313427"/>
-          <a:ext cx="2161055" cy="952500"/>
+        <a:xfrm>
+          <a:off x="13514295" y="3204882"/>
+          <a:ext cx="1624854" cy="2801470"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2162736"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 2162736 w 2162736"/>
-            <a:gd name="connsiteY1" fmla="*/ 22411 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 1647265 w 2162736"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 549088 w 2162736"/>
-            <a:gd name="connsiteY3" fmla="*/ 941294 h 952500"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 2162736"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 952500"/>
+            <a:gd name="connsiteX0" fmla="*/ 56030 w 1658471"/>
+            <a:gd name="connsiteY0" fmla="*/ 11206 h 3036794"/>
+            <a:gd name="connsiteX1" fmla="*/ 1098177 w 1658471"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 3036794"/>
+            <a:gd name="connsiteX2" fmla="*/ 1658471 w 1658471"/>
+            <a:gd name="connsiteY2" fmla="*/ 1019735 h 3036794"/>
+            <a:gd name="connsiteX3" fmla="*/ 537883 w 1658471"/>
+            <a:gd name="connsiteY3" fmla="*/ 3036794 h 3036794"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 1658471"/>
+            <a:gd name="connsiteY4" fmla="*/ 2017059 h 3036794"/>
+            <a:gd name="connsiteX5" fmla="*/ 549088 w 1658471"/>
+            <a:gd name="connsiteY5" fmla="*/ 986118 h 3036794"/>
+            <a:gd name="connsiteX6" fmla="*/ 78441 w 1658471"/>
+            <a:gd name="connsiteY6" fmla="*/ 89647 h 3036794"/>
+            <a:gd name="connsiteX7" fmla="*/ 78441 w 1658471"/>
+            <a:gd name="connsiteY7" fmla="*/ 89647 h 3036794"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -12456,47 +12443,60 @@
             <a:cxn ang="0">
               <a:pos x="connsiteX4" y="connsiteY4"/>
             </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="2162736" h="952500">
+            <a:path w="1658471" h="3036794">
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="56030" y="11206"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2162736" y="22411"/>
+                <a:pt x="1098177" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1647265" y="952500"/>
+                <a:pt x="1658471" y="1019735"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="549088" y="941294"/>
+                <a:pt x="537883" y="3036794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="2017059"/>
               </a:lnTo>
-              <a:close/>
+              <a:lnTo>
+                <a:pt x="549088" y="986118"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="78441" y="89647"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="78441" y="89647"/>
+              </a:lnTo>
             </a:path>
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln w="57150"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
+          <a:schemeClr val="accent1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -14591,8 +14591,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10942561" y="0"/>
-          <a:ext cx="4119826" cy="0"/>
+          <a:off x="10684826" y="0"/>
+          <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -15615,8 +15615,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11079522" y="2248453"/>
-          <a:ext cx="4609461" cy="3642725"/>
+          <a:off x="10821787" y="2279829"/>
+          <a:ext cx="4515331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -16912,7 +16912,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16925,7 +16925,7 @@
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.5703125" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
@@ -17169,8 +17169,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <f>-217+128-64</f>
-        <v>-153</v>
+        <v>0</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -17379,7 +17378,7 @@
       </c>
       <c r="C14" s="61">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>47.602540378443791</v>
+        <v>200.60254037844379</v>
       </c>
       <c r="D14" s="61">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
@@ -17427,7 +17426,7 @@
       </c>
       <c r="C15" s="61">
         <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>63.602540378443791</v>
+        <v>216.60254037844379</v>
       </c>
       <c r="D15" s="61">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
@@ -17504,7 +17503,7 @@
       </c>
       <c r="C17" s="61">
         <f t="shared" ref="C17:C24" si="3">((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>63.602540378443734</v>
+        <v>216.60254037844373</v>
       </c>
       <c r="D17" s="61">
         <f t="shared" ref="D17:D24" si="4">((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
@@ -17552,7 +17551,7 @@
       </c>
       <c r="C18" s="61">
         <f t="shared" si="3"/>
-        <v>47.602540378443763</v>
+        <v>200.60254037844376</v>
       </c>
       <c r="D18" s="61">
         <f t="shared" si="4"/>
@@ -17600,7 +17599,7 @@
       </c>
       <c r="C19" s="61">
         <f t="shared" si="3"/>
-        <v>31.602540378443791</v>
+        <v>184.60254037844379</v>
       </c>
       <c r="D19" s="61">
         <f t="shared" si="4"/>
@@ -17648,7 +17647,7 @@
       </c>
       <c r="C20" s="61">
         <f t="shared" si="3"/>
-        <v>31.602540378443763</v>
+        <v>184.60254037844376</v>
       </c>
       <c r="D20" s="61">
         <f t="shared" si="4"/>
@@ -17696,7 +17695,7 @@
       </c>
       <c r="C21" s="61">
         <f t="shared" si="3"/>
-        <v>15.602540378443791</v>
+        <v>168.60254037844379</v>
       </c>
       <c r="D21" s="61">
         <f t="shared" si="4"/>
@@ -17744,7 +17743,7 @@
       </c>
       <c r="C22" s="61">
         <f t="shared" si="3"/>
-        <v>-0.39745962155618031</v>
+        <v>152.60254037844382</v>
       </c>
       <c r="D22" s="61">
         <f t="shared" si="4"/>
@@ -17792,7 +17791,7 @@
       </c>
       <c r="C23" s="61">
         <f t="shared" si="3"/>
-        <v>15.60254037844382</v>
+        <v>168.60254037844382</v>
       </c>
       <c r="D23" s="61">
         <f t="shared" si="4"/>
@@ -17840,7 +17839,7 @@
       </c>
       <c r="C24" s="61">
         <f t="shared" si="3"/>
-        <v>-0.39745962155618031</v>
+        <v>152.60254037844382</v>
       </c>
       <c r="D24" s="61">
         <f t="shared" si="4"/>
@@ -18009,7 +18008,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G40" s="7"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -18019,7 +18018,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -18029,7 +18028,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -18039,7 +18038,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -18049,7 +18048,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -18059,7 +18058,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -18180,16 +18179,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -18267,7 +18265,7 @@
       </c>
       <c r="C3" s="61">
         <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-32.397459621556102</v>
+        <v>120.6025403784439</v>
       </c>
       <c r="D3" s="61">
         <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
@@ -18328,7 +18326,7 @@
       </c>
       <c r="C4" s="61">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-32.397459621556109</v>
+        <v>120.60254037844389</v>
       </c>
       <c r="D4" s="61">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
@@ -18473,8 +18471,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <f>-37-16-16</f>
-        <v>-69</v>
+        <v>84</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -18589,12 +18586,12 @@
         <v>26</v>
       </c>
       <c r="B11" s="61">
-        <f t="shared" ref="B11:B12" si="2">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
+        <f>((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>28</v>
       </c>
       <c r="C11" s="61">
         <f>((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-16.397459621556138</v>
+        <v>136.60254037844385</v>
       </c>
       <c r="D11" s="61">
         <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
@@ -18608,7 +18605,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="63">
-        <f t="shared" ref="G11:G12" si="3">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G11" si="2">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
@@ -18635,32 +18632,13 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="61">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="C12" s="61">
-        <f>((+O12*COS($N$3)-P12*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-16.397459621556152</v>
-      </c>
-      <c r="D12" s="61">
-        <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-36.790561913613885</v>
-      </c>
-      <c r="E12" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
-        <v>-179.99985969422843</v>
-      </c>
-      <c r="F12" s="60">
-        <v>5</v>
-      </c>
-      <c r="G12" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A12" s="62"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="63"/>
       <c r="I12" s="1"/>
       <c r="J12" s="38">
         <v>2</v>
@@ -19031,32 +19009,13 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="61">
-        <f t="shared" ref="B25" si="4">((ROUND($L25/10,0))-1)*4+MOD($L25,10)+((J25-1)*16)</f>
-        <v>31</v>
-      </c>
-      <c r="C25" s="61">
-        <f>((+O25*COS($N$3)-P25*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-16.397459621556116</v>
-      </c>
-      <c r="D25" s="61">
-        <f>((O25*SIN($N$3)+P25*COS($N$3)+$N$9)*$R$4)</f>
-        <v>18.635063928590171</v>
-      </c>
-      <c r="E25" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M25/3.1416*180)+$N$5)</f>
-        <v>59.999579082684676</v>
-      </c>
-      <c r="F25" s="60">
-        <v>5</v>
-      </c>
-      <c r="G25" s="63">
-        <f t="shared" ref="G25" si="5">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="A25" s="62"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="63"/>
       <c r="I25" s="2"/>
       <c r="J25" s="38">
         <v>2</v>
@@ -19102,8 +19061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19354,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -19423,8 +19382,8 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <f>-46-8</f>
-        <v>-54</v>
+        <f>-46-10</f>
+        <v>-56</v>
       </c>
       <c r="O9" s="41">
         <v>164</v>
@@ -19565,11 +19524,11 @@
       </c>
       <c r="C14" s="61">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>16.397459621556237</v>
+        <v>169.39745962155624</v>
       </c>
       <c r="D14" s="61">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-35.872668235624062</v>
+        <v>-37.872668235624062</v>
       </c>
       <c r="E14" s="61">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
@@ -19613,11 +19572,11 @@
       </c>
       <c r="C15" s="61">
         <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>0.39745962155623715</v>
+        <v>153.39745962155624</v>
       </c>
       <c r="D15" s="61">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-45.110272542658066</v>
+        <v>-47.110272542658066</v>
       </c>
       <c r="E15" s="61">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
@@ -19690,11 +19649,11 @@
       </c>
       <c r="C17" s="61">
         <f t="shared" ref="C17:C24" si="3">((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>0.39745962155626557</v>
+        <v>153.39745962155627</v>
       </c>
       <c r="D17" s="61">
         <f t="shared" ref="D17:D24" si="4">((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-63.585481156726075</v>
+        <v>-65.585481156726075</v>
       </c>
       <c r="E17" s="61">
         <f t="shared" ref="E17:E24" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M17/3.1416*180)+$N$5)</f>
@@ -19738,11 +19697,11 @@
       </c>
       <c r="C18" s="61">
         <f t="shared" si="3"/>
-        <v>16.397459621556237</v>
+        <v>169.39745962155624</v>
       </c>
       <c r="D18" s="61">
         <f t="shared" si="4"/>
-        <v>-72.823085463760108</v>
+        <v>-74.823085463760108</v>
       </c>
       <c r="E18" s="61">
         <f t="shared" si="5"/>
@@ -19786,11 +19745,11 @@
       </c>
       <c r="C19" s="61">
         <f t="shared" si="3"/>
-        <v>32.397459621556209</v>
+        <v>185.39745962155621</v>
       </c>
       <c r="D19" s="61">
         <f t="shared" si="4"/>
-        <v>-45.110272542658095</v>
+        <v>-47.110272542658095</v>
       </c>
       <c r="E19" s="61">
         <f t="shared" si="5"/>
@@ -19834,11 +19793,11 @@
       </c>
       <c r="C20" s="61">
         <f t="shared" si="3"/>
-        <v>32.397459621556237</v>
+        <v>185.39745962155624</v>
       </c>
       <c r="D20" s="61">
         <f t="shared" si="4"/>
-        <v>-63.585481156726104</v>
+        <v>-65.585481156726104</v>
       </c>
       <c r="E20" s="61">
         <f t="shared" si="5"/>
@@ -19882,11 +19841,11 @@
       </c>
       <c r="C21" s="61">
         <f t="shared" si="3"/>
-        <v>48.397459621556209</v>
+        <v>201.39745962155621</v>
       </c>
       <c r="D21" s="61">
         <f t="shared" si="4"/>
-        <v>-72.823085463760137</v>
+        <v>-74.823085463760137</v>
       </c>
       <c r="E21" s="61">
         <f t="shared" si="5"/>
@@ -19930,11 +19889,11 @@
       </c>
       <c r="C22" s="61">
         <f t="shared" si="3"/>
-        <v>64.397459621556209</v>
+        <v>217.39745962155621</v>
       </c>
       <c r="D22" s="61">
         <f t="shared" si="4"/>
-        <v>-63.585481156726132</v>
+        <v>-65.585481156726132</v>
       </c>
       <c r="E22" s="61">
         <f t="shared" si="5"/>
@@ -19978,11 +19937,11 @@
       </c>
       <c r="C23" s="61">
         <f t="shared" si="3"/>
-        <v>48.397459621556209</v>
+        <v>201.39745962155621</v>
       </c>
       <c r="D23" s="61">
         <f t="shared" si="4"/>
-        <v>-35.87266823562409</v>
+        <v>-37.87266823562409</v>
       </c>
       <c r="E23" s="61">
         <f t="shared" si="5"/>
@@ -20026,11 +19985,11 @@
       </c>
       <c r="C24" s="61">
         <f t="shared" si="3"/>
-        <v>64.39745962155618</v>
+        <v>217.39745962155618</v>
       </c>
       <c r="D24" s="61">
         <f t="shared" si="4"/>
-        <v>-45.110272542658123</v>
+        <v>-47.110272542658123</v>
       </c>
       <c r="E24" s="61">
         <f t="shared" si="5"/>
@@ -20115,7 +20074,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20231,11 +20190,11 @@
       </c>
       <c r="C4" s="61">
         <f t="shared" ref="C4:C13" si="1">((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>64.397459621556152</v>
+        <v>217.39745962155615</v>
       </c>
       <c r="D4" s="61">
         <f t="shared" ref="D4:D13" si="2">((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-120.15985531452209</v>
+        <v>-121.15985531452209</v>
       </c>
       <c r="E4" s="61">
         <f t="shared" ref="E4:E13" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
@@ -20289,11 +20248,11 @@
       </c>
       <c r="C5" s="61">
         <f t="shared" si="1"/>
-        <v>64.397459621556152</v>
+        <v>217.39745962155615</v>
       </c>
       <c r="D5" s="61">
         <f t="shared" si="2"/>
-        <v>-101.68464670045407</v>
+        <v>-102.68464670045407</v>
       </c>
       <c r="E5" s="61">
         <f t="shared" si="3"/>
@@ -20346,11 +20305,11 @@
       </c>
       <c r="C6" s="61">
         <f t="shared" si="1"/>
-        <v>48.397459621556152</v>
+        <v>201.39745962155615</v>
       </c>
       <c r="D6" s="61">
         <f t="shared" si="2"/>
-        <v>-92.447042393420048</v>
+        <v>-93.447042393420048</v>
       </c>
       <c r="E6" s="61">
         <f t="shared" si="3"/>
@@ -20401,11 +20360,11 @@
       </c>
       <c r="C7" s="61">
         <f t="shared" si="1"/>
-        <v>32.397459621556209</v>
+        <v>185.39745962155621</v>
       </c>
       <c r="D7" s="61">
         <f t="shared" si="2"/>
-        <v>-101.68464670045404</v>
+        <v>-102.68464670045404</v>
       </c>
       <c r="E7" s="61">
         <f t="shared" si="3"/>
@@ -20433,7 +20392,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -20455,11 +20414,11 @@
       </c>
       <c r="C8" s="61">
         <f t="shared" si="1"/>
-        <v>16.397459621556209</v>
+        <v>169.39745962155621</v>
       </c>
       <c r="D8" s="61">
         <f t="shared" si="2"/>
-        <v>-92.447042393420006</v>
+        <v>-93.447042393420006</v>
       </c>
       <c r="E8" s="61">
         <f t="shared" si="3"/>
@@ -20509,11 +20468,11 @@
       </c>
       <c r="C9" s="61">
         <f t="shared" si="1"/>
-        <v>0.39745962155620873</v>
+        <v>153.39745962155621</v>
       </c>
       <c r="D9" s="61">
         <f t="shared" si="2"/>
-        <v>-101.68464670045401</v>
+        <v>-102.68464670045401</v>
       </c>
       <c r="E9" s="61">
         <f t="shared" si="3"/>
@@ -20540,8 +20499,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <f>-54-54-58</f>
-        <v>-166</v>
+        <v>-167</v>
       </c>
       <c r="O9" s="41">
         <v>164</v>
@@ -20551,7 +20509,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>26</v>
       </c>
@@ -20561,11 +20519,11 @@
       </c>
       <c r="C10" s="61">
         <f t="shared" si="1"/>
-        <v>0.39745962155623715</v>
+        <v>153.39745962155624</v>
       </c>
       <c r="D10" s="61">
         <f t="shared" si="2"/>
-        <v>-120.15985531452202</v>
+        <v>-121.15985531452202</v>
       </c>
       <c r="E10" s="61">
         <f t="shared" si="3"/>
@@ -20591,8 +20549,8 @@
       <c r="M10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="6">
-        <v>2.0943951023932001</v>
+      <c r="N10" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="O10" s="41">
         <v>148</v>
@@ -20611,11 +20569,11 @@
       </c>
       <c r="C11" s="61">
         <f t="shared" si="1"/>
-        <v>48.397459621556209</v>
+        <v>201.39745962155621</v>
       </c>
       <c r="D11" s="61">
         <f t="shared" si="2"/>
-        <v>-129.3974596215561</v>
+        <v>-130.3974596215561</v>
       </c>
       <c r="E11" s="61">
         <f t="shared" si="3"/>
@@ -20661,11 +20619,11 @@
       </c>
       <c r="C12" s="61">
         <f t="shared" si="1"/>
-        <v>32.397459621556209</v>
+        <v>185.39745962155621</v>
       </c>
       <c r="D12" s="61">
         <f t="shared" si="2"/>
-        <v>-120.15985531452206</v>
+        <v>-121.15985531452206</v>
       </c>
       <c r="E12" s="61">
         <f t="shared" si="3"/>
@@ -20709,11 +20667,11 @@
       </c>
       <c r="C13" s="61">
         <f t="shared" si="1"/>
-        <v>16.397459621556209</v>
+        <v>169.39745962155621</v>
       </c>
       <c r="D13" s="61">
         <f t="shared" si="2"/>
-        <v>-129.39745962155607</v>
+        <v>-130.39745962155607</v>
       </c>
       <c r="E13" s="61">
         <f t="shared" si="3"/>
@@ -21116,8 +21074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21213,7 +21171,7 @@
       </c>
       <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
-        <v>3.1415926535897931</v>
+        <v>0</v>
       </c>
       <c r="O3" s="15">
         <v>100</v>
@@ -21270,7 +21228,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -21293,7 +21251,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O5" s="41">
         <v>132</v>
@@ -21308,31 +21266,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="61">
-        <f t="shared" ref="B6:B8" si="0">((ROUND($L6/10,0))-1)*4+MOD($L6,10)+((J6-1)*16)</f>
+        <f t="shared" ref="B6" si="0">((ROUND($L6/10,0))-1)*4+MOD($L6,10)+((J6-1)*16)</f>
         <v>19</v>
       </c>
       <c r="C6" s="61">
-        <f t="shared" ref="C6:C8" si="1">((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>96</v>
+        <f>((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>233</v>
       </c>
       <c r="D6" s="61">
-        <f t="shared" ref="D6:D8" si="2">((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
-        <v>9.7623956929660096</v>
+        <f>((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
+        <v>-36.762395692965995</v>
       </c>
       <c r="E6" s="61">
-        <f t="shared" ref="E6:E8" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
-        <v>120.00014030577157</v>
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
+        <v>-59.999859694228427</v>
       </c>
       <c r="F6" s="60">
         <v>5</v>
       </c>
       <c r="G6" s="63">
-        <f t="shared" ref="G6:G8" si="4">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G6:G10" si="1">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
@@ -21363,31 +21321,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B7:B10" si="2">((ROUND($L7/10,0))-1)*4+MOD($L7,10)+((J7-1)*16)</f>
         <v>20</v>
       </c>
       <c r="C7" s="61">
+        <f t="shared" ref="C7:C10" si="3">((+O7*COS($N$3)-P7*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>233</v>
+      </c>
+      <c r="D7" s="61">
+        <f t="shared" ref="D7:D10" si="4">((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
+        <v>-18.287187078898</v>
+      </c>
+      <c r="E7" s="61">
+        <f t="shared" ref="E7:E10" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="60">
+        <v>6</v>
+      </c>
+      <c r="G7" s="63">
         <f t="shared" si="1"/>
-        <v>95.999999999999972</v>
-      </c>
-      <c r="D7" s="61">
-        <f t="shared" si="2"/>
-        <v>-8.7128129211019854</v>
-      </c>
-      <c r="E7" s="61">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="F7" s="60">
-        <v>5</v>
-      </c>
-      <c r="G7" s="63">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7" s="1"/>
@@ -21405,7 +21363,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -21417,31 +21375,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C8" s="61">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+      <c r="D8" s="61">
+        <f t="shared" si="4"/>
+        <v>-9.0495827718640101</v>
+      </c>
+      <c r="E8" s="61">
+        <f t="shared" si="5"/>
+        <v>-59.999859694228427</v>
+      </c>
+      <c r="F8" s="60">
+        <v>7</v>
+      </c>
+      <c r="G8" s="63">
         <f t="shared" si="1"/>
-        <v>79.999999999999972</v>
-      </c>
-      <c r="D8" s="61">
-        <f t="shared" si="2"/>
-        <v>-17.950417228135962</v>
-      </c>
-      <c r="E8" s="61">
-        <f t="shared" si="3"/>
-        <v>120.00014030577157</v>
-      </c>
-      <c r="F8" s="60">
-        <v>5</v>
-      </c>
-      <c r="G8" s="63">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
@@ -21471,14 +21429,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="63"/>
+    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="61">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C9" s="61">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+      <c r="D9" s="61">
+        <f t="shared" si="4"/>
+        <v>9.4256258422039991</v>
+      </c>
+      <c r="E9" s="61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="60">
+        <v>8</v>
+      </c>
+      <c r="G9" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="38">
         <v>2</v>
@@ -21493,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>119</v>
+        <v>-146</v>
       </c>
       <c r="O9" s="41">
         <v>164</v>
@@ -21503,14 +21480,33 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="63"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="61">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="61">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="D10" s="61">
+        <f t="shared" si="4"/>
+        <v>18.66323014923799</v>
+      </c>
+      <c r="E10" s="61">
+        <f t="shared" si="5"/>
+        <v>59.999859694228427</v>
+      </c>
+      <c r="F10" s="60">
+        <v>9</v>
+      </c>
+      <c r="G10" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="38">
         <v>2</v>
@@ -21993,7 +21989,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22807,7 +22803,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23620,8 +23616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G164" sqref="A3:G164"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G107" sqref="A3:G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23996,7 +23992,7 @@
       </c>
       <c r="C14" s="75">
         <f>IF('4535A'!C14="", "", '4535A'!C14)</f>
-        <v>47.602540378443791</v>
+        <v>200.60254037844379</v>
       </c>
       <c r="D14" s="75">
         <f>IF('4535A'!D14="", "", '4535A'!D14)</f>
@@ -24026,7 +24022,7 @@
       </c>
       <c r="C15" s="75">
         <f>IF('4535A'!C15="", "", '4535A'!C15)</f>
-        <v>63.602540378443791</v>
+        <v>216.60254037844379</v>
       </c>
       <c r="D15" s="75">
         <f>IF('4535A'!D15="", "", '4535A'!D15)</f>
@@ -24086,7 +24082,7 @@
       </c>
       <c r="C17" s="75">
         <f>IF('4535A'!C17="", "", '4535A'!C17)</f>
-        <v>63.602540378443734</v>
+        <v>216.60254037844373</v>
       </c>
       <c r="D17" s="75">
         <f>IF('4535A'!D17="", "", '4535A'!D17)</f>
@@ -24116,7 +24112,7 @@
       </c>
       <c r="C18" s="75">
         <f>IF('4535A'!C18="", "", '4535A'!C18)</f>
-        <v>47.602540378443763</v>
+        <v>200.60254037844376</v>
       </c>
       <c r="D18" s="75">
         <f>IF('4535A'!D18="", "", '4535A'!D18)</f>
@@ -24146,7 +24142,7 @@
       </c>
       <c r="C19" s="75">
         <f>IF('4535A'!C19="", "", '4535A'!C19)</f>
-        <v>31.602540378443791</v>
+        <v>184.60254037844379</v>
       </c>
       <c r="D19" s="75">
         <f>IF('4535A'!D19="", "", '4535A'!D19)</f>
@@ -24176,7 +24172,7 @@
       </c>
       <c r="C20" s="75">
         <f>IF('4535A'!C20="", "", '4535A'!C20)</f>
-        <v>31.602540378443763</v>
+        <v>184.60254037844376</v>
       </c>
       <c r="D20" s="75">
         <f>IF('4535A'!D20="", "", '4535A'!D20)</f>
@@ -24206,7 +24202,7 @@
       </c>
       <c r="C21" s="75">
         <f>IF('4535A'!C21="", "", '4535A'!C21)</f>
-        <v>15.602540378443791</v>
+        <v>168.60254037844379</v>
       </c>
       <c r="D21" s="75">
         <f>IF('4535A'!D21="", "", '4535A'!D21)</f>
@@ -24236,7 +24232,7 @@
       </c>
       <c r="C22" s="75">
         <f>IF('4535A'!C22="", "", '4535A'!C22)</f>
-        <v>-0.39745962155618031</v>
+        <v>152.60254037844382</v>
       </c>
       <c r="D22" s="75">
         <f>IF('4535A'!D22="", "", '4535A'!D22)</f>
@@ -24266,7 +24262,7 @@
       </c>
       <c r="C23" s="75">
         <f>IF('4535A'!C23="", "", '4535A'!C23)</f>
-        <v>15.60254037844382</v>
+        <v>168.60254037844382</v>
       </c>
       <c r="D23" s="75">
         <f>IF('4535A'!D23="", "", '4535A'!D23)</f>
@@ -24296,7 +24292,7 @@
       </c>
       <c r="C24" s="75">
         <f>IF('4535A'!C24="", "", '4535A'!C24)</f>
-        <v>-0.39745962155618031</v>
+        <v>152.60254037844382</v>
       </c>
       <c r="D24" s="75">
         <f>IF('4535A'!D24="", "", '4535A'!D24)</f>
@@ -24356,7 +24352,7 @@
       </c>
       <c r="C26" s="76">
         <f>IF('4535A_1'!C3="", "", '4535A_1'!C3)</f>
-        <v>-32.397459621556102</v>
+        <v>120.6025403784439</v>
       </c>
       <c r="D26" s="76">
         <f>IF('4535A_1'!D3="", "", '4535A_1'!D3)</f>
@@ -24386,7 +24382,7 @@
       </c>
       <c r="C27" s="76">
         <f>IF('4535A_1'!C4="", "", '4535A_1'!C4)</f>
-        <v>-32.397459621556109</v>
+        <v>120.60254037844389</v>
       </c>
       <c r="D27" s="76">
         <f>IF('4535A_1'!D4="", "", '4535A_1'!D4)</f>
@@ -24596,7 +24592,7 @@
       </c>
       <c r="C34" s="76">
         <f>IF('4535A_1'!C11="", "", '4535A_1'!C11)</f>
-        <v>-16.397459621556138</v>
+        <v>136.60254037844385</v>
       </c>
       <c r="D34" s="76">
         <f>IF('4535A_1'!D11="", "", '4535A_1'!D11)</f>
@@ -24618,31 +24614,31 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="str">
         <f>IF('4535A_1'!A12="", "", '4535A_1'!A12)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B35" s="76">
+        <v/>
+      </c>
+      <c r="B35" s="76" t="str">
         <f>IF('4535A_1'!B12="", "", '4535A_1'!B12)</f>
-        <v>29</v>
-      </c>
-      <c r="C35" s="76">
+        <v/>
+      </c>
+      <c r="C35" s="76" t="str">
         <f>IF('4535A_1'!C12="", "", '4535A_1'!C12)</f>
-        <v>-16.397459621556152</v>
-      </c>
-      <c r="D35" s="76">
+        <v/>
+      </c>
+      <c r="D35" s="76" t="str">
         <f>IF('4535A_1'!D12="", "", '4535A_1'!D12)</f>
-        <v>-36.790561913613885</v>
-      </c>
-      <c r="E35" s="76">
+        <v/>
+      </c>
+      <c r="E35" s="76" t="str">
         <f>IF('4535A_1'!E12="", "", '4535A_1'!E12)</f>
-        <v>-179.99985969422843</v>
-      </c>
-      <c r="F35" s="76">
+        <v/>
+      </c>
+      <c r="F35" s="76" t="str">
         <f>IF('4535A_1'!F12="", "", '4535A_1'!F12)</f>
-        <v>5</v>
-      </c>
-      <c r="G35" s="76">
+        <v/>
+      </c>
+      <c r="G35" s="76" t="str">
         <f>IF('4535A_1'!A12="", "", '4535A_1'!G12)</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -25008,31 +25004,31 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="str">
         <f>IF('4535A_1'!A25="", "", '4535A_1'!A25)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B48" s="76">
+        <v/>
+      </c>
+      <c r="B48" s="76" t="str">
         <f>IF('4535A_1'!B25="", "", '4535A_1'!B25)</f>
-        <v>31</v>
-      </c>
-      <c r="C48" s="76">
+        <v/>
+      </c>
+      <c r="C48" s="76" t="str">
         <f>IF('4535A_1'!C25="", "", '4535A_1'!C25)</f>
-        <v>-16.397459621556116</v>
-      </c>
-      <c r="D48" s="76">
+        <v/>
+      </c>
+      <c r="D48" s="76" t="str">
         <f>IF('4535A_1'!D25="", "", '4535A_1'!D25)</f>
-        <v>18.635063928590171</v>
-      </c>
-      <c r="E48" s="76">
+        <v/>
+      </c>
+      <c r="E48" s="76" t="str">
         <f>IF('4535A_1'!E25="", "", '4535A_1'!E25)</f>
-        <v>59.999579082684676</v>
-      </c>
-      <c r="F48" s="76">
+        <v/>
+      </c>
+      <c r="F48" s="76" t="str">
         <f>IF('4535A_1'!F25="", "", '4535A_1'!F25)</f>
-        <v>5</v>
-      </c>
-      <c r="G48" s="76">
+        <v/>
+      </c>
+      <c r="G48" s="76" t="str">
         <f>IF('4535A_1'!A25="", "", '4535A_1'!G25)</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -25376,11 +25372,11 @@
       </c>
       <c r="C60" s="77">
         <f>IF('4535_1'!C14="", "", '4535_1'!C14)</f>
-        <v>16.397459621556237</v>
+        <v>169.39745962155624</v>
       </c>
       <c r="D60" s="77">
         <f>IF('4535_1'!D14="", "", '4535_1'!D14)</f>
-        <v>-35.872668235624062</v>
+        <v>-37.872668235624062</v>
       </c>
       <c r="E60" s="77">
         <f>IF('4535_1'!E14="", "", '4535_1'!E14)</f>
@@ -25406,11 +25402,11 @@
       </c>
       <c r="C61" s="77">
         <f>IF('4535_1'!C15="", "", '4535_1'!C15)</f>
-        <v>0.39745962155623715</v>
+        <v>153.39745962155624</v>
       </c>
       <c r="D61" s="77">
         <f>IF('4535_1'!D15="", "", '4535_1'!D15)</f>
-        <v>-45.110272542658066</v>
+        <v>-47.110272542658066</v>
       </c>
       <c r="E61" s="77">
         <f>IF('4535_1'!E15="", "", '4535_1'!E15)</f>
@@ -25466,11 +25462,11 @@
       </c>
       <c r="C63" s="77">
         <f>IF('4535_1'!C17="", "", '4535_1'!C17)</f>
-        <v>0.39745962155626557</v>
+        <v>153.39745962155627</v>
       </c>
       <c r="D63" s="77">
         <f>IF('4535_1'!D17="", "", '4535_1'!D17)</f>
-        <v>-63.585481156726075</v>
+        <v>-65.585481156726075</v>
       </c>
       <c r="E63" s="77">
         <f>IF('4535_1'!E17="", "", '4535_1'!E17)</f>
@@ -25496,11 +25492,11 @@
       </c>
       <c r="C64" s="77">
         <f>IF('4535_1'!C18="", "", '4535_1'!C18)</f>
-        <v>16.397459621556237</v>
+        <v>169.39745962155624</v>
       </c>
       <c r="D64" s="77">
         <f>IF('4535_1'!D18="", "", '4535_1'!D18)</f>
-        <v>-72.823085463760108</v>
+        <v>-74.823085463760108</v>
       </c>
       <c r="E64" s="77">
         <f>IF('4535_1'!E18="", "", '4535_1'!E18)</f>
@@ -25526,11 +25522,11 @@
       </c>
       <c r="C65" s="77">
         <f>IF('4535_1'!C19="", "", '4535_1'!C19)</f>
-        <v>32.397459621556209</v>
+        <v>185.39745962155621</v>
       </c>
       <c r="D65" s="77">
         <f>IF('4535_1'!D19="", "", '4535_1'!D19)</f>
-        <v>-45.110272542658095</v>
+        <v>-47.110272542658095</v>
       </c>
       <c r="E65" s="77">
         <f>IF('4535_1'!E19="", "", '4535_1'!E19)</f>
@@ -25545,7 +25541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="57" t="str">
         <f>IF('4535_1'!A20="", "", '4535_1'!A20)</f>
         <v>triangle_10pad</v>
@@ -25556,11 +25552,11 @@
       </c>
       <c r="C66" s="77">
         <f>IF('4535_1'!C20="", "", '4535_1'!C20)</f>
-        <v>32.397459621556237</v>
+        <v>185.39745962155624</v>
       </c>
       <c r="D66" s="77">
         <f>IF('4535_1'!D20="", "", '4535_1'!D20)</f>
-        <v>-63.585481156726104</v>
+        <v>-65.585481156726104</v>
       </c>
       <c r="E66" s="77">
         <f>IF('4535_1'!E20="", "", '4535_1'!E20)</f>
@@ -25575,7 +25571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" s="57" t="str">
         <f>IF('4535_1'!A21="", "", '4535_1'!A21)</f>
         <v>triangle_10pad</v>
@@ -25586,11 +25582,11 @@
       </c>
       <c r="C67" s="77">
         <f>IF('4535_1'!C21="", "", '4535_1'!C21)</f>
-        <v>48.397459621556209</v>
+        <v>201.39745962155621</v>
       </c>
       <c r="D67" s="77">
         <f>IF('4535_1'!D21="", "", '4535_1'!D21)</f>
-        <v>-72.823085463760137</v>
+        <v>-74.823085463760137</v>
       </c>
       <c r="E67" s="77">
         <f>IF('4535_1'!E21="", "", '4535_1'!E21)</f>
@@ -25605,7 +25601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" s="57" t="str">
         <f>IF('4535_1'!A22="", "", '4535_1'!A22)</f>
         <v>triangle_10pad</v>
@@ -25616,11 +25612,11 @@
       </c>
       <c r="C68" s="77">
         <f>IF('4535_1'!C22="", "", '4535_1'!C22)</f>
-        <v>64.397459621556209</v>
+        <v>217.39745962155621</v>
       </c>
       <c r="D68" s="77">
         <f>IF('4535_1'!D22="", "", '4535_1'!D22)</f>
-        <v>-63.585481156726132</v>
+        <v>-65.585481156726132</v>
       </c>
       <c r="E68" s="77">
         <f>IF('4535_1'!E22="", "", '4535_1'!E22)</f>
@@ -25635,7 +25631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" s="57" t="str">
         <f>IF('4535_1'!A23="", "", '4535_1'!A23)</f>
         <v>triangle_10pad</v>
@@ -25646,11 +25642,11 @@
       </c>
       <c r="C69" s="77">
         <f>IF('4535_1'!C23="", "", '4535_1'!C23)</f>
-        <v>48.397459621556209</v>
+        <v>201.39745962155621</v>
       </c>
       <c r="D69" s="77">
         <f>IF('4535_1'!D23="", "", '4535_1'!D23)</f>
-        <v>-35.87266823562409</v>
+        <v>-37.87266823562409</v>
       </c>
       <c r="E69" s="77">
         <f>IF('4535_1'!E23="", "", '4535_1'!E23)</f>
@@ -25665,7 +25661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" s="57" t="str">
         <f>IF('4535_1'!A24="", "", '4535_1'!A24)</f>
         <v>triangle_10pad</v>
@@ -25676,11 +25672,11 @@
       </c>
       <c r="C70" s="77">
         <f>IF('4535_1'!C24="", "", '4535_1'!C24)</f>
-        <v>64.39745962155618</v>
+        <v>217.39745962155618</v>
       </c>
       <c r="D70" s="77">
         <f>IF('4535_1'!D24="", "", '4535_1'!D24)</f>
-        <v>-45.110272542658123</v>
+        <v>-47.110272542658123</v>
       </c>
       <c r="E70" s="77">
         <f>IF('4535_1'!E24="", "", '4535_1'!E24)</f>
@@ -25695,7 +25691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" s="57" t="str">
         <f>IF('4535_1'!A25="", "", '4535_1'!A25)</f>
         <v/>
@@ -25766,11 +25762,11 @@
       </c>
       <c r="C73" s="78">
         <f>IF('4535_2'!C4="", "", '4535_2'!C4)</f>
-        <v>64.397459621556152</v>
+        <v>217.39745962155615</v>
       </c>
       <c r="D73" s="78">
         <f>IF('4535_2'!D4="", "", '4535_2'!D4)</f>
-        <v>-120.15985531452209</v>
+        <v>-121.15985531452209</v>
       </c>
       <c r="E73" s="78">
         <f>IF('4535_2'!E4="", "", '4535_2'!E4)</f>
@@ -25796,11 +25792,11 @@
       </c>
       <c r="C74" s="78">
         <f>IF('4535_2'!C5="", "", '4535_2'!C5)</f>
-        <v>64.397459621556152</v>
+        <v>217.39745962155615</v>
       </c>
       <c r="D74" s="78">
         <f>IF('4535_2'!D5="", "", '4535_2'!D5)</f>
-        <v>-101.68464670045407</v>
+        <v>-102.68464670045407</v>
       </c>
       <c r="E74" s="78">
         <f>IF('4535_2'!E5="", "", '4535_2'!E5)</f>
@@ -25826,11 +25822,11 @@
       </c>
       <c r="C75" s="78">
         <f>IF('4535_2'!C6="", "", '4535_2'!C6)</f>
-        <v>48.397459621556152</v>
+        <v>201.39745962155615</v>
       </c>
       <c r="D75" s="78">
         <f>IF('4535_2'!D6="", "", '4535_2'!D6)</f>
-        <v>-92.447042393420048</v>
+        <v>-93.447042393420048</v>
       </c>
       <c r="E75" s="78">
         <f>IF('4535_2'!E6="", "", '4535_2'!E6)</f>
@@ -25856,11 +25852,11 @@
       </c>
       <c r="C76" s="78">
         <f>IF('4535_2'!C7="", "", '4535_2'!C7)</f>
-        <v>32.397459621556209</v>
+        <v>185.39745962155621</v>
       </c>
       <c r="D76" s="78">
         <f>IF('4535_2'!D7="", "", '4535_2'!D7)</f>
-        <v>-101.68464670045404</v>
+        <v>-102.68464670045404</v>
       </c>
       <c r="E76" s="78">
         <f>IF('4535_2'!E7="", "", '4535_2'!E7)</f>
@@ -25886,11 +25882,11 @@
       </c>
       <c r="C77" s="78">
         <f>IF('4535_2'!C8="", "", '4535_2'!C8)</f>
-        <v>16.397459621556209</v>
+        <v>169.39745962155621</v>
       </c>
       <c r="D77" s="78">
         <f>IF('4535_2'!D8="", "", '4535_2'!D8)</f>
-        <v>-92.447042393420006</v>
+        <v>-93.447042393420006</v>
       </c>
       <c r="E77" s="78">
         <f>IF('4535_2'!E8="", "", '4535_2'!E8)</f>
@@ -25916,11 +25912,11 @@
       </c>
       <c r="C78" s="78">
         <f>IF('4535_2'!C9="", "", '4535_2'!C9)</f>
-        <v>0.39745962155620873</v>
+        <v>153.39745962155621</v>
       </c>
       <c r="D78" s="78">
         <f>IF('4535_2'!D9="", "", '4535_2'!D9)</f>
-        <v>-101.68464670045401</v>
+        <v>-102.68464670045401</v>
       </c>
       <c r="E78" s="78">
         <f>IF('4535_2'!E9="", "", '4535_2'!E9)</f>
@@ -25946,11 +25942,11 @@
       </c>
       <c r="C79" s="78">
         <f>IF('4535_2'!C10="", "", '4535_2'!C10)</f>
-        <v>0.39745962155623715</v>
+        <v>153.39745962155624</v>
       </c>
       <c r="D79" s="78">
         <f>IF('4535_2'!D10="", "", '4535_2'!D10)</f>
-        <v>-120.15985531452202</v>
+        <v>-121.15985531452202</v>
       </c>
       <c r="E79" s="78">
         <f>IF('4535_2'!E10="", "", '4535_2'!E10)</f>
@@ -25976,11 +25972,11 @@
       </c>
       <c r="C80" s="78">
         <f>IF('4535_2'!C11="", "", '4535_2'!C11)</f>
-        <v>48.397459621556209</v>
+        <v>201.39745962155621</v>
       </c>
       <c r="D80" s="78">
         <f>IF('4535_2'!D11="", "", '4535_2'!D11)</f>
-        <v>-129.3974596215561</v>
+        <v>-130.3974596215561</v>
       </c>
       <c r="E80" s="78">
         <f>IF('4535_2'!E11="", "", '4535_2'!E11)</f>
@@ -26006,11 +26002,11 @@
       </c>
       <c r="C81" s="78">
         <f>IF('4535_2'!C12="", "", '4535_2'!C12)</f>
-        <v>32.397459621556209</v>
+        <v>185.39745962155621</v>
       </c>
       <c r="D81" s="78">
         <f>IF('4535_2'!D12="", "", '4535_2'!D12)</f>
-        <v>-120.15985531452206</v>
+        <v>-121.15985531452206</v>
       </c>
       <c r="E81" s="78">
         <f>IF('4535_2'!E12="", "", '4535_2'!E12)</f>
@@ -26036,11 +26032,11 @@
       </c>
       <c r="C82" s="78">
         <f>IF('4535_2'!C13="", "", '4535_2'!C13)</f>
-        <v>16.397459621556209</v>
+        <v>169.39745962155621</v>
       </c>
       <c r="D82" s="78">
         <f>IF('4535_2'!D13="", "", '4535_2'!D13)</f>
-        <v>-129.39745962155607</v>
+        <v>-130.39745962155607</v>
       </c>
       <c r="E82" s="78">
         <f>IF('4535_2'!E13="", "", '4535_2'!E13)</f>
@@ -26546,15 +26542,15 @@
       </c>
       <c r="C99" s="79">
         <f>IF('4535A_2'!C6="", "", '4535A_2'!C6)</f>
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="D99" s="79">
         <f>IF('4535A_2'!D6="", "", '4535A_2'!D6)</f>
-        <v>9.7623956929660096</v>
+        <v>-36.762395692965995</v>
       </c>
       <c r="E99" s="79">
         <f>IF('4535A_2'!E6="", "", '4535A_2'!E6)</f>
-        <v>120.00014030577157</v>
+        <v>-59.999859694228427</v>
       </c>
       <c r="F99" s="79">
         <f>IF('4535A_2'!F6="", "", '4535A_2'!F6)</f>
@@ -26576,19 +26572,19 @@
       </c>
       <c r="C100" s="79">
         <f>IF('4535A_2'!C7="", "", '4535A_2'!C7)</f>
-        <v>95.999999999999972</v>
+        <v>233</v>
       </c>
       <c r="D100" s="79">
         <f>IF('4535A_2'!D7="", "", '4535A_2'!D7)</f>
-        <v>-8.7128129211019854</v>
+        <v>-18.287187078898</v>
       </c>
       <c r="E100" s="79">
         <f>IF('4535A_2'!E7="", "", '4535A_2'!E7)</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F100" s="79">
         <f>IF('4535A_2'!F7="", "", '4535A_2'!F7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G100" s="79">
         <f>IF('4535A_2'!G7="", "", '4535A_2'!G7)</f>
@@ -26606,19 +26602,19 @@
       </c>
       <c r="C101" s="79">
         <f>IF('4535A_2'!C8="", "", '4535A_2'!C8)</f>
-        <v>79.999999999999972</v>
+        <v>249</v>
       </c>
       <c r="D101" s="79">
         <f>IF('4535A_2'!D8="", "", '4535A_2'!D8)</f>
-        <v>-17.950417228135962</v>
+        <v>-9.0495827718640101</v>
       </c>
       <c r="E101" s="79">
         <f>IF('4535A_2'!E8="", "", '4535A_2'!E8)</f>
-        <v>120.00014030577157</v>
+        <v>-59.999859694228427</v>
       </c>
       <c r="F101" s="79">
         <f>IF('4535A_2'!F8="", "", '4535A_2'!F8)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G101" s="79">
         <f>IF('4535A_2'!G8="", "", '4535A_2'!G8)</f>
@@ -26627,62 +26623,62 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="68" t="str">
-        <f>IF('4535A_2'!A6="", "", '4535A_2'!A6)</f>
+        <f>IF('4535A_2'!A9="", "", '4535A_2'!A9)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B102" s="79">
-        <f>IF('4535A_2'!B6="", "", '4535A_2'!B6)</f>
-        <v>19</v>
+        <f>IF('4535A_2'!B9="", "", '4535A_2'!B9)</f>
+        <v>22</v>
       </c>
       <c r="C102" s="79">
-        <f>IF('4535A_2'!C6="", "", '4535A_2'!C6)</f>
-        <v>96</v>
+        <f>IF('4535A_2'!C9="", "", '4535A_2'!C9)</f>
+        <v>249</v>
       </c>
       <c r="D102" s="79">
-        <f>IF('4535A_2'!D6="", "", '4535A_2'!D6)</f>
-        <v>9.7623956929660096</v>
+        <f>IF('4535A_2'!D9="", "", '4535A_2'!D9)</f>
+        <v>9.4256258422039991</v>
       </c>
       <c r="E102" s="79">
-        <f>IF('4535A_2'!E6="", "", '4535A_2'!E6)</f>
-        <v>120.00014030577157</v>
+        <f>IF('4535A_2'!E9="", "", '4535A_2'!E9)</f>
+        <v>0</v>
       </c>
       <c r="F102" s="79">
-        <f>IF('4535A_2'!F6="", "", '4535A_2'!F6)</f>
-        <v>5</v>
+        <f>IF('4535A_2'!F9="", "", '4535A_2'!F9)</f>
+        <v>8</v>
       </c>
       <c r="G102" s="79">
-        <f>IF('4535A_2'!G6="", "", '4535A_2'!G6)</f>
+        <f>IF('4535A_2'!G9="", "", '4535A_2'!G9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="68" t="str">
         <f>IF('4535A_2'!A10="", "", '4535A_2'!A10)</f>
-        <v/>
-      </c>
-      <c r="B103" s="79" t="str">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B103" s="79">
         <f>IF('4535A_2'!B10="", "", '4535A_2'!B10)</f>
-        <v/>
-      </c>
-      <c r="C103" s="79" t="str">
+        <v>23</v>
+      </c>
+      <c r="C103" s="79">
         <f>IF('4535A_2'!C10="", "", '4535A_2'!C10)</f>
-        <v/>
-      </c>
-      <c r="D103" s="79" t="str">
+        <v>233</v>
+      </c>
+      <c r="D103" s="79">
         <f>IF('4535A_2'!D10="", "", '4535A_2'!D10)</f>
-        <v/>
-      </c>
-      <c r="E103" s="79" t="str">
+        <v>18.66323014923799</v>
+      </c>
+      <c r="E103" s="79">
         <f>IF('4535A_2'!E10="", "", '4535A_2'!E10)</f>
-        <v/>
-      </c>
-      <c r="F103" s="79" t="str">
+        <v>59.999859694228427</v>
+      </c>
+      <c r="F103" s="79">
         <f>IF('4535A_2'!F10="", "", '4535A_2'!F10)</f>
-        <v/>
-      </c>
-      <c r="G103" s="79" t="str">
+        <v>9</v>
+      </c>
+      <c r="G103" s="79">
         <f>IF('4535A_2'!G10="", "", '4535A_2'!G10)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">

--- a/app/skinGui/iniGenerators/leftLeg_Lower_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/leftLeg_Lower_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10155" windowHeight="10110" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10155" windowHeight="10110" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="4535A" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="35">
   <si>
     <t>[SENSORS]</t>
   </si>
@@ -124,6 +124,9 @@
   <si>
     <t>CARD ID 11</t>
   </si>
+  <si>
+    <t>Triangle # for the MTB</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +294,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +675,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -813,6 +828,11 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -840,13 +860,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>72144</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>979316</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>181216</xdr:rowOff>
@@ -858,7 +878,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10941850" y="2425506"/>
+          <a:off x="11905556" y="2425506"/>
           <a:ext cx="4358584" cy="4042210"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4563288"/>
@@ -1864,13 +1884,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>1998712</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
@@ -2943,13 +2963,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2961,7 +2981,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10303826" y="0"/>
+          <a:off x="11267532" y="0"/>
           <a:ext cx="4018973" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
@@ -3967,13 +3987,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>534786</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>328083</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -3985,8 +4005,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10295110" y="2324653"/>
-          <a:ext cx="4354091" cy="3716684"/>
+          <a:off x="11258815" y="2324653"/>
+          <a:ext cx="4354092" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -4991,13 +5011,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>809065</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>105336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>1730188</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>31378</xdr:rowOff>
@@ -5107,13 +5127,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5125,8 +5145,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11032208" y="0"/>
-          <a:ext cx="4030179" cy="0"/>
+          <a:off x="11997595" y="0"/>
+          <a:ext cx="4034661" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -6131,13 +6151,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>534787</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -6149,8 +6169,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10989875" y="2324653"/>
-          <a:ext cx="4388331" cy="3716684"/>
+          <a:off x="11955262" y="2312887"/>
+          <a:ext cx="4392813" cy="3715003"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -7155,13 +7175,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>515471</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>1965094</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>39447</xdr:rowOff>
@@ -8234,13 +8254,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>72144</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -8252,8 +8272,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12246215" y="2293277"/>
-          <a:ext cx="4576056" cy="3651689"/>
+          <a:off x="13014938" y="2324653"/>
+          <a:ext cx="4544680" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -9258,13 +9278,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>396270</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>173917</xdr:rowOff>
@@ -10337,13 +10357,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -10355,7 +10375,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10920149" y="0"/>
+          <a:off x="11883855" y="0"/>
           <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
@@ -11361,13 +11381,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>41728</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>522941</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -11379,7 +11399,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10956257" y="2324653"/>
+          <a:off x="11919963" y="2324653"/>
           <a:ext cx="4515331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
@@ -12385,13 +12405,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>2039471</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>425825</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
@@ -12520,13 +12540,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -12538,8 +12558,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10684826" y="0"/>
-          <a:ext cx="4030179" cy="0"/>
+          <a:off x="11648532" y="0"/>
+          <a:ext cx="4030178" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -13544,13 +13564,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>41728</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>522941</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -13562,8 +13582,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10720934" y="2324653"/>
-          <a:ext cx="4515331" cy="3716684"/>
+          <a:off x="11684640" y="2324653"/>
+          <a:ext cx="4515330" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -14573,13 +14593,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -14591,8 +14611,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10684826" y="0"/>
-          <a:ext cx="4030179" cy="0"/>
+          <a:off x="11648532" y="0"/>
+          <a:ext cx="4030178" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -15597,13 +15617,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>142581</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>105888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>18677</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>1366</xdr:rowOff>
@@ -15615,7 +15635,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10821787" y="2279829"/>
+          <a:off x="11785493" y="2279829"/>
           <a:ext cx="4515331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
@@ -16909,10 +16929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16929,23 +16949,24 @@
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -16978,20 +16999,23 @@
       <c r="L2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -17010,30 +17034,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="84">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>-1.0471975511965976</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -17052,27 +17080,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="84">
+        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="33"/>
       <c r="C5" s="61"/>
@@ -17091,26 +17123,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>-60</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -17129,24 +17165,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62"/>
       <c r="B7" s="33"/>
       <c r="C7" s="61"/>
@@ -17165,23 +17205,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="33"/>
       <c r="C8" s="61"/>
@@ -17200,23 +17244,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="33"/>
       <c r="C9" s="61"/>
@@ -17234,21 +17282,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="84">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -17266,20 +17318,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="84">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -17297,20 +17353,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="84">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>0</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -17328,18 +17388,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="84">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -17357,42 +17421,46 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="84">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="61">
-        <f t="shared" ref="B14:B15" si="0">((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*16)</f>
+        <f t="shared" ref="B14:B15" si="1">((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*16)</f>
         <v>9</v>
       </c>
       <c r="C14" s="61">
-        <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P14*COS($O$3)-Q14*SIN($O$3)+$O$7)*$S$3)</f>
         <v>200.60254037844379</v>
       </c>
       <c r="D14" s="61">
-        <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P14*SIN($O$3)+Q14*COS($O$3)+$O$9)*$S$4)</f>
         <v>-18.127331764375867</v>
       </c>
       <c r="E14" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N14/3.1416*180)+$O$5)</f>
         <v>-1.403057715734235E-4</v>
       </c>
       <c r="F14" s="60">
         <v>5</v>
       </c>
       <c r="G14" s="63">
-        <f t="shared" ref="G14:G15" si="1">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G14:G15" si="2">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
@@ -17405,42 +17473,46 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="83">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C15" s="61">
-        <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P15*COS($O$3)-Q15*SIN($O$3)+$O$7)*$S$3)</f>
         <v>216.60254037844379</v>
       </c>
       <c r="D15" s="61">
-        <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P15*SIN($O$3)+Q15*COS($O$3)+$O$9)*$S$4)</f>
         <v>-8.8897274573418628</v>
       </c>
       <c r="E15" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N15/3.1416*180)+$O$5)</f>
         <v>-60</v>
       </c>
       <c r="F15" s="60">
         <v>5</v>
       </c>
       <c r="G15" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="1"/>
@@ -17453,18 +17525,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -17482,42 +17558,46 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="84">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="61">
-        <f t="shared" ref="B17:B24" si="2">((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
+        <f t="shared" ref="B17:B24" si="3">((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
         <v>3</v>
       </c>
       <c r="C17" s="61">
-        <f t="shared" ref="C17:C24" si="3">((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C17:C24" si="4">((+P17*COS($O$3)-Q17*SIN($O$3)+$O$7)*$S$3)</f>
         <v>216.60254037844373</v>
       </c>
       <c r="D17" s="61">
-        <f t="shared" ref="D17:D24" si="4">((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D17:D24" si="5">((P17*SIN($O$3)+Q17*COS($O$3)+$O$9)*$S$4)</f>
         <v>9.5854811567261606</v>
       </c>
       <c r="E17" s="61">
-        <f t="shared" ref="E17:E24" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M17/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E17:E24" si="6">IF(($S$3*$S$4)=1,1,-1)*(($N17/3.1416*180)+$O$5)</f>
         <v>-1.403057715734235E-4</v>
       </c>
       <c r="F17" s="60">
         <v>5</v>
       </c>
       <c r="G17" s="63">
-        <f t="shared" ref="G17:G24" si="6">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G17:G24" si="7">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
@@ -17530,42 +17610,46 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="83">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C18" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200.60254037844376</v>
       </c>
       <c r="D18" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.823085463760165</v>
       </c>
       <c r="E18" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.999719388456853</v>
       </c>
       <c r="F18" s="60">
         <v>5</v>
       </c>
       <c r="G18" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I18" s="1"/>
@@ -17578,42 +17662,46 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="83">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C19" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>184.60254037844379</v>
       </c>
       <c r="D19" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.8897274573418485</v>
       </c>
       <c r="E19" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.999719388456853</v>
       </c>
       <c r="F19" s="60">
         <v>5</v>
       </c>
       <c r="G19" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -17626,42 +17714,46 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="83">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C20" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>184.60254037844376</v>
       </c>
       <c r="D20" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.5854811567261606</v>
       </c>
       <c r="E20" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.403057715734235E-4</v>
       </c>
       <c r="F20" s="60">
         <v>5</v>
       </c>
       <c r="G20" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -17674,42 +17766,46 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="83">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C21" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>168.60254037844379</v>
       </c>
       <c r="D21" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.823085463760187</v>
       </c>
       <c r="E21" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.999719388456853</v>
       </c>
       <c r="F21" s="60">
         <v>5</v>
       </c>
       <c r="G21" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -17722,42 +17818,46 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="83">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C22" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>152.60254037844382</v>
       </c>
       <c r="D22" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.585481156726182</v>
       </c>
       <c r="E22" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>119.99957908268468</v>
       </c>
       <c r="F22" s="60">
         <v>5</v>
       </c>
       <c r="G22" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -17770,42 +17870,46 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C23" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>168.60254037844382</v>
       </c>
       <c r="D23" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-18.127331764375853</v>
       </c>
       <c r="E23" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>119.99957908268468</v>
       </c>
       <c r="F23" s="60">
         <v>5</v>
       </c>
       <c r="G23" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -17818,42 +17922,46 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="83">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C24" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>152.60254037844382</v>
       </c>
       <c r="D24" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.8897274573418343</v>
       </c>
       <c r="E24" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.999719388456853</v>
       </c>
       <c r="F24" s="60">
         <v>5</v>
       </c>
       <c r="G24" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -17866,18 +17974,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="83">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -17895,270 +18007,298 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="84">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J28" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G33" s="7"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="7"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="7"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="7"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="7"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G37" s="7"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="7"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G38" s="7"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="7"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G39" s="7"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="7"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G40" s="7"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="7"/>
+      <c r="M40" s="8"/>
       <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="7"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="7"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="7"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="7"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="7"/>
+      <c r="M45" s="8"/>
       <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="7"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="7"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G49" s="7"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="7"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G50" s="7"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="7"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="7"/>
-    </row>
-    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G51" s="7"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="7"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G52" s="7"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="7"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G53" s="7"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="7"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G54" s="7"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="7"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="7"/>
-    </row>
-    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -18167,6 +18307,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18177,10 +18318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18196,20 +18337,21 @@
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -18242,20 +18384,23 @@
       <c r="L2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>26</v>
       </c>
@@ -18264,22 +18409,22 @@
         <v>16</v>
       </c>
       <c r="C3" s="61">
-        <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P3*COS($O$3)-Q3*SIN($O$3)+$O$7)*$S$3)</f>
         <v>120.6025403784439</v>
       </c>
       <c r="D3" s="61">
-        <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P3*SIN($O$3)+Q3*COS($O$3)+$O$9)*$S$4)</f>
         <v>9.3974596215561519</v>
       </c>
       <c r="E3" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N3/3.1416*180)+$O$5)</f>
         <v>-239.99971938845687</v>
       </c>
       <c r="F3" s="60">
         <v>5</v>
       </c>
       <c r="G3" s="63">
-        <f t="shared" ref="G3:G4" si="1">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G3:G4" si="1">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
@@ -18293,30 +18438,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="83">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>-2.0943951023931953</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>26</v>
       </c>
@@ -18325,15 +18474,15 @@
         <v>17</v>
       </c>
       <c r="C4" s="61">
-        <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P4*COS($O$3)-Q4*SIN($O$3)+$O$7)*$S$3)</f>
         <v>120.60254037844389</v>
       </c>
       <c r="D4" s="61">
-        <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P4*SIN($O$3)+Q4*COS($O$3)+$O$9)*$S$4)</f>
         <v>-9.0777489925118857</v>
       </c>
       <c r="E4" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N4/3.1416*180)+$O$5)</f>
         <v>-179.99985969422843</v>
       </c>
       <c r="F4" s="60">
@@ -18354,27 +18503,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="83">
+        <f t="shared" ref="M4:M25" si="2">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="33"/>
       <c r="C5" s="23"/>
@@ -18393,26 +18546,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="84">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>-120</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
@@ -18431,24 +18588,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="84">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62"/>
       <c r="B7" s="61"/>
       <c r="C7" s="61"/>
@@ -18467,23 +18628,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="84">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>84</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
@@ -18502,23 +18667,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="84">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
@@ -18536,21 +18705,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="84">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>146</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -18568,20 +18741,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="84">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>26</v>
       </c>
@@ -18590,22 +18767,22 @@
         <v>28</v>
       </c>
       <c r="C11" s="61">
-        <f>((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P11*COS($O$3)-Q11*SIN($O$3)+$O$7)*$S$3)</f>
         <v>136.60254037844385</v>
       </c>
       <c r="D11" s="61">
-        <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P11*SIN($O$3)+Q11*COS($O$3)+$O$9)*$S$4)</f>
         <v>-18.315353299545848</v>
       </c>
       <c r="E11" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N11/3.1416*180)+$O$5)</f>
         <v>-120</v>
       </c>
       <c r="F11" s="60">
         <v>5</v>
       </c>
       <c r="G11" s="63">
-        <f t="shared" ref="G11" si="2">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G11" si="3">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
@@ -18618,20 +18795,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="83">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>16</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -18649,18 +18830,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="84">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -18678,18 +18863,22 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="84">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -18707,18 +18896,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="84">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -18736,18 +18929,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="84">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="33"/>
       <c r="C16" s="23"/>
@@ -18765,18 +18962,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="84">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -18794,18 +18995,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="84">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -18823,18 +19028,22 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="84">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -18852,18 +19061,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="84">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -18881,18 +19094,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="84">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -18910,18 +19127,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="84">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -18939,18 +19160,22 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -18968,18 +19193,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="84">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -18997,18 +19226,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="84">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -19026,29 +19259,108 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="84">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J29" s="73" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N30" s="56"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O30" s="56"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19059,10 +19371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19076,20 +19388,21 @@
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -19122,20 +19435,23 @@
       <c r="L2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -19154,30 +19470,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="84">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>2.0943951023931953</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -19196,27 +19516,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="84">
+        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="33"/>
       <c r="C5" s="61"/>
@@ -19235,26 +19559,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>120</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -19273,24 +19601,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62"/>
       <c r="B7" s="33"/>
       <c r="C7" s="61"/>
@@ -19309,23 +19641,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>370</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="33"/>
       <c r="C8" s="61"/>
@@ -19344,23 +19680,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="33"/>
       <c r="C9" s="61"/>
@@ -19378,22 +19718,26 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="84">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <f>-46-10</f>
         <v>-56</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -19411,20 +19755,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="84">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -19442,21 +19790,25 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="84">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <f>16*2</f>
         <v>32</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -19474,18 +19826,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="84">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -19503,42 +19859,46 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="84">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="61">
-        <f t="shared" ref="B14:B15" si="0">((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*16)</f>
+        <f>((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*16)</f>
         <v>41</v>
       </c>
       <c r="C14" s="61">
-        <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P14*COS($O$3)-Q14*SIN($O$3)+$O$7)*$S$3)</f>
         <v>169.39745962155624</v>
       </c>
       <c r="D14" s="61">
-        <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P14*SIN($O$3)+Q14*COS($O$3)+$O$9)*$S$4)</f>
         <v>-37.872668235624062</v>
       </c>
       <c r="E14" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N14/3.1416*180)+$O$5)</f>
         <v>179.99985969422843</v>
       </c>
       <c r="F14" s="60">
         <v>5</v>
       </c>
       <c r="G14" s="63">
-        <f t="shared" ref="G14:G15" si="1">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G14:G15" si="1">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
@@ -19551,35 +19911,39 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="83">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="61">
-        <f t="shared" si="0"/>
+        <f>((ROUND($L15/10,0))-1)*4+MOD($L15,10)+((J15-1)*16)</f>
         <v>38</v>
       </c>
       <c r="C15" s="61">
-        <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P15*COS($O$3)-Q15*SIN($O$3)+$O$7)*$S$3)</f>
         <v>153.39745962155624</v>
       </c>
       <c r="D15" s="61">
-        <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P15*SIN($O$3)+Q15*COS($O$3)+$O$9)*$S$4)</f>
         <v>-47.110272542658066</v>
       </c>
       <c r="E15" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N15/3.1416*180)+$O$5)</f>
         <v>120</v>
       </c>
       <c r="F15" s="60">
@@ -19599,18 +19963,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -19628,42 +19996,46 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="84">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="61">
-        <f t="shared" ref="B17:B24" si="2">((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
+        <f>((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
         <v>35</v>
       </c>
       <c r="C17" s="61">
-        <f t="shared" ref="C17:C24" si="3">((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C17:C24" si="2">((+P17*COS($O$3)-Q17*SIN($O$3)+$O$7)*$S$3)</f>
         <v>153.39745962155627</v>
       </c>
       <c r="D17" s="61">
-        <f t="shared" ref="D17:D24" si="4">((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D17:D24" si="3">((P17*SIN($O$3)+Q17*COS($O$3)+$O$9)*$S$4)</f>
         <v>-65.585481156726075</v>
       </c>
       <c r="E17" s="61">
-        <f t="shared" ref="E17:E24" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M17/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E17:E24" si="4">IF(($S$3*$S$4)=1,1,-1)*(($N17/3.1416*180)+$O$5)</f>
         <v>179.99985969422843</v>
       </c>
       <c r="F17" s="60">
         <v>5</v>
       </c>
       <c r="G17" s="63">
-        <f t="shared" ref="G17:G24" si="6">IF($R$3*$R$4=-1,1,0)</f>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
@@ -19676,42 +20048,46 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="83">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="61">
+        <f>((ROUND($L18/10,0))-1)*4+MOD($L18,10)+((J18-1)*16)</f>
+        <v>36</v>
+      </c>
+      <c r="C18" s="61">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="C18" s="61">
+        <v>169.39745962155624</v>
+      </c>
+      <c r="D18" s="61">
         <f t="shared" si="3"/>
-        <v>169.39745962155624</v>
-      </c>
-      <c r="D18" s="61">
+        <v>-74.823085463760108</v>
+      </c>
+      <c r="E18" s="61">
         <f t="shared" si="4"/>
-        <v>-74.823085463760108</v>
-      </c>
-      <c r="E18" s="61">
-        <f t="shared" si="5"/>
         <v>239.99971938845687</v>
       </c>
       <c r="F18" s="60">
         <v>5</v>
       </c>
       <c r="G18" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I18" s="1"/>
@@ -19724,42 +20100,46 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="83">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="61">
+        <f>((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
+        <v>42</v>
+      </c>
+      <c r="C19" s="61">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="C19" s="61">
+        <v>185.39745962155621</v>
+      </c>
+      <c r="D19" s="61">
         <f t="shared" si="3"/>
-        <v>185.39745962155621</v>
-      </c>
-      <c r="D19" s="61">
+        <v>-47.110272542658095</v>
+      </c>
+      <c r="E19" s="61">
         <f t="shared" si="4"/>
-        <v>-47.110272542658095</v>
-      </c>
-      <c r="E19" s="61">
-        <f t="shared" si="5"/>
         <v>239.99971938845687</v>
       </c>
       <c r="F19" s="60">
         <v>5</v>
       </c>
       <c r="G19" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -19772,42 +20152,46 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="83">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="61">
+        <f>((ROUND($L20/10,0))-1)*4+MOD($L20,10)+((J20-1)*16)</f>
+        <v>37</v>
+      </c>
+      <c r="C20" s="61">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="C20" s="61">
+        <v>185.39745962155624</v>
+      </c>
+      <c r="D20" s="61">
         <f t="shared" si="3"/>
-        <v>185.39745962155624</v>
-      </c>
-      <c r="D20" s="61">
+        <v>-65.585481156726104</v>
+      </c>
+      <c r="E20" s="61">
         <f t="shared" si="4"/>
-        <v>-65.585481156726104</v>
-      </c>
-      <c r="E20" s="61">
-        <f t="shared" si="5"/>
         <v>179.99985969422843</v>
       </c>
       <c r="F20" s="60">
         <v>5</v>
       </c>
       <c r="G20" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -19820,42 +20204,46 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="83">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="61">
+        <f>((ROUND($L21/10,0))-1)*4+MOD($L21,10)+((J21-1)*16)</f>
+        <v>47</v>
+      </c>
+      <c r="C21" s="61">
         <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="C21" s="61">
+        <v>201.39745962155621</v>
+      </c>
+      <c r="D21" s="61">
         <f t="shared" si="3"/>
-        <v>201.39745962155621</v>
-      </c>
-      <c r="D21" s="61">
+        <v>-74.823085463760137</v>
+      </c>
+      <c r="E21" s="61">
         <f t="shared" si="4"/>
-        <v>-74.823085463760137</v>
-      </c>
-      <c r="E21" s="61">
-        <f t="shared" si="5"/>
         <v>239.99971938845687</v>
       </c>
       <c r="F21" s="60">
         <v>5</v>
       </c>
       <c r="G21" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -19868,42 +20256,46 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="83">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="61">
+        <f>((ROUND($L22/10,0))-1)*4+MOD($L22,10)+((J22-1)*16)</f>
+        <v>32</v>
+      </c>
+      <c r="C22" s="61">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="C22" s="61">
+        <v>217.39745962155621</v>
+      </c>
+      <c r="D22" s="61">
         <f t="shared" si="3"/>
-        <v>217.39745962155621</v>
-      </c>
-      <c r="D22" s="61">
+        <v>-65.585481156726132</v>
+      </c>
+      <c r="E22" s="61">
         <f t="shared" si="4"/>
-        <v>-65.585481156726132</v>
-      </c>
-      <c r="E22" s="61">
-        <f t="shared" si="5"/>
         <v>299.9995790826847</v>
       </c>
       <c r="F22" s="60">
         <v>5</v>
       </c>
       <c r="G22" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -19916,42 +20308,46 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="61">
+        <f>((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
+        <v>43</v>
+      </c>
+      <c r="C23" s="61">
         <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="C23" s="61">
+        <v>201.39745962155621</v>
+      </c>
+      <c r="D23" s="61">
         <f t="shared" si="3"/>
-        <v>201.39745962155621</v>
-      </c>
-      <c r="D23" s="61">
+        <v>-37.87266823562409</v>
+      </c>
+      <c r="E23" s="61">
         <f t="shared" si="4"/>
-        <v>-37.87266823562409</v>
-      </c>
-      <c r="E23" s="61">
-        <f t="shared" si="5"/>
         <v>299.9995790826847</v>
       </c>
       <c r="F23" s="60">
         <v>5</v>
       </c>
       <c r="G23" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -19964,42 +20360,46 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="83">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="61">
+        <f>((ROUND($L24/10,0))-1)*4+MOD($L24,10)+((J24-1)*16)</f>
+        <v>46</v>
+      </c>
+      <c r="C24" s="61">
         <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="C24" s="61">
+        <v>217.39745962155618</v>
+      </c>
+      <c r="D24" s="61">
         <f t="shared" si="3"/>
-        <v>217.39745962155618</v>
-      </c>
-      <c r="D24" s="61">
+        <v>-47.110272542658123</v>
+      </c>
+      <c r="E24" s="61">
         <f t="shared" si="4"/>
-        <v>-47.110272542658123</v>
-      </c>
-      <c r="E24" s="61">
-        <f t="shared" si="5"/>
         <v>239.99971938845687</v>
       </c>
       <c r="F24" s="60">
         <v>5</v>
       </c>
       <c r="G24" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -20012,18 +20412,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="83">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -20041,26 +20445,105 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="84">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J29" s="73" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20071,10 +20554,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20084,15 +20567,16 @@
     <col min="8" max="8" width="3.140625" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="31.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -20125,20 +20609,23 @@
       <c r="L2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -20157,30 +20644,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="84">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>2.0943951023931953</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>26</v>
       </c>
@@ -20189,22 +20680,22 @@
         <v>49</v>
       </c>
       <c r="C4" s="61">
-        <f t="shared" ref="C4:C13" si="1">((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C4:C13" si="1">((+P4*COS($O$3)-Q4*SIN($O$3)+$O$7)*$S$3)</f>
         <v>217.39745962155615</v>
       </c>
       <c r="D4" s="61">
-        <f t="shared" ref="D4:D13" si="2">((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D4:D13" si="2">((P4*SIN($O$3)+Q4*COS($O$3)+$O$9)*$S$4)</f>
         <v>-121.15985531452209</v>
       </c>
       <c r="E4" s="61">
-        <f t="shared" ref="E4:E13" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E4:E13" si="3">IF(($S$3*$S$4)=1,1,-1)*(($N4/3.1416*180)+$O$5)</f>
         <v>60.000140305771573</v>
       </c>
       <c r="F4" s="60">
         <v>5</v>
       </c>
       <c r="G4" s="63">
-        <f t="shared" ref="G4:G13" si="4">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G4:G13" si="4">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
@@ -20218,27 +20709,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="83">
+        <f t="shared" ref="M4:M25" si="5">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>26</v>
       </c>
@@ -20276,26 +20771,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="83">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>120</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>26</v>
       </c>
@@ -20333,24 +20832,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="83">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
@@ -20388,23 +20891,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="83">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>370</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
         <v>26</v>
       </c>
@@ -20442,23 +20949,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="83">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>26</v>
       </c>
@@ -20495,21 +21006,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="83">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-167</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>26</v>
       </c>
@@ -20546,20 +21061,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="83">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>26</v>
       </c>
@@ -20596,20 +21115,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="83">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>48</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>26</v>
       </c>
@@ -20646,18 +21169,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="83">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>26</v>
       </c>
@@ -20694,18 +21221,22 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="83">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="33"/>
       <c r="C14" s="61"/>
@@ -20723,18 +21254,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="84">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="33"/>
       <c r="C15" s="61"/>
@@ -20752,18 +21287,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="84">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -20781,18 +21320,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="84">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="33"/>
       <c r="C17" s="61"/>
@@ -20810,18 +21353,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="84">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="33"/>
       <c r="C18" s="61"/>
@@ -20839,18 +21386,22 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="84">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="33"/>
       <c r="C19" s="61"/>
@@ -20868,18 +21419,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="84">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="33"/>
       <c r="C20" s="61"/>
@@ -20897,18 +21452,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="84">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="33"/>
       <c r="C21" s="61"/>
@@ -20926,18 +21485,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="84">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="33"/>
       <c r="C22" s="61"/>
@@ -20955,18 +21518,22 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="33"/>
       <c r="C23" s="61"/>
@@ -20984,18 +21551,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="84">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="33"/>
       <c r="C24" s="61"/>
@@ -21013,18 +21584,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="84">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="26"/>
@@ -21042,26 +21617,105 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="84">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J29" s="73" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21072,10 +21726,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="M6" sqref="M6:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21088,20 +21742,21 @@
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -21134,20 +21789,23 @@
       <c r="L2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -21166,30 +21824,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="84">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -21208,27 +21870,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="84">
+        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -21247,50 +21913,54 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="61">
-        <f t="shared" ref="B6" si="0">((ROUND($L6/10,0))-1)*4+MOD($L6,10)+((J6-1)*16)</f>
+        <f t="shared" ref="B6" si="1">((ROUND($L6/10,0))-1)*4+MOD($L6,10)+((J6-1)*16)</f>
         <v>19</v>
       </c>
       <c r="C6" s="61">
-        <f>((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P6*COS($O$3)-Q6*SIN($O$3)+$O$7)*$S$3)</f>
         <v>233</v>
       </c>
       <c r="D6" s="61">
-        <f>((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P6*SIN($O$3)+Q6*COS($O$3)+$O$9)*$S$4)</f>
         <v>-36.762395692965995</v>
       </c>
       <c r="E6" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N6/3.1416*180)+$O$5)</f>
         <v>-59.999859694228427</v>
       </c>
       <c r="F6" s="60">
         <v>5</v>
       </c>
       <c r="G6" s="63">
-        <f t="shared" ref="G6:G10" si="1">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G6:G10" si="2">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
@@ -21304,48 +21974,52 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="83">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="61">
-        <f t="shared" ref="B7:B10" si="2">((ROUND($L7/10,0))-1)*4+MOD($L7,10)+((J7-1)*16)</f>
+        <f t="shared" ref="B7:B10" si="3">((ROUND($L7/10,0))-1)*4+MOD($L7,10)+((J7-1)*16)</f>
         <v>20</v>
       </c>
       <c r="C7" s="61">
-        <f t="shared" ref="C7:C10" si="3">((+O7*COS($N$3)-P7*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C7:C10" si="4">((+P7*COS($O$3)-Q7*SIN($O$3)+$O$7)*$S$3)</f>
         <v>233</v>
       </c>
       <c r="D7" s="61">
-        <f t="shared" ref="D7:D10" si="4">((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D7:D10" si="5">((P7*SIN($O$3)+Q7*COS($O$3)+$O$9)*$S$4)</f>
         <v>-18.287187078898</v>
       </c>
       <c r="E7" s="61">
-        <f t="shared" ref="E7:E10" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E7:E10" si="6">IF(($S$3*$S$4)=1,1,-1)*(($N7/3.1416*180)+$O$5)</f>
         <v>0</v>
       </c>
       <c r="F7" s="60">
         <v>6</v>
       </c>
       <c r="G7" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="1"/>
@@ -21359,47 +22033,51 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="83">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>85</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="C8" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>249</v>
       </c>
       <c r="D8" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.0495827718640101</v>
       </c>
       <c r="E8" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-59.999859694228427</v>
       </c>
       <c r="F8" s="60">
         <v>7</v>
       </c>
       <c r="G8" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
@@ -21413,47 +22091,51 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="83">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C9" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>249</v>
       </c>
       <c r="D9" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.4256258422039991</v>
       </c>
       <c r="E9" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F9" s="60">
         <v>8</v>
       </c>
       <c r="G9" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1"/>
@@ -21466,45 +22148,49 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-146</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C10" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>233</v>
       </c>
       <c r="D10" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.66323014923799</v>
       </c>
       <c r="E10" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.999859694228427</v>
       </c>
       <c r="F10" s="60">
         <v>9</v>
       </c>
       <c r="G10" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1"/>
@@ -21517,20 +22203,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="83">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -21548,20 +22238,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="84">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>64</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -21579,18 +22273,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="84">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -21608,18 +22306,22 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="84">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="33"/>
       <c r="C14" s="61"/>
@@ -21637,18 +22339,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="84">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="33"/>
       <c r="C15" s="61"/>
@@ -21666,18 +22372,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="84">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -21695,18 +22405,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="84">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="33"/>
       <c r="C17" s="61"/>
@@ -21724,18 +22438,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="33"/>
       <c r="C18" s="61"/>
@@ -21753,18 +22471,22 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="33"/>
       <c r="C19" s="61"/>
@@ -21782,18 +22504,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="84">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="33"/>
       <c r="C20" s="61"/>
@@ -21811,18 +22537,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="33"/>
       <c r="C21" s="61"/>
@@ -21840,18 +22570,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="84">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="33"/>
       <c r="C22" s="61"/>
@@ -21869,18 +22603,22 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="84">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="33"/>
       <c r="C23" s="61"/>
@@ -21898,18 +22636,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="84">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="33"/>
       <c r="C24" s="61"/>
@@ -21927,18 +22669,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="84">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="26"/>
@@ -21956,26 +22702,103 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="84">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J31" s="73" t="s">
         <v>31</v>
       </c>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21986,10 +22809,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22002,20 +22825,21 @@
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -22048,20 +22872,23 @@
       <c r="L2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -22080,30 +22907,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="84">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>1.0471975511965976</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -22122,27 +22953,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="84">
+        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -22161,26 +22996,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>60</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -22199,24 +23038,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62"/>
       <c r="B7" s="33"/>
       <c r="C7" s="61"/>
@@ -22235,23 +23078,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>200</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="33"/>
       <c r="C8" s="61"/>
@@ -22270,23 +23117,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="33"/>
       <c r="C9" s="61"/>
@@ -22304,21 +23155,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="84">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>150</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -22336,20 +23191,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="84">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -22367,20 +23226,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="84">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>64</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -22398,18 +23261,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="84">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -22427,18 +23294,22 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="84">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -22456,18 +23327,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="84">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -22485,18 +23360,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="84">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
@@ -22514,18 +23393,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="84">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -22543,18 +23426,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -22572,18 +23459,22 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -22601,18 +23492,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="84">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -22630,18 +23525,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -22659,18 +23558,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="84">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -22688,18 +23591,22 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="84">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -22717,18 +23624,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="84">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -22746,18 +23657,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="84">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -22775,21 +23690,103 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="84">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="73"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22800,10 +23797,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22816,20 +23813,21 @@
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -22862,20 +23860,23 @@
       <c r="L2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -22894,30 +23895,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="84">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -22936,27 +23941,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="84">
+        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -22975,26 +23984,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -23013,24 +24026,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62"/>
       <c r="B7" s="33"/>
       <c r="C7" s="61"/>
@@ -23049,23 +24066,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>31</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="33"/>
       <c r="C8" s="61"/>
@@ -23084,23 +24105,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="33"/>
       <c r="C9" s="61"/>
@@ -23118,21 +24143,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="84">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>261</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -23150,20 +24179,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="84">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -23181,20 +24214,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="84">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>64</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -23212,18 +24249,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="84">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -23241,18 +24282,22 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="84">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -23270,18 +24315,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="84">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="33"/>
       <c r="C15" s="61"/>
@@ -23299,18 +24348,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="84">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -23328,18 +24381,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="84">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="33"/>
       <c r="C17" s="61"/>
@@ -23357,18 +24414,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="33"/>
       <c r="C18" s="61"/>
@@ -23386,18 +24447,22 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -23415,18 +24480,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="84">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -23444,18 +24513,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -23473,18 +24546,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="84">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -23502,18 +24579,22 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="84">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -23531,18 +24612,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="84">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -23560,18 +24645,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="84">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -23589,21 +24678,100 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="84">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/skinGui/iniGenerators/leftLeg_Lower_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/leftLeg_Lower_ini_generator.xlsx
@@ -1,24 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10155" windowHeight="10110" activeTab="6"/>
-  </bookViews>
-  <sheets>
-    <sheet name="4535A" sheetId="1" r:id="rId1"/>
-    <sheet name="4535A_1" sheetId="2" r:id="rId2"/>
-    <sheet name="4535_1" sheetId="3" r:id="rId3"/>
-    <sheet name="4535_2" sheetId="6" r:id="rId4"/>
-    <sheet name="4535A_2" sheetId="4" r:id="rId5"/>
-    <sheet name="6451A" sheetId="7" r:id="rId6"/>
-    <sheet name="4616A" sheetId="8" r:id="rId7"/>
-    <sheet name="final ini" sheetId="5" r:id="rId8"/>
-  </sheets>
-  <calcPr calcId="145621"/>
-</workbook>
-</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="35">
@@ -128,732 +107,6 @@
     <t>Triangle # for the MTB</t>
   </si>
 </sst>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="19">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="26">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="85">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="21" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="25" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
-  </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFFCC"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12536,4112 +11789,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>5620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1681</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 28"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11648532" y="0"/>
-          <a:ext cx="4030178" cy="0"/>
-          <a:chOff x="10981462" y="1799664"/>
-          <a:chExt cx="5588677" cy="4621561"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 27"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10981462" y="1799664"/>
-            <a:ext cx="5588677" cy="4621561"/>
-            <a:chOff x="10824580" y="1351429"/>
-            <a:chExt cx="5588677" cy="4621561"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Picture 1" descr="Octagon.bmp"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10824580" y="1351429"/>
-              <a:ext cx="5588677" cy="4621561"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="6" name="Group 26"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="11482291" y="1533525"/>
-              <a:ext cx="4475329" cy="4017410"/>
-              <a:chOff x="11482291" y="1533525"/>
-              <a:chExt cx="4475329" cy="4017410"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="7" name="TextBox 2"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12557313" y="5286375"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>1</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="8" name="TextBox 3"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13192126" y="4849346"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>2</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="9" name="TextBox 4"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14213543" y="5132854"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>3</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="10" name="TextBox 5"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13805648" y="4248150"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>4</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="11" name="TextBox 6"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13899778" y="3717552"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>5</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="12" name="TextBox 8"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13829181" y="2614893"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>7</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="13" name="TextBox 9"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13219580" y="2124075"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>8</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="14" name="TextBox 10"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14144066" y="1905000"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>9</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="15" name="TextBox 11"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12397251" y="2143125"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>11</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="16" name="TextBox 12"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12597276" y="1533525"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>10</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="17" name="TextBox 13"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12797301" y="2800350"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>12</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="18" name="TextBox 14"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12049308" y="2486025"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>13</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="19" name="TextBox 15"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12578226" y="3600450"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>14</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="20" name="TextBox 16"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12154083" y="3933825"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>15</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="21" name="TextBox 17"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11954058" y="4676775"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>16</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="22" name="TextBox 18"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14751046" y="5010150"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>17</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="23" name="TextBox 19"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14834530" y="3989294"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>18</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="24" name="TextBox 20"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15320305" y="3727076"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>19</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="25" name="TextBox 21"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15594850" y="2875429"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>20</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="26" name="TextBox 22"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14979646" y="2533650"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>21</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="27" name="TextBox 23"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11482291" y="2790825"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>22</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="28" name="TextBox 24"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11491816" y="4010025"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>23</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 7"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14379949" y="3376893"/>
-            <a:ext cx="283614" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>6</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>41728</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>150712</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>522941</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>46190</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="Group 28"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11684640" y="2324653"/>
-          <a:ext cx="4515330" cy="3716684"/>
-          <a:chOff x="10968014" y="1847464"/>
-          <a:chExt cx="5518210" cy="4625913"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="30" name="Group 27"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10968014" y="1847464"/>
-            <a:ext cx="5518210" cy="4625913"/>
-            <a:chOff x="10811132" y="1399229"/>
-            <a:chExt cx="5518210" cy="4625913"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="32" name="Picture 1" descr="Octagon.bmp"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10811132" y="1399229"/>
-              <a:ext cx="5518210" cy="4563288"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="33" name="Group 26"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="11267099" y="1658047"/>
-              <a:ext cx="4751853" cy="4367095"/>
-              <a:chOff x="11267099" y="1658047"/>
-              <a:chExt cx="4751853" cy="4367095"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="34" name="TextBox 2"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12866656" y="5716555"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>1</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="35" name="TextBox 3"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13420772" y="5410971"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>2</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="36" name="TextBox 4"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14213546" y="5132855"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>3</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="37" name="TextBox 5"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13402164" y="4021111"/>
-                <a:ext cx="374185" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>4</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="38" name="TextBox 6"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14155323" y="4267226"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>5</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="39" name="TextBox 8"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13385347" y="3128720"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>7</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="40" name="TextBox 9"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13380978" y="1658047"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>8</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="41" name="TextBox 10"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14144069" y="1905000"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>9</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="42" name="TextBox 11"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11805472" y="1736844"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>11</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="43" name="TextBox 12"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12610728" y="1915907"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>10</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="44" name="TextBox 13"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12797303" y="2800350"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>12</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="45" name="TextBox 14"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12049311" y="2486025"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>13</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="46" name="TextBox 15"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12578228" y="3600451"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>14</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="47" name="TextBox 16"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11965791" y="4089169"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>15</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="48" name="TextBox 17"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11725418" y="5417641"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>16</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="49" name="TextBox 18"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14831745" y="5344735"/>
-                <a:ext cx="464407" cy="353417"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>17</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="50" name="TextBox 19"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14834529" y="3989295"/>
-                <a:ext cx="473478" cy="250357"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>18</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="51" name="TextBox 20"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15495151" y="4264801"/>
-                <a:ext cx="473478" cy="250357"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>19</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="52" name="TextBox 21"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15594852" y="2875430"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>20</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="53" name="TextBox 22"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14979649" y="2533650"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>21</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="54" name="TextBox 23"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11267099" y="2790826"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>22</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="55" name="TextBox 24"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11330423" y="4272912"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>23</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="TextBox 7"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14379950" y="3376892"/>
-            <a:ext cx="331561" cy="308587"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>6</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>5620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1681</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 28"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11648532" y="0"/>
-          <a:ext cx="4030178" cy="0"/>
-          <a:chOff x="10981462" y="1799664"/>
-          <a:chExt cx="5588677" cy="4621561"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 27"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10981462" y="1799664"/>
-            <a:ext cx="5588677" cy="4621561"/>
-            <a:chOff x="10824580" y="1351429"/>
-            <a:chExt cx="5588677" cy="4621561"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Picture 1" descr="Octagon.bmp"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10824580" y="1351429"/>
-              <a:ext cx="5588677" cy="4621561"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="6" name="Group 26"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="11482291" y="1533525"/>
-              <a:ext cx="4475329" cy="4017410"/>
-              <a:chOff x="11482291" y="1533525"/>
-              <a:chExt cx="4475329" cy="4017410"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="7" name="TextBox 2"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12557313" y="5286375"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>1</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="8" name="TextBox 3"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13192126" y="4849346"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>2</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="9" name="TextBox 4"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14213543" y="5132854"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>3</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="10" name="TextBox 5"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13805648" y="4248150"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>4</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="11" name="TextBox 6"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13899778" y="3717552"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>5</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="12" name="TextBox 8"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13829181" y="2614893"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>7</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="13" name="TextBox 9"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13219580" y="2124075"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>8</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="14" name="TextBox 10"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14144066" y="1905000"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>9</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="15" name="TextBox 11"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12397251" y="2143125"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>11</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="16" name="TextBox 12"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12597276" y="1533525"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>10</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="17" name="TextBox 13"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12797301" y="2800350"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>12</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="18" name="TextBox 14"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12049308" y="2486025"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>13</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="19" name="TextBox 15"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12578226" y="3600450"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>14</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="20" name="TextBox 16"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12154083" y="3933825"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>15</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="21" name="TextBox 17"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11954058" y="4676775"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>16</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="22" name="TextBox 18"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14751046" y="5010150"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>17</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="23" name="TextBox 19"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14834530" y="3989294"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>18</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="24" name="TextBox 20"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15320305" y="3727076"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>19</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="25" name="TextBox 21"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15594850" y="2875429"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>20</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="26" name="TextBox 22"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14979646" y="2533650"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>21</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="27" name="TextBox 23"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11482291" y="2790825"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>22</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="28" name="TextBox 24"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11491816" y="4010025"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>23</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 7"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14379949" y="3376893"/>
-            <a:ext cx="283614" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>6</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142581</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>105888</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>18677</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1366</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="Group 28"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11785493" y="2279829"/>
-          <a:ext cx="4515331" cy="3716684"/>
-          <a:chOff x="10968014" y="1847464"/>
-          <a:chExt cx="5518210" cy="4625913"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="30" name="Group 27"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10968014" y="1847464"/>
-            <a:ext cx="5518210" cy="4625913"/>
-            <a:chOff x="10811132" y="1399229"/>
-            <a:chExt cx="5518210" cy="4625913"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="32" name="Picture 1" descr="Octagon.bmp"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10811132" y="1399229"/>
-              <a:ext cx="5518210" cy="4563288"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="33" name="Group 26"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="11267099" y="1658047"/>
-              <a:ext cx="4751853" cy="4367095"/>
-              <a:chOff x="11267099" y="1658047"/>
-              <a:chExt cx="4751853" cy="4367095"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="34" name="TextBox 2"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12866656" y="5716555"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>1</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="35" name="TextBox 3"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13420772" y="5410971"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>2</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="36" name="TextBox 4"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14213546" y="5132855"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>3</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="37" name="TextBox 5"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13402164" y="4021111"/>
-                <a:ext cx="374185" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>4</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="38" name="TextBox 6"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14155323" y="4267226"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>5</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="39" name="TextBox 8"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13385347" y="3128720"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>7</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="40" name="TextBox 9"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13380978" y="1658047"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>8</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="41" name="TextBox 10"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14144069" y="1905000"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>9</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="42" name="TextBox 11"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11805472" y="1736844"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>11</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="43" name="TextBox 12"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12610728" y="1915907"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>10</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="44" name="TextBox 13"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12797303" y="2800350"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>12</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="45" name="TextBox 14"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12049311" y="2486025"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>13</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="46" name="TextBox 15"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12578228" y="3600451"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>14</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="47" name="TextBox 16"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11965791" y="4089169"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>15</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="48" name="TextBox 17"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11725418" y="5417641"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>16</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="49" name="TextBox 18"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14831745" y="5344735"/>
-                <a:ext cx="464407" cy="353417"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>17</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="50" name="TextBox 19"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14834529" y="3989295"/>
-                <a:ext cx="473478" cy="250357"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>18</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="51" name="TextBox 20"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15495151" y="4264801"/>
-                <a:ext cx="473478" cy="250357"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>19</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="52" name="TextBox 21"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15594852" y="2875430"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>20</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="53" name="TextBox 22"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14979649" y="2533650"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>21</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="54" name="TextBox 23"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11267099" y="2790826"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>22</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="55" name="TextBox 24"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11330423" y="4272912"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>23</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="TextBox 7"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14379950" y="3376892"/>
-            <a:ext cx="331561" cy="308587"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>6</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16927,4803 +12074,6 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U55"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.5703125" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" customWidth="1"/>
-    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="38">
-        <v>1</v>
-      </c>
-      <c r="K3" s="12">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13">
-        <v>10</v>
-      </c>
-      <c r="M3" s="84">
-        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O3" s="14">
-        <f>+RADIANS(O5)</f>
-        <v>-1.0471975511965976</v>
-      </c>
-      <c r="P3" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="39">
-        <v>100</v>
-      </c>
-      <c r="R3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="51">
-        <v>1</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="38">
-        <v>1</v>
-      </c>
-      <c r="K4" s="10">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5">
-        <v>11</v>
-      </c>
-      <c r="M4" s="84">
-        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="42">
-        <v>109.237604307034</v>
-      </c>
-      <c r="R4" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="53">
-        <v>1</v>
-      </c>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="38">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>12</v>
-      </c>
-      <c r="M5" s="84">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N5" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O5" s="3">
-        <v>-60</v>
-      </c>
-      <c r="P5" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="42">
-        <v>100</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="38">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
-        <v>17</v>
-      </c>
-      <c r="L6" s="5">
-        <v>13</v>
-      </c>
-      <c r="M6" s="84">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N6" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="41">
-        <v>148</v>
-      </c>
-      <c r="Q6" s="42">
-        <v>109.237604307034</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5">
-        <v>20</v>
-      </c>
-      <c r="M7" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="41">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="42">
-        <v>127.712812921102</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="38">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10">
-        <v>19</v>
-      </c>
-      <c r="L8" s="5">
-        <v>21</v>
-      </c>
-      <c r="M8" s="84">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="41">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="42">
-        <v>136.95041722813599</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="63"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10">
-        <v>20</v>
-      </c>
-      <c r="L9" s="5">
-        <v>22</v>
-      </c>
-      <c r="M9" s="84">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="41">
-        <v>164</v>
-      </c>
-      <c r="Q9" s="42">
-        <v>155.425625842204</v>
-      </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="63"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="38">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10">
-        <v>21</v>
-      </c>
-      <c r="L10" s="5">
-        <v>23</v>
-      </c>
-      <c r="M10" s="84">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="41">
-        <v>148</v>
-      </c>
-      <c r="Q10" s="42">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="63"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-      <c r="K11" s="10">
-        <v>4</v>
-      </c>
-      <c r="L11" s="5">
-        <v>40</v>
-      </c>
-      <c r="M11" s="84">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="55">
-        <v>0</v>
-      </c>
-      <c r="P11" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="42">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="63"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="38">
-        <v>1</v>
-      </c>
-      <c r="K12" s="10">
-        <v>5</v>
-      </c>
-      <c r="L12" s="5">
-        <v>41</v>
-      </c>
-      <c r="M12" s="84">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N12" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q12" s="42">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="63"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="38">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
-        <v>6</v>
-      </c>
-      <c r="L13" s="5">
-        <v>30</v>
-      </c>
-      <c r="M13" s="84">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q13" s="42">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="61">
-        <f t="shared" ref="B14:B15" si="1">((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*16)</f>
-        <v>9</v>
-      </c>
-      <c r="C14" s="61">
-        <f>((+P14*COS($O$3)-Q14*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>200.60254037844379</v>
-      </c>
-      <c r="D14" s="61">
-        <f>((P14*SIN($O$3)+Q14*COS($O$3)+$O$9)*$S$4)</f>
-        <v>-18.127331764375867</v>
-      </c>
-      <c r="E14" s="61">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N14/3.1416*180)+$O$5)</f>
-        <v>-1.403057715734235E-4</v>
-      </c>
-      <c r="F14" s="60">
-        <v>5</v>
-      </c>
-      <c r="G14" s="63">
-        <f t="shared" ref="G14:G15" si="2">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="38">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10">
-        <v>7</v>
-      </c>
-      <c r="L14" s="5">
-        <v>31</v>
-      </c>
-      <c r="M14" s="83">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="42">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="61">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="61">
-        <f>((+P15*COS($O$3)-Q15*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>216.60254037844379</v>
-      </c>
-      <c r="D15" s="61">
-        <f>((P15*SIN($O$3)+Q15*COS($O$3)+$O$9)*$S$4)</f>
-        <v>-8.8897274573418628</v>
-      </c>
-      <c r="E15" s="61">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N15/3.1416*180)+$O$5)</f>
-        <v>-60</v>
-      </c>
-      <c r="F15" s="60">
-        <v>5</v>
-      </c>
-      <c r="G15" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="38">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10">
-        <v>8</v>
-      </c>
-      <c r="L15" s="5">
-        <v>22</v>
-      </c>
-      <c r="M15" s="83">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="42">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="63"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="38">
-        <v>1</v>
-      </c>
-      <c r="K16" s="10">
-        <v>9</v>
-      </c>
-      <c r="L16" s="5">
-        <v>23</v>
-      </c>
-      <c r="M16" s="84">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N16" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="42">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="61">
-        <f t="shared" ref="B17:B24" si="3">((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
-        <v>3</v>
-      </c>
-      <c r="C17" s="61">
-        <f t="shared" ref="C17:C24" si="4">((+P17*COS($O$3)-Q17*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>216.60254037844373</v>
-      </c>
-      <c r="D17" s="61">
-        <f t="shared" ref="D17:D24" si="5">((P17*SIN($O$3)+Q17*COS($O$3)+$O$9)*$S$4)</f>
-        <v>9.5854811567261606</v>
-      </c>
-      <c r="E17" s="61">
-        <f t="shared" ref="E17:E24" si="6">IF(($S$3*$S$4)=1,1,-1)*(($N17/3.1416*180)+$O$5)</f>
-        <v>-1.403057715734235E-4</v>
-      </c>
-      <c r="F17" s="60">
-        <v>5</v>
-      </c>
-      <c r="G17" s="63">
-        <f t="shared" ref="G17:G24" si="7">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="38">
-        <v>1</v>
-      </c>
-      <c r="K17" s="10">
-        <v>10</v>
-      </c>
-      <c r="L17" s="5">
-        <v>13</v>
-      </c>
-      <c r="M17" s="83">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="41">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="42">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="61">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="C18" s="61">
-        <f t="shared" si="4"/>
-        <v>200.60254037844376</v>
-      </c>
-      <c r="D18" s="61">
-        <f t="shared" si="5"/>
-        <v>18.823085463760165</v>
-      </c>
-      <c r="E18" s="61">
-        <f t="shared" si="6"/>
-        <v>59.999719388456853</v>
-      </c>
-      <c r="F18" s="60">
-        <v>5</v>
-      </c>
-      <c r="G18" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="38">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10">
-        <v>11</v>
-      </c>
-      <c r="L18" s="5">
-        <v>20</v>
-      </c>
-      <c r="M18" s="83">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="41">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="42">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="61">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="61">
-        <f t="shared" si="4"/>
-        <v>184.60254037844379</v>
-      </c>
-      <c r="D19" s="61">
-        <f t="shared" si="5"/>
-        <v>-8.8897274573418485</v>
-      </c>
-      <c r="E19" s="61">
-        <f t="shared" si="6"/>
-        <v>59.999719388456853</v>
-      </c>
-      <c r="F19" s="60">
-        <v>5</v>
-      </c>
-      <c r="G19" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="38">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10">
-        <v>12</v>
-      </c>
-      <c r="L19" s="5">
-        <v>32</v>
-      </c>
-      <c r="M19" s="83">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="41">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="42">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="61">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C20" s="61">
-        <f t="shared" si="4"/>
-        <v>184.60254037844376</v>
-      </c>
-      <c r="D20" s="61">
-        <f t="shared" si="5"/>
-        <v>9.5854811567261606</v>
-      </c>
-      <c r="E20" s="61">
-        <f t="shared" si="6"/>
-        <v>-1.403057715734235E-4</v>
-      </c>
-      <c r="F20" s="60">
-        <v>5</v>
-      </c>
-      <c r="G20" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="38">
-        <v>1</v>
-      </c>
-      <c r="K20" s="10">
-        <v>13</v>
-      </c>
-      <c r="L20" s="5">
-        <v>21</v>
-      </c>
-      <c r="M20" s="83">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="41">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="42">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="61">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="C21" s="61">
-        <f t="shared" si="4"/>
-        <v>168.60254037844379</v>
-      </c>
-      <c r="D21" s="61">
-        <f t="shared" si="5"/>
-        <v>18.823085463760187</v>
-      </c>
-      <c r="E21" s="61">
-        <f t="shared" si="6"/>
-        <v>59.999719388456853</v>
-      </c>
-      <c r="F21" s="60">
-        <v>5</v>
-      </c>
-      <c r="G21" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="38">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <v>22</v>
-      </c>
-      <c r="L21" s="5">
-        <v>43</v>
-      </c>
-      <c r="M21" s="83">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N21" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="41">
-        <v>68</v>
-      </c>
-      <c r="Q21" s="42">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="61">
-        <f t="shared" si="4"/>
-        <v>152.60254037844382</v>
-      </c>
-      <c r="D22" s="61">
-        <f t="shared" si="5"/>
-        <v>9.585481156726182</v>
-      </c>
-      <c r="E22" s="61">
-        <f t="shared" si="6"/>
-        <v>119.99957908268468</v>
-      </c>
-      <c r="F22" s="60">
-        <v>5</v>
-      </c>
-      <c r="G22" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="38">
-        <v>1</v>
-      </c>
-      <c r="K22" s="10">
-        <v>23</v>
-      </c>
-      <c r="L22" s="5">
-        <v>10</v>
-      </c>
-      <c r="M22" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="41">
-        <v>68</v>
-      </c>
-      <c r="Q22" s="42">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="61">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="C23" s="61">
-        <f t="shared" si="4"/>
-        <v>168.60254037844382</v>
-      </c>
-      <c r="D23" s="61">
-        <f t="shared" si="5"/>
-        <v>-18.127331764375853</v>
-      </c>
-      <c r="E23" s="61">
-        <f t="shared" si="6"/>
-        <v>119.99957908268468</v>
-      </c>
-      <c r="F23" s="60">
-        <v>5</v>
-      </c>
-      <c r="G23" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="38">
-        <v>1</v>
-      </c>
-      <c r="K23" s="10">
-        <v>14</v>
-      </c>
-      <c r="L23" s="5">
-        <v>33</v>
-      </c>
-      <c r="M23" s="83">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N23" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="41">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="42">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="61">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="C24" s="61">
-        <f t="shared" si="4"/>
-        <v>152.60254037844382</v>
-      </c>
-      <c r="D24" s="61">
-        <f t="shared" si="5"/>
-        <v>-8.8897274573418343</v>
-      </c>
-      <c r="E24" s="61">
-        <f t="shared" si="6"/>
-        <v>59.999719388456853</v>
-      </c>
-      <c r="F24" s="60">
-        <v>5</v>
-      </c>
-      <c r="G24" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="38">
-        <v>1</v>
-      </c>
-      <c r="K24" s="10">
-        <v>15</v>
-      </c>
-      <c r="L24" s="5">
-        <v>42</v>
-      </c>
-      <c r="M24" s="83">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N24" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="41">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="42">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="63"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="38">
-        <v>1</v>
-      </c>
-      <c r="K25" s="44">
-        <v>16</v>
-      </c>
-      <c r="L25" s="45">
-        <v>43</v>
-      </c>
-      <c r="M25" s="84">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N25" s="46">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="49">
-        <v>109.237604307034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J28" s="73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-    </row>
-    <row r="34" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="39" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-    </row>
-    <row r="40" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-    </row>
-    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-    </row>
-    <row r="42" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-    </row>
-    <row r="43" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-    </row>
-    <row r="44" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-    </row>
-    <row r="45" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-    </row>
-    <row r="46" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G46" s="7"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-    </row>
-    <row r="47" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G47" s="7"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-    </row>
-    <row r="48" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-    </row>
-    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-    </row>
-    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-    </row>
-    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G51" s="7"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-    </row>
-    <row r="52" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G52" s="7"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-    </row>
-    <row r="53" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G53" s="7"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-    </row>
-    <row r="54" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G54" s="7"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-    </row>
-    <row r="55" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U55"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38:J39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="61">
-        <f t="shared" ref="B3:B4" si="0">((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*16)</f>
-        <v>16</v>
-      </c>
-      <c r="C3" s="61">
-        <f>((+P3*COS($O$3)-Q3*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>120.6025403784439</v>
-      </c>
-      <c r="D3" s="61">
-        <f>((P3*SIN($O$3)+Q3*COS($O$3)+$O$9)*$S$4)</f>
-        <v>9.3974596215561519</v>
-      </c>
-      <c r="E3" s="61">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N3/3.1416*180)+$O$5)</f>
-        <v>-239.99971938845687</v>
-      </c>
-      <c r="F3" s="60">
-        <v>5</v>
-      </c>
-      <c r="G3" s="63">
-        <f t="shared" ref="G3:G4" si="1">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="38">
-        <v>2</v>
-      </c>
-      <c r="K3" s="12">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13">
-        <v>10</v>
-      </c>
-      <c r="M3" s="83">
-        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O3" s="14">
-        <f>+RADIANS(O5)</f>
-        <v>-2.0943951023931953</v>
-      </c>
-      <c r="P3" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="39">
-        <v>100</v>
-      </c>
-      <c r="R3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="51">
-        <v>1</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="61">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C4" s="61">
-        <f>((+P4*COS($O$3)-Q4*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>120.60254037844389</v>
-      </c>
-      <c r="D4" s="61">
-        <f>((P4*SIN($O$3)+Q4*COS($O$3)+$O$9)*$S$4)</f>
-        <v>-9.0777489925118857</v>
-      </c>
-      <c r="E4" s="61">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N4/3.1416*180)+$O$5)</f>
-        <v>-179.99985969422843</v>
-      </c>
-      <c r="F4" s="60">
-        <v>5</v>
-      </c>
-      <c r="G4" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="38">
-        <v>2</v>
-      </c>
-      <c r="K4" s="10">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5">
-        <v>11</v>
-      </c>
-      <c r="M4" s="83">
-        <f t="shared" ref="M4:M25" si="2">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="42">
-        <v>109.237604307034</v>
-      </c>
-      <c r="R4" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="53">
-        <v>1</v>
-      </c>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="38">
-        <v>2</v>
-      </c>
-      <c r="K5" s="10">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>12</v>
-      </c>
-      <c r="M5" s="84">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N5" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O5" s="3">
-        <v>-120</v>
-      </c>
-      <c r="P5" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="42">
-        <v>100</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="38">
-        <v>2</v>
-      </c>
-      <c r="K6" s="10">
-        <v>17</v>
-      </c>
-      <c r="L6" s="5">
-        <v>13</v>
-      </c>
-      <c r="M6" s="84">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N6" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="41">
-        <v>148</v>
-      </c>
-      <c r="Q6" s="42">
-        <v>109.237604307034</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="38">
-        <v>2</v>
-      </c>
-      <c r="K7" s="10">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5">
-        <v>20</v>
-      </c>
-      <c r="M7" s="84">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>84</v>
-      </c>
-      <c r="P7" s="41">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="42">
-        <v>127.712812921102</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="38">
-        <v>2</v>
-      </c>
-      <c r="K8" s="10">
-        <v>19</v>
-      </c>
-      <c r="L8" s="5">
-        <v>21</v>
-      </c>
-      <c r="M8" s="84">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="41">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="42">
-        <v>136.95041722813599</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="63"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="38">
-        <v>2</v>
-      </c>
-      <c r="K9" s="10">
-        <v>20</v>
-      </c>
-      <c r="L9" s="5">
-        <v>22</v>
-      </c>
-      <c r="M9" s="84">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>146</v>
-      </c>
-      <c r="P9" s="41">
-        <v>164</v>
-      </c>
-      <c r="Q9" s="42">
-        <v>155.425625842204</v>
-      </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="63"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="38">
-        <v>2</v>
-      </c>
-      <c r="K10" s="10">
-        <v>21</v>
-      </c>
-      <c r="L10" s="5">
-        <v>23</v>
-      </c>
-      <c r="M10" s="84">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="41">
-        <v>148</v>
-      </c>
-      <c r="Q10" s="42">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="61">
-        <f>((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
-        <v>28</v>
-      </c>
-      <c r="C11" s="61">
-        <f>((+P11*COS($O$3)-Q11*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>136.60254037844385</v>
-      </c>
-      <c r="D11" s="61">
-        <f>((P11*SIN($O$3)+Q11*COS($O$3)+$O$9)*$S$4)</f>
-        <v>-18.315353299545848</v>
-      </c>
-      <c r="E11" s="61">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N11/3.1416*180)+$O$5)</f>
-        <v>-120</v>
-      </c>
-      <c r="F11" s="60">
-        <v>5</v>
-      </c>
-      <c r="G11" s="63">
-        <f t="shared" ref="G11" si="3">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="38">
-        <v>2</v>
-      </c>
-      <c r="K11" s="10">
-        <v>4</v>
-      </c>
-      <c r="L11" s="5">
-        <v>40</v>
-      </c>
-      <c r="M11" s="83">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="55">
-        <v>16</v>
-      </c>
-      <c r="P11" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="42">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="63"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="38">
-        <v>2</v>
-      </c>
-      <c r="K12" s="10">
-        <v>5</v>
-      </c>
-      <c r="L12" s="5">
-        <v>41</v>
-      </c>
-      <c r="M12" s="84">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="N12" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q12" s="42">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="63"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="38">
-        <v>2</v>
-      </c>
-      <c r="K13" s="10">
-        <v>6</v>
-      </c>
-      <c r="L13" s="5">
-        <v>30</v>
-      </c>
-      <c r="M13" s="84">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q13" s="42">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="63"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="38">
-        <v>2</v>
-      </c>
-      <c r="K14" s="10">
-        <v>7</v>
-      </c>
-      <c r="L14" s="5">
-        <v>31</v>
-      </c>
-      <c r="M14" s="84">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="42">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="63"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="38">
-        <v>2</v>
-      </c>
-      <c r="K15" s="10">
-        <v>8</v>
-      </c>
-      <c r="L15" s="5">
-        <v>22</v>
-      </c>
-      <c r="M15" s="84">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="42">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="25"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="38">
-        <v>2</v>
-      </c>
-      <c r="K16" s="10">
-        <v>9</v>
-      </c>
-      <c r="L16" s="5">
-        <v>23</v>
-      </c>
-      <c r="M16" s="84">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="N16" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="42">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="38">
-        <v>2</v>
-      </c>
-      <c r="K17" s="10">
-        <v>10</v>
-      </c>
-      <c r="L17" s="5">
-        <v>13</v>
-      </c>
-      <c r="M17" s="84">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="41">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="42">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="63"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="38">
-        <v>2</v>
-      </c>
-      <c r="K18" s="10">
-        <v>11</v>
-      </c>
-      <c r="L18" s="5">
-        <v>20</v>
-      </c>
-      <c r="M18" s="84">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="41">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="42">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="63"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="38">
-        <v>2</v>
-      </c>
-      <c r="K19" s="10">
-        <v>12</v>
-      </c>
-      <c r="L19" s="5">
-        <v>32</v>
-      </c>
-      <c r="M19" s="84">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="41">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="42">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="63"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="38">
-        <v>2</v>
-      </c>
-      <c r="K20" s="10">
-        <v>13</v>
-      </c>
-      <c r="L20" s="5">
-        <v>21</v>
-      </c>
-      <c r="M20" s="84">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="41">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="42">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="63"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="38">
-        <v>2</v>
-      </c>
-      <c r="K21" s="10">
-        <v>22</v>
-      </c>
-      <c r="L21" s="5">
-        <v>43</v>
-      </c>
-      <c r="M21" s="84">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="N21" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="41">
-        <v>68</v>
-      </c>
-      <c r="Q21" s="42">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="63"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="38">
-        <v>2</v>
-      </c>
-      <c r="K22" s="10">
-        <v>23</v>
-      </c>
-      <c r="L22" s="5">
-        <v>10</v>
-      </c>
-      <c r="M22" s="84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="41">
-        <v>68</v>
-      </c>
-      <c r="Q22" s="42">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="63"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="38">
-        <v>2</v>
-      </c>
-      <c r="K23" s="10">
-        <v>14</v>
-      </c>
-      <c r="L23" s="5">
-        <v>33</v>
-      </c>
-      <c r="M23" s="84">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="N23" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="41">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="42">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="63"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="38">
-        <v>2</v>
-      </c>
-      <c r="K24" s="10">
-        <v>15</v>
-      </c>
-      <c r="L24" s="5">
-        <v>42</v>
-      </c>
-      <c r="M24" s="84">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="N24" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="41">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="42">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="63"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="38">
-        <v>2</v>
-      </c>
-      <c r="K25" s="44">
-        <v>16</v>
-      </c>
-      <c r="L25" s="45">
-        <v>43</v>
-      </c>
-      <c r="M25" s="84">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="N25" s="46">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="49">
-        <v>109.237604307034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J29" s="73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O30" s="56"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M50" s="8"/>
-    </row>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M51" s="8"/>
-    </row>
-    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M52" s="8"/>
-    </row>
-    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M55" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U55"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="38">
-        <v>3</v>
-      </c>
-      <c r="K3" s="12">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13">
-        <v>10</v>
-      </c>
-      <c r="M3" s="84">
-        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O3" s="14">
-        <f>+RADIANS(O5)</f>
-        <v>2.0943951023931953</v>
-      </c>
-      <c r="P3" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="39">
-        <v>100</v>
-      </c>
-      <c r="R3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="51">
-        <v>1</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="38">
-        <v>3</v>
-      </c>
-      <c r="K4" s="10">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5">
-        <v>11</v>
-      </c>
-      <c r="M4" s="84">
-        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="42">
-        <v>109.237604307034</v>
-      </c>
-      <c r="R4" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="53">
-        <v>1</v>
-      </c>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="38">
-        <v>3</v>
-      </c>
-      <c r="K5" s="10">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>12</v>
-      </c>
-      <c r="M5" s="84">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N5" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O5" s="3">
-        <v>120</v>
-      </c>
-      <c r="P5" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="42">
-        <v>100</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="38">
-        <v>3</v>
-      </c>
-      <c r="K6" s="10">
-        <v>17</v>
-      </c>
-      <c r="L6" s="5">
-        <v>13</v>
-      </c>
-      <c r="M6" s="84">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N6" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="41">
-        <v>148</v>
-      </c>
-      <c r="Q6" s="42">
-        <v>109.237604307034</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="38">
-        <v>3</v>
-      </c>
-      <c r="K7" s="10">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5">
-        <v>20</v>
-      </c>
-      <c r="M7" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>370</v>
-      </c>
-      <c r="P7" s="41">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="42">
-        <v>127.712812921102</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="38">
-        <v>3</v>
-      </c>
-      <c r="K8" s="10">
-        <v>19</v>
-      </c>
-      <c r="L8" s="5">
-        <v>21</v>
-      </c>
-      <c r="M8" s="84">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="41">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="42">
-        <v>136.95041722813599</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="63"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="38">
-        <v>3</v>
-      </c>
-      <c r="K9" s="10">
-        <v>20</v>
-      </c>
-      <c r="L9" s="5">
-        <v>22</v>
-      </c>
-      <c r="M9" s="84">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <f>-46-10</f>
-        <v>-56</v>
-      </c>
-      <c r="P9" s="41">
-        <v>164</v>
-      </c>
-      <c r="Q9" s="42">
-        <v>155.425625842204</v>
-      </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="63"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="38">
-        <v>3</v>
-      </c>
-      <c r="K10" s="10">
-        <v>21</v>
-      </c>
-      <c r="L10" s="5">
-        <v>23</v>
-      </c>
-      <c r="M10" s="84">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="41">
-        <v>148</v>
-      </c>
-      <c r="Q10" s="42">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="63"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="38">
-        <v>3</v>
-      </c>
-      <c r="K11" s="10">
-        <v>4</v>
-      </c>
-      <c r="L11" s="5">
-        <v>40</v>
-      </c>
-      <c r="M11" s="84">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="55">
-        <f>16*2</f>
-        <v>32</v>
-      </c>
-      <c r="P11" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="42">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="63"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="38">
-        <v>3</v>
-      </c>
-      <c r="K12" s="10">
-        <v>5</v>
-      </c>
-      <c r="L12" s="5">
-        <v>41</v>
-      </c>
-      <c r="M12" s="84">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N12" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q12" s="42">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="63"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="38">
-        <v>3</v>
-      </c>
-      <c r="K13" s="10">
-        <v>6</v>
-      </c>
-      <c r="L13" s="5">
-        <v>30</v>
-      </c>
-      <c r="M13" s="84">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q13" s="42">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="61">
-        <f>((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*16)</f>
-        <v>41</v>
-      </c>
-      <c r="C14" s="61">
-        <f>((+P14*COS($O$3)-Q14*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>169.39745962155624</v>
-      </c>
-      <c r="D14" s="61">
-        <f>((P14*SIN($O$3)+Q14*COS($O$3)+$O$9)*$S$4)</f>
-        <v>-37.872668235624062</v>
-      </c>
-      <c r="E14" s="61">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N14/3.1416*180)+$O$5)</f>
-        <v>179.99985969422843</v>
-      </c>
-      <c r="F14" s="60">
-        <v>5</v>
-      </c>
-      <c r="G14" s="63">
-        <f t="shared" ref="G14:G15" si="1">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="38">
-        <v>3</v>
-      </c>
-      <c r="K14" s="10">
-        <v>7</v>
-      </c>
-      <c r="L14" s="5">
-        <v>31</v>
-      </c>
-      <c r="M14" s="83">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="42">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="61">
-        <f>((ROUND($L15/10,0))-1)*4+MOD($L15,10)+((J15-1)*16)</f>
-        <v>38</v>
-      </c>
-      <c r="C15" s="61">
-        <f>((+P15*COS($O$3)-Q15*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>153.39745962155624</v>
-      </c>
-      <c r="D15" s="61">
-        <f>((P15*SIN($O$3)+Q15*COS($O$3)+$O$9)*$S$4)</f>
-        <v>-47.110272542658066</v>
-      </c>
-      <c r="E15" s="61">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N15/3.1416*180)+$O$5)</f>
-        <v>120</v>
-      </c>
-      <c r="F15" s="60">
-        <v>5</v>
-      </c>
-      <c r="G15" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="38">
-        <v>3</v>
-      </c>
-      <c r="K15" s="10">
-        <v>8</v>
-      </c>
-      <c r="L15" s="5">
-        <v>22</v>
-      </c>
-      <c r="M15" s="83">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="42">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="63"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="38">
-        <v>3</v>
-      </c>
-      <c r="K16" s="10">
-        <v>9</v>
-      </c>
-      <c r="L16" s="5">
-        <v>23</v>
-      </c>
-      <c r="M16" s="84">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N16" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="42">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="61">
-        <f>((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
-        <v>35</v>
-      </c>
-      <c r="C17" s="61">
-        <f t="shared" ref="C17:C24" si="2">((+P17*COS($O$3)-Q17*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>153.39745962155627</v>
-      </c>
-      <c r="D17" s="61">
-        <f t="shared" ref="D17:D24" si="3">((P17*SIN($O$3)+Q17*COS($O$3)+$O$9)*$S$4)</f>
-        <v>-65.585481156726075</v>
-      </c>
-      <c r="E17" s="61">
-        <f t="shared" ref="E17:E24" si="4">IF(($S$3*$S$4)=1,1,-1)*(($N17/3.1416*180)+$O$5)</f>
-        <v>179.99985969422843</v>
-      </c>
-      <c r="F17" s="60">
-        <v>5</v>
-      </c>
-      <c r="G17" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="38">
-        <v>3</v>
-      </c>
-      <c r="K17" s="10">
-        <v>10</v>
-      </c>
-      <c r="L17" s="5">
-        <v>13</v>
-      </c>
-      <c r="M17" s="83">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="41">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="42">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="61">
-        <f>((ROUND($L18/10,0))-1)*4+MOD($L18,10)+((J18-1)*16)</f>
-        <v>36</v>
-      </c>
-      <c r="C18" s="61">
-        <f t="shared" si="2"/>
-        <v>169.39745962155624</v>
-      </c>
-      <c r="D18" s="61">
-        <f t="shared" si="3"/>
-        <v>-74.823085463760108</v>
-      </c>
-      <c r="E18" s="61">
-        <f t="shared" si="4"/>
-        <v>239.99971938845687</v>
-      </c>
-      <c r="F18" s="60">
-        <v>5</v>
-      </c>
-      <c r="G18" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="38">
-        <v>3</v>
-      </c>
-      <c r="K18" s="10">
-        <v>11</v>
-      </c>
-      <c r="L18" s="5">
-        <v>20</v>
-      </c>
-      <c r="M18" s="83">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="41">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="42">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="61">
-        <f>((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
-        <v>42</v>
-      </c>
-      <c r="C19" s="61">
-        <f t="shared" si="2"/>
-        <v>185.39745962155621</v>
-      </c>
-      <c r="D19" s="61">
-        <f t="shared" si="3"/>
-        <v>-47.110272542658095</v>
-      </c>
-      <c r="E19" s="61">
-        <f t="shared" si="4"/>
-        <v>239.99971938845687</v>
-      </c>
-      <c r="F19" s="60">
-        <v>5</v>
-      </c>
-      <c r="G19" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="38">
-        <v>3</v>
-      </c>
-      <c r="K19" s="10">
-        <v>12</v>
-      </c>
-      <c r="L19" s="5">
-        <v>32</v>
-      </c>
-      <c r="M19" s="83">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="41">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="42">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="61">
-        <f>((ROUND($L20/10,0))-1)*4+MOD($L20,10)+((J20-1)*16)</f>
-        <v>37</v>
-      </c>
-      <c r="C20" s="61">
-        <f t="shared" si="2"/>
-        <v>185.39745962155624</v>
-      </c>
-      <c r="D20" s="61">
-        <f t="shared" si="3"/>
-        <v>-65.585481156726104</v>
-      </c>
-      <c r="E20" s="61">
-        <f t="shared" si="4"/>
-        <v>179.99985969422843</v>
-      </c>
-      <c r="F20" s="60">
-        <v>5</v>
-      </c>
-      <c r="G20" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="38">
-        <v>3</v>
-      </c>
-      <c r="K20" s="10">
-        <v>13</v>
-      </c>
-      <c r="L20" s="5">
-        <v>21</v>
-      </c>
-      <c r="M20" s="83">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="41">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="42">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="61">
-        <f>((ROUND($L21/10,0))-1)*4+MOD($L21,10)+((J21-1)*16)</f>
-        <v>47</v>
-      </c>
-      <c r="C21" s="61">
-        <f t="shared" si="2"/>
-        <v>201.39745962155621</v>
-      </c>
-      <c r="D21" s="61">
-        <f t="shared" si="3"/>
-        <v>-74.823085463760137</v>
-      </c>
-      <c r="E21" s="61">
-        <f t="shared" si="4"/>
-        <v>239.99971938845687</v>
-      </c>
-      <c r="F21" s="60">
-        <v>5</v>
-      </c>
-      <c r="G21" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="38">
-        <v>3</v>
-      </c>
-      <c r="K21" s="10">
-        <v>22</v>
-      </c>
-      <c r="L21" s="5">
-        <v>43</v>
-      </c>
-      <c r="M21" s="83">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N21" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="41">
-        <v>68</v>
-      </c>
-      <c r="Q21" s="42">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="61">
-        <f>((ROUND($L22/10,0))-1)*4+MOD($L22,10)+((J22-1)*16)</f>
-        <v>32</v>
-      </c>
-      <c r="C22" s="61">
-        <f t="shared" si="2"/>
-        <v>217.39745962155621</v>
-      </c>
-      <c r="D22" s="61">
-        <f t="shared" si="3"/>
-        <v>-65.585481156726132</v>
-      </c>
-      <c r="E22" s="61">
-        <f t="shared" si="4"/>
-        <v>299.9995790826847</v>
-      </c>
-      <c r="F22" s="60">
-        <v>5</v>
-      </c>
-      <c r="G22" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="38">
-        <v>3</v>
-      </c>
-      <c r="K22" s="10">
-        <v>23</v>
-      </c>
-      <c r="L22" s="5">
-        <v>10</v>
-      </c>
-      <c r="M22" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="41">
-        <v>68</v>
-      </c>
-      <c r="Q22" s="42">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="61">
-        <f>((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
-        <v>43</v>
-      </c>
-      <c r="C23" s="61">
-        <f t="shared" si="2"/>
-        <v>201.39745962155621</v>
-      </c>
-      <c r="D23" s="61">
-        <f t="shared" si="3"/>
-        <v>-37.87266823562409</v>
-      </c>
-      <c r="E23" s="61">
-        <f t="shared" si="4"/>
-        <v>299.9995790826847</v>
-      </c>
-      <c r="F23" s="60">
-        <v>5</v>
-      </c>
-      <c r="G23" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="38">
-        <v>3</v>
-      </c>
-      <c r="K23" s="10">
-        <v>14</v>
-      </c>
-      <c r="L23" s="5">
-        <v>33</v>
-      </c>
-      <c r="M23" s="83">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N23" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="41">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="42">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="61">
-        <f>((ROUND($L24/10,0))-1)*4+MOD($L24,10)+((J24-1)*16)</f>
-        <v>46</v>
-      </c>
-      <c r="C24" s="61">
-        <f t="shared" si="2"/>
-        <v>217.39745962155618</v>
-      </c>
-      <c r="D24" s="61">
-        <f t="shared" si="3"/>
-        <v>-47.110272542658123</v>
-      </c>
-      <c r="E24" s="61">
-        <f t="shared" si="4"/>
-        <v>239.99971938845687</v>
-      </c>
-      <c r="F24" s="60">
-        <v>5</v>
-      </c>
-      <c r="G24" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="38">
-        <v>3</v>
-      </c>
-      <c r="K24" s="10">
-        <v>15</v>
-      </c>
-      <c r="L24" s="5">
-        <v>42</v>
-      </c>
-      <c r="M24" s="83">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N24" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="41">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="42">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="63"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="38">
-        <v>3</v>
-      </c>
-      <c r="K25" s="44">
-        <v>16</v>
-      </c>
-      <c r="L25" s="45">
-        <v>43</v>
-      </c>
-      <c r="M25" s="84">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N25" s="46">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="49">
-        <v>109.237604307034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J29" s="73" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M50" s="8"/>
-    </row>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M51" s="8"/>
-    </row>
-    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M52" s="8"/>
-    </row>
-    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M55" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U55"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="38">
-        <v>4</v>
-      </c>
-      <c r="K3" s="12">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13">
-        <v>10</v>
-      </c>
-      <c r="M3" s="84">
-        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O3" s="14">
-        <f>+RADIANS(O5)</f>
-        <v>2.0943951023931953</v>
-      </c>
-      <c r="P3" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="39">
-        <v>100</v>
-      </c>
-      <c r="R3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="51">
-        <v>1</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="61">
-        <f t="shared" ref="B4:B13" si="0">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*16)</f>
-        <v>49</v>
-      </c>
-      <c r="C4" s="61">
-        <f t="shared" ref="C4:C13" si="1">((+P4*COS($O$3)-Q4*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>217.39745962155615</v>
-      </c>
-      <c r="D4" s="61">
-        <f t="shared" ref="D4:D13" si="2">((P4*SIN($O$3)+Q4*COS($O$3)+$O$9)*$S$4)</f>
-        <v>-121.15985531452209</v>
-      </c>
-      <c r="E4" s="61">
-        <f t="shared" ref="E4:E13" si="3">IF(($S$3*$S$4)=1,1,-1)*(($N4/3.1416*180)+$O$5)</f>
-        <v>60.000140305771573</v>
-      </c>
-      <c r="F4" s="60">
-        <v>5</v>
-      </c>
-      <c r="G4" s="63">
-        <f t="shared" ref="G4:G13" si="4">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="40">
-        <v>4</v>
-      </c>
-      <c r="K4" s="10">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5">
-        <v>11</v>
-      </c>
-      <c r="M4" s="83">
-        <f t="shared" ref="M4:M25" si="5">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="42">
-        <v>109.237604307034</v>
-      </c>
-      <c r="R4" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="53">
-        <v>1</v>
-      </c>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="61">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C5" s="61">
-        <f t="shared" si="1"/>
-        <v>217.39745962155615</v>
-      </c>
-      <c r="D5" s="61">
-        <f t="shared" si="2"/>
-        <v>-102.68464670045407</v>
-      </c>
-      <c r="E5" s="61">
-        <f t="shared" si="3"/>
-        <v>2.80611543146847E-4</v>
-      </c>
-      <c r="F5" s="60">
-        <v>5</v>
-      </c>
-      <c r="G5" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="38">
-        <v>4</v>
-      </c>
-      <c r="K5" s="10">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>12</v>
-      </c>
-      <c r="M5" s="83">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="N5" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O5" s="3">
-        <v>120</v>
-      </c>
-      <c r="P5" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="42">
-        <v>100</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="61">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C6" s="61">
-        <f t="shared" si="1"/>
-        <v>201.39745962155615</v>
-      </c>
-      <c r="D6" s="61">
-        <f t="shared" si="2"/>
-        <v>-93.447042393420048</v>
-      </c>
-      <c r="E6" s="61">
-        <f t="shared" si="3"/>
-        <v>60.000140305771573</v>
-      </c>
-      <c r="F6" s="60">
-        <v>5</v>
-      </c>
-      <c r="G6" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="40">
-        <v>4</v>
-      </c>
-      <c r="K6" s="10">
-        <v>17</v>
-      </c>
-      <c r="L6" s="5">
-        <v>13</v>
-      </c>
-      <c r="M6" s="83">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="N6" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="41">
-        <v>148</v>
-      </c>
-      <c r="Q6" s="42">
-        <v>109.237604307034</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="61">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C7" s="61">
-        <f t="shared" si="1"/>
-        <v>185.39745962155621</v>
-      </c>
-      <c r="D7" s="61">
-        <f t="shared" si="2"/>
-        <v>-102.68464670045404</v>
-      </c>
-      <c r="E7" s="61">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="F7" s="60">
-        <v>5</v>
-      </c>
-      <c r="G7" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="38">
-        <v>4</v>
-      </c>
-      <c r="K7" s="10">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5">
-        <v>20</v>
-      </c>
-      <c r="M7" s="83">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>370</v>
-      </c>
-      <c r="P7" s="41">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="42">
-        <v>127.712812921102</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="61">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C8" s="61">
-        <f t="shared" si="1"/>
-        <v>169.39745962155621</v>
-      </c>
-      <c r="D8" s="61">
-        <f t="shared" si="2"/>
-        <v>-93.447042393420006</v>
-      </c>
-      <c r="E8" s="61">
-        <f t="shared" si="3"/>
-        <v>60.000140305771573</v>
-      </c>
-      <c r="F8" s="60">
-        <v>5</v>
-      </c>
-      <c r="G8" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="40">
-        <v>4</v>
-      </c>
-      <c r="K8" s="10">
-        <v>19</v>
-      </c>
-      <c r="L8" s="5">
-        <v>21</v>
-      </c>
-      <c r="M8" s="83">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="41">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="42">
-        <v>136.95041722813599</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="61">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C9" s="61">
-        <f t="shared" si="1"/>
-        <v>153.39745962155621</v>
-      </c>
-      <c r="D9" s="61">
-        <f t="shared" si="2"/>
-        <v>-102.68464670045401</v>
-      </c>
-      <c r="E9" s="61">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="F9" s="60">
-        <v>5</v>
-      </c>
-      <c r="G9" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="38">
-        <v>4</v>
-      </c>
-      <c r="K9" s="10">
-        <v>20</v>
-      </c>
-      <c r="L9" s="5">
-        <v>22</v>
-      </c>
-      <c r="M9" s="83">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>-167</v>
-      </c>
-      <c r="P9" s="41">
-        <v>164</v>
-      </c>
-      <c r="Q9" s="42">
-        <v>155.425625842204</v>
-      </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="61">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C10" s="61">
-        <f t="shared" si="1"/>
-        <v>153.39745962155624</v>
-      </c>
-      <c r="D10" s="61">
-        <f t="shared" si="2"/>
-        <v>-121.15985531452202</v>
-      </c>
-      <c r="E10" s="61">
-        <f t="shared" si="3"/>
-        <v>179.99985969422843</v>
-      </c>
-      <c r="F10" s="60">
-        <v>5</v>
-      </c>
-      <c r="G10" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="40">
-        <v>4</v>
-      </c>
-      <c r="K10" s="10">
-        <v>21</v>
-      </c>
-      <c r="L10" s="5">
-        <v>23</v>
-      </c>
-      <c r="M10" s="83">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="41">
-        <v>148</v>
-      </c>
-      <c r="Q10" s="42">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="61">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C11" s="61">
-        <f t="shared" si="1"/>
-        <v>201.39745962155621</v>
-      </c>
-      <c r="D11" s="61">
-        <f t="shared" si="2"/>
-        <v>-130.3974596215561</v>
-      </c>
-      <c r="E11" s="61">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="F11" s="60">
-        <v>5</v>
-      </c>
-      <c r="G11" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="38">
-        <v>4</v>
-      </c>
-      <c r="K11" s="10">
-        <v>4</v>
-      </c>
-      <c r="L11" s="5">
-        <v>40</v>
-      </c>
-      <c r="M11" s="83">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="55">
-        <v>48</v>
-      </c>
-      <c r="P11" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="42">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="61">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="C12" s="61">
-        <f t="shared" si="1"/>
-        <v>185.39745962155621</v>
-      </c>
-      <c r="D12" s="61">
-        <f t="shared" si="2"/>
-        <v>-121.15985531452206</v>
-      </c>
-      <c r="E12" s="61">
-        <f t="shared" si="3"/>
-        <v>60.000140305771573</v>
-      </c>
-      <c r="F12" s="60">
-        <v>5</v>
-      </c>
-      <c r="G12" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40">
-        <v>4</v>
-      </c>
-      <c r="K12" s="10">
-        <v>5</v>
-      </c>
-      <c r="L12" s="5">
-        <v>41</v>
-      </c>
-      <c r="M12" s="83">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="N12" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q12" s="42">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="61">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C13" s="61">
-        <f t="shared" si="1"/>
-        <v>169.39745962155621</v>
-      </c>
-      <c r="D13" s="61">
-        <f t="shared" si="2"/>
-        <v>-130.39745962155607</v>
-      </c>
-      <c r="E13" s="61">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="F13" s="60">
-        <v>5</v>
-      </c>
-      <c r="G13" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="38">
-        <v>4</v>
-      </c>
-      <c r="K13" s="10">
-        <v>6</v>
-      </c>
-      <c r="L13" s="5">
-        <v>30</v>
-      </c>
-      <c r="M13" s="83">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q13" s="42">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="63"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="40">
-        <v>4</v>
-      </c>
-      <c r="K14" s="10">
-        <v>7</v>
-      </c>
-      <c r="L14" s="5">
-        <v>31</v>
-      </c>
-      <c r="M14" s="84">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="42">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="63"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="38">
-        <v>4</v>
-      </c>
-      <c r="K15" s="10">
-        <v>8</v>
-      </c>
-      <c r="L15" s="5">
-        <v>22</v>
-      </c>
-      <c r="M15" s="84">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="42">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="63"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="40">
-        <v>4</v>
-      </c>
-      <c r="K16" s="10">
-        <v>9</v>
-      </c>
-      <c r="L16" s="5">
-        <v>23</v>
-      </c>
-      <c r="M16" s="84">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="N16" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="41">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="42">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="38">
-        <v>4</v>
-      </c>
-      <c r="K17" s="10">
-        <v>10</v>
-      </c>
-      <c r="L17" s="5">
-        <v>13</v>
-      </c>
-      <c r="M17" s="84">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="41">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="42">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="63"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="40">
-        <v>4</v>
-      </c>
-      <c r="K18" s="10">
-        <v>11</v>
-      </c>
-      <c r="L18" s="5">
-        <v>20</v>
-      </c>
-      <c r="M18" s="84">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="41">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="42">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="63"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="38">
-        <v>4</v>
-      </c>
-      <c r="K19" s="10">
-        <v>12</v>
-      </c>
-      <c r="L19" s="5">
-        <v>32</v>
-      </c>
-      <c r="M19" s="84">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="41">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="42">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="63"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="40">
-        <v>4</v>
-      </c>
-      <c r="K20" s="10">
-        <v>13</v>
-      </c>
-      <c r="L20" s="5">
-        <v>21</v>
-      </c>
-      <c r="M20" s="84">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="41">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="42">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="63"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="38">
-        <v>4</v>
-      </c>
-      <c r="K21" s="10">
-        <v>22</v>
-      </c>
-      <c r="L21" s="5">
-        <v>43</v>
-      </c>
-      <c r="M21" s="84">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="N21" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="41">
-        <v>68</v>
-      </c>
-      <c r="Q21" s="42">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="63"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="40">
-        <v>4</v>
-      </c>
-      <c r="K22" s="10">
-        <v>23</v>
-      </c>
-      <c r="L22" s="5">
-        <v>10</v>
-      </c>
-      <c r="M22" s="84">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="41">
-        <v>68</v>
-      </c>
-      <c r="Q22" s="42">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="63"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="38">
-        <v>4</v>
-      </c>
-      <c r="K23" s="10">
-        <v>14</v>
-      </c>
-      <c r="L23" s="5">
-        <v>33</v>
-      </c>
-      <c r="M23" s="84">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="N23" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="41">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="42">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="63"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="40">
-        <v>4</v>
-      </c>
-      <c r="K24" s="10">
-        <v>15</v>
-      </c>
-      <c r="L24" s="5">
-        <v>42</v>
-      </c>
-      <c r="M24" s="84">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="N24" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="41">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="42">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="38">
-        <v>4</v>
-      </c>
-      <c r="K25" s="44">
-        <v>16</v>
-      </c>
-      <c r="L25" s="45">
-        <v>43</v>
-      </c>
-      <c r="M25" s="84">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="N25" s="46">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="49">
-        <v>109.237604307034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J29" s="73" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M50" s="8"/>
-    </row>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M51" s="8"/>
-    </row>
-    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M52" s="8"/>
-    </row>
-    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M55" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U55"/>
